--- a/blogPostReady.xlsx
+++ b/blogPostReady.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,549 +418,583 @@
         <v>postIntro</v>
       </c>
       <c r="E1" t="str">
+        <v>tableOfContent</v>
+      </c>
+      <c r="F1" t="str">
+        <v>slug</v>
+      </c>
+      <c r="G1" t="str">
         <v>postNote</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>placeRank1</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>placeRank2</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>placeRank3</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>placeRank4</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>placeRank5</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>placeRank6</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>placeRank7</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>placeRank8</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>placeRank9</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>placeRank10</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>placeRank11</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>placeRank12</v>
       </c>
-      <c r="R1" t="str">
+      <c r="T1" t="str">
         <v>placeRank13</v>
       </c>
-      <c r="S1" t="str">
+      <c r="U1" t="str">
         <v>placeRank14</v>
       </c>
-      <c r="T1" t="str">
-        <v>placeRank15</v>
-      </c>
-      <c r="U1" t="str">
-        <v>slug</v>
+      <c r="V1" t="str">
+        <v>outro</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>cancun</v>
+        <v>queretaro</v>
       </c>
       <c r="B2" t="str">
         <v>Viveros</v>
       </c>
       <c r="C2" t="str">
-        <v>Viveros en cancun: Los Mejores Viveros en cancun quintanarooy alrededores.</v>
+        <v>Viveros en queretaro: Los Mejores Viveros en queretaro queretaroy alrededores.</v>
       </c>
       <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">¡Hola y Bienvenid@ a esta Tierra de Plantas!. Si eres alguien amante de las plantas, estás buscando un buen vivero y vives en cancun, ¡llegaste al lugar indicado!.
-    En este artículo te presentaremos los mejores viveros en cancun, para que puedas encontrar todo lo que necesitas para tu jardín o huerto. Además, te daremos detalles sobre la ubicación y vías de contacto de cada sitio, así como la calificación promedio que los clientes le han dado a cada uno. Así que prepárate para conocer los mejores viveros de esta ciudad y encontrar todo lo que necesitas para hacer crecer tus plantas con éxito. ¡Comencemos! </v>
-      </c>
-      <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-        &lt;p class="has-background" style="background-color:#C8F9DD;font-size:15px"&gt;Nota: Los horarios y contactos de los viveros incluidos en esta lista fueron tomados de sus sitios y publicidad oficial. Si existe algún error ¡por favor no dudes en contactarnos! para hacer las correcciones pertinentes&lt;/p&gt;
-        </v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#1 Vivero Espacios Verdes Cancún&lt;/b&gt;&lt;/h2&gt;
+        <v xml:space="preserve">¡Hola y Bienvenid@ a esta Tierra de Plantas!. Si eres alguien amante de las plantas, estás buscando un buen vivero y vives en queretaro, ¡llegaste al lugar indicado!.
+    En este artículo te presentaremos los mejores viveros en queretaro, para que puedas encontrar todo lo que necesitas para tu jardín o huerto. Además, te daremos detalles sobre la ubicación y vías de contacto de cada sitio, así como la calificación promedio que los clientes le han dado a cada uno. Así que prepárate para conocer los mejores viveros de esta ciudad y encontrar todo lo que necesitas para hacer crecer tus plantas con éxito. ¡Comencemos! </v>
+      </c>
+      <c r="E2" t="str">
+        <v>&lt;h2&gt;Los Mejores viveros de queretaro&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;a href='#vivero-nativos'&gt;Vivero Nativos&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cactus-queretaro'&gt;Cactus Querétaro&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#alma-terra'&gt;Alma Terra&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-vida-giardan'&gt;Vivero Vida Giardan&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-yanez'&gt;Vivero Yañez&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vision-productores-de-flores'&gt;Visión Productores De Flores&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-la-eterna-primavera'&gt;Viveros La Eterna Primavera&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#la-semilla-vivero'&gt;La Semilla Vivero&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#grupo-viverista-mundo-verde-vivero-mundo-verde'&gt;Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-alfalfares-queretaro'&gt;Vivero Alfalfares Queretaro&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-ekologia'&gt;Viveros Ekologia&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-paraiso'&gt;Viveros Paraiso&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-san-pedro-martir'&gt;Vivero San Pedro Martir&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-la-palma'&gt;Viveros La Palma&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="F2" t="str">
+        <v>viveros-en-queretaro-queretaro</v>
+      </c>
+      <c r="G2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;p class="has-ast-global-color-1-background-color has-background;font-size:15px"&gt;
+                Nota: Los horarios y contactos de los viveros incluidos en esta lista fueron tomados de sus sitios y publicidad oficial. Si existe algún error ¡por favor no dudes en contactarnos! para hacer las correcciones pertinentes
+            &lt;/p&gt;
+        </v>
+      </c>
+      <c r="H2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-nativos" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Nativos&lt;/b&gt;&lt;/h2&gt;
             &lt;div class="wp-block-columns" style="padding:0px;"&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3722.1793575223587!2d-86.9652847!3d21.1054144!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2b63ce6b37cf%3A0xacd5b13bcd87e895!2sVivero%20Espacios%20Verdes%20Canc%C3%BAn!5e0!3m2!1ses!2smx!4v1680822333857!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.7201515208017!2d-100.39606359999999!3d20.640260599999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35b0bea5086b7%3A0x31e534a35e7385aa!2sVivero%20Nativos!5e0!3m2!1ses!2smx!4v1681340510798!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
                 &lt;/div&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Espacios Verdes Cancún:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 233 7348&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Espacios Verdes Cancún:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="http://www.espaciosverdescancun.com/"&gt;Web de Vivero Espacios Verdes Cancún&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Espacios Verdes Cancún:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Carretera Cancún - Leona Vicario Lote 16 Mza 9 Sma 129, 77500 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para llegar a este lugar, simplemente ingresa la dirección en una app de navegación o utiliza este enlace al &lt;a href='https://www.google.com/maps/place/Vivero+Espacios+Verdes+Canc%C3%BAn/@21.1054144,-86.9652847,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2b63ce6b37cf:0xacd5b13bcd87e895!8m2!3d21.1054144!4d-86.9652847!16s%2Fg%2F11rb2v3fl1?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Espacios Verdes Cancún&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Espacios Verdes Cancún?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Espacios Verdes Cancún son los siguientes:&lt;/p&gt;                       
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Nativos:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 179 6762&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Nativos:&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://www.facebook.com/viveronativosqro/"&gt;Web de Vivero Nativos&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Nativos:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es C. Cima 42, San Pedrito Peñuelas I, 76148 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='https://www.google.com/maps/place/Vivero+Nativos/@20.6402606,-100.3960636,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35b0bea5086b7:0x31e534a35e7385aa!8m2!3d20.6402606!4d-100.3960636!16s%2Fg%2F11gzq17mmp?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Nativos&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Nativos?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Nativos son los siguientes:&lt;/p&gt;                       
                     &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Lunes de 10:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 10:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 10:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 10:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 10:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 10:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 11:00 a 18:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Nativos&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Nativos  un promedio de 4.7 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 168 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="cactus-queretaro" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Cactus Querétaro&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.3309858183725!2d-100.2890694!3d20.5745366!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d342c3cc989bc9%3A0xb889dc005565ef43!2sCactus%20Quer%C3%A9taro!5e0!3m2!1ses!2smx!4v1681340967999!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Cactus Querétaro:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 250 5363&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Cactus Querétaro:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Cactus Querétaro:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Ezequiel Montes 16 El Carmen, 76024 Santiago de Querétaro&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Cactus+Quer%C3%A9taro/@20.5745366,-100.2890694,17z/data=!3m1!4b1!4m6!3m5!1s0x85d342c3cc989bc9:0xb889dc005565ef43!8m2!3d20.5745366!4d-100.2890694!16s%2Fg%2F11c5h440nd?authuser=0&amp;hl=es'&gt;Mapa del Vivero Cactus Querétaro&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Cactus Querétaro?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Cactus Querétaro son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 10:00 a 12:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 10:00 a 12:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 10:00 a 12:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 10:00 a 12:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 10:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 10:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 10:00 a 17:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Cactus Querétaro&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Cactus Querétaro  un promedio de 4.6 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 56 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="J2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="alma-terra" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Alma Terra&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.2033978592335!2d-100.4566904!3d20.620564599999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x679dc19ab03d8eb7%3A0x87c65781246cf2be!2sAlma%20Terra!5e0!3m2!1ses!2smx!4v1681340716357!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Alma Terra:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 239 9519&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Alma Terra:&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://almaterra-qro.negocio.site/?utm_source=gmb&amp;utm_medium=referral"&gt;Web de Alma Terra&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Alma Terra:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Colinas de Sta. Cruz, 76117 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Con esta dirección y una app de navegación tipo Waze o GoogleMaps es muy sencillo llegar. Pudes hacerlo directo o ayudándote de este link al &lt;a href='https://www.google.com/maps/place/Alma+Terra/@20.6205646,-100.4566904,17z/data=!3m1!4b1!4m6!3m5!1s0x679dc19ab03d8eb7:0x87c65781246cf2be!8m2!3d20.6205646!4d-100.4566904!16s%2Fg%2F11rxqbdmg5?authuser=0&amp;hl=es'&gt;Mapa del Vivero Alma Terra&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Alma Terra?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Alma Terra son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 10:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 10:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 10:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 10:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Alma Terra&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Alma Terra  un promedio de 4.9 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 27 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="K2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-vida-giardan" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Vida Giardan&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.7352308880163!2d-100.3749967!3d20.598867500000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35b1e5e530d1b%3A0x7b2983287e73fb4f!2sVivero%20Vida%20Giardan!5e0!3m2!1ses!2smx!4v1681340456712!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Vida Giardan:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 798 1705&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Vida Giardan:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Vida Giardan:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Blvd. Bernardo Quintana 17, Pathe, 76020 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para llegar a este parque, simplemente sigue las indicaciones de tu aplicación de navegación preferida o utiliza este link al &lt;a href='https://www.google.com/maps/place/Vivero+Vida+Giardan/@20.5988675,-100.3749967,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35b1e5e530d1b:0x7b2983287e73fb4f!8m2!3d20.5988675!4d-100.3749967!16s%2Fg%2F11f3c8zv1h?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Vida Giardan&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Vida Giardan?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Vida Giardan son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 07:00 a 20:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 07:00 a 20:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 07:00 a 20:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 07:00 a 20:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 07:00 a 20:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 07:00 a 20:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 07:00 a 19:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Vida Giardan&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Vida Giardan  un promedio de 4.2 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 92 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="L2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-yanez" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Yañez&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3736.1847186957134!2d-100.4333618!3d20.539621699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d3456deb84ff17%3A0x356708bb502be756!2sVivero%20Ya%C3%B1ez!5e0!3m2!1ses!2smx!4v1681340711559!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Yañez:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 295 7777&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Yañez:&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://m.facebook.com/viveroyanezqro"&gt;Web de Vivero Yañez&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Yañez:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Walmart, Paseo Constituyentes km. 5.5 junto a, 76900 El Pueblito, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='https://www.google.com/maps/place/Vivero+Ya%C3%B1ez/@20.5396217,-100.4333618,17z/data=!3m1!4b1!4m6!3m5!1s0x85d3456deb84ff17:0x356708bb502be756!8m2!3d20.5396217!4d-100.4333618!16s%2Fg%2F1tfpvm6h?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Yañez&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Yañez?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Yañez son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 08:00 a 16:00&lt;/li&gt;
+                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Yañez&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Yañez  un promedio de 4.2 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 82 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="M2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vision-productores-de-flores" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Visión Productores De Flores&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.0732775036395!2d-100.38300219999999!3d20.5850649!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d344cdf465dc4d%3A0xe99a16e054bb533f!2sVisi%C3%B3n%20Productores%20de%20Flores!5e0!3m2!1ses!2smx!4v1681340783749!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Visión Productores De Flores:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 403 6631&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Visión Productores De Flores:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Visión Productores De Flores:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es José Siurob 31, zona dos extendida, Alameda, 76040 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='https://www.google.com/maps/place/Visi%C3%B3n+Productores+de+Flores/@20.5850649,-100.3830022,17z/data=!3m1!4b1!4m6!3m5!1s0x85d344cdf465dc4d:0xe99a16e054bb533f!8m2!3d20.5850649!4d-100.3830022!16s%2Fg%2F11cjj831j_?authuser=0&amp;hl=es'&gt;Mapa del Vivero Visión Productores De Flores&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Visión Productores De Flores?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Visión Productores De Flores son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 08:00 a 14:00&lt;/li&gt;
+                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Visión Productores De Flores&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Visión Productores De Flores  un promedio de 4.7 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 32 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="N2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-la-eterna-primavera" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros La Eterna Primavera&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.867747864348!2d-100.3704692!3d20.5525914!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d3459fdd2ade4d%3A0xa1d3bda9b0435ef9!2sViveros%20la%20eterna%20primavera!5e0!3m2!1ses!2smx!4v1681340702928!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros La Eterna Primavera:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 444 551 4704&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros La Eterna Primavera:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros La Eterna Primavera:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Av. Villas del Cimatario, Villas del Cimatario, Huertas del Cimatario, 76080 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Si necesitas llegar a este destino, basta con que ingreses la dirección en una app de navegación o sigas este &lt;a href='https://www.google.com/maps/place/Viveros+la+eterna+primavera/@20.5525914,-100.3704692,17z/data=!3m1!4b1!4m6!3m5!1s0x85d3459fdd2ade4d:0xa1d3bda9b0435ef9!8m2!3d20.5525914!4d-100.3704692!16s%2Fg%2F11fm73sz42?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros La Eterna Primavera&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Viveros La Eterna Primavera?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros La Eterna Primavera son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 09:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Martes de 09:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 09:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Jueves de 09:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Viernes de 09:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Sábado de 09:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Domingo de 11:30 a 17:00&lt;/li&gt;
                     &lt;/ul&gt;
                     &lt;p&gt;Aunque los horarios oficiales estén disponibles, es recomendable siempre verificar sus sitios de contacto y redes sociales antes de visitar el lugar, por cualquier cambio extraordinario que pudieran haber tenido&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Espacios Verdes Cancún&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivero Espacios Verdes Cancún tiene un promedio de 4.7 estrellas (de 5 en total), como resultado de un análisis de 89 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="G2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#2 Vivero Las Palmas Cancun&lt;/b&gt;&lt;/h2&gt;
+                &lt;h3&gt;Calificación promedio de Viveros La Eterna Primavera&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros La Eterna Primavera  un promedio de 4.7 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 24 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="O2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="la-semilla-vivero" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;La Semilla Vivero&lt;/b&gt;&lt;/h2&gt;
             &lt;div class="wp-block-columns" style="padding:0px;"&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3721.722812990251!2d-86.9218011!3d21.1236143!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2b796bffffff%3A0x614667b4d5f866e7!2sVIVERO%20LAS%20PALMAS%20CANCUN!5e0!3m2!1ses!2smx!4v1680822328994!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3736.5269914526534!2d-100.4230803!3d20.5256079!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d34f7fb62e0e5d%3A0xe9e312fd1a0ae13b!2sLa%20Semilla%20Vivero!5e0!3m2!1ses!2smx!4v1681340765379!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
                 &lt;/div&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Las Palmas Cancun:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 898 6267&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Las Palmas Cancun:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="http://www.viverolaspalmascancun.com/"&gt;Web de Vivero Las Palmas Cancun&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Las Palmas Cancun:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Av. Lopez Portillo y calle Cuba, 77540 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/VIVERO+LAS+PALMAS+CANCUN/@21.1236143,-86.9218011,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2b796bffffff:0x614667b4d5f866e7!8m2!3d21.1236143!4d-86.9218011!16s%2Fg%2F1tdrgf4c?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Las Palmas Cancun&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Las Palmas Cancun?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Las Palmas Cancun son los siguientes:&lt;/p&gt;                       
+                    &lt;h3 style="font-size:20px"&gt;Teléfono La Semilla Vivero:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 228 2300&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS La Semilla Vivero:&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://lasemillavivero.com/"&gt;Web de La Semilla Vivero&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección La Semilla Vivero:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Bosque Versalles 12, Colinas del Bosque II, Filosofal, 76904 El Pueblito, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/La+Semilla+Vivero/@20.5256079,-100.4230803,17z/data=!3m1!4b1!4m6!3m5!1s0x85d34f7fb62e0e5d:0xe9e312fd1a0ae13b!8m2!3d20.5256079!4d-100.4230803!16s%2Fg%2F1tcx1wk6?authuser=0&amp;hl=es'&gt;Mapa del Vivero La Semilla Vivero&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto La Semilla Vivero?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de La Semilla Vivero son los siguientes:&lt;/p&gt;                       
                     &lt;ul&gt;
-                        &lt;li&gt;Lunes de 07:00 a 16:30&lt;/li&gt;
-                        &lt;li&gt;Martes de 07:00 a 16:30&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 07:00 a 16:30&lt;/li&gt;
-                        &lt;li&gt;Jueves de 07:00 a 16:30&lt;/li&gt;
-                        &lt;li&gt;Viernes de 07:00 a 16:30 Horario en festivo&lt;/li&gt;
-                        &lt;li&gt;Sábado de 07:00 a 12:30&lt;/li&gt;
+                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 08:00 a 15:00&lt;/li&gt;
                         &lt;li&gt;Domingo Cerrado&lt;/li&gt;
                     &lt;/ul&gt;
-                    &lt;p&gt;Aunque los horarios estén oficialmente vigentes, siempre es prudente revisar sus sitios de contacto y redes antes de lanzarte, por cualquier cambio extraordinario que puedan tener&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Las Palmas Cancun&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivero Las Palmas Cancun tiene un promedio de 4.4 estrellas (de 5 en total), como resultado de un análisis de 86 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="H2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#3 Vivero Flor Del Desierto&lt;/b&gt;&lt;/h2&gt;
+                    &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de La Semilla Vivero&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a La Semilla Vivero  un promedio de 4 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 66 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="P2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="grupo-viverista-mundo-verde-vivero-mundo-verde" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/b&gt;&lt;/h2&gt;
             &lt;div class="wp-block-columns" style="padding:0px;"&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3720.71763075095!2d-86.87200779999999!3d21.1636327!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2c832bcef41d%3A0x7b191783373ce64c!2sVivero%20Flor%20Del%20Desierto!5e0!3m2!1ses!2smx!4v1680822320158!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.5243573830535!2d-100.3442134!3d20.648235600000003!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35c79874303b1%3A0x74dd94661cc350d2!2sGrupo%20Viverista%20Mundo%20Verde%20(Vivero%20Mundo%20Verde)!5e0!3m2!1ses!2smx!4v1681340828353!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
                 &lt;/div&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Flor Del Desierto:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 100 7722&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Flor Del Desierto:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://www.facebook.com/Vivero-flor-del-Desierto-172351549609359/"&gt;Web de Vivero Flor Del Desierto&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Flor Del Desierto:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Av. Chac Mool 218, 77518 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='https://www.google.com/maps/place/Vivero+Flor+Del+Desierto/@21.1636327,-86.8720078,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2c832bcef41d:0x7b191783373ce64c!8m2!3d21.1636327!4d-86.8720078!16s%2Fg%2F11ckkxq5rx?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Flor Del Desierto&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Flor Del Desierto?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Flor Del Desierto son los siguientes:&lt;/p&gt;                       
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Grupo Viverista Mundo Verde (vivero Mundo Verde):&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 300 5782&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Grupo Viverista Mundo Verde (vivero Mundo Verde):&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://grupomundoverde.mx/"&gt;Web de Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Grupo Viverista Mundo Verde (vivero Mundo Verde):&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Anillo Vial Fray Junípero Serra #9576-A, El Refugio, 76146 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para encontrar este lugar sólo necesitas poner la dirección en una app tipo googleMaps o irte siguiendo este link del &lt;a href='https://www.google.com/maps/place/Grupo+Viverista+Mundo+Verde+(Vivero+Mundo+Verde)/@20.6482356,-100.3442134,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35c79874303b1:0x74dd94661cc350d2!8m2!3d20.6482356!4d-100.3442134!16s%2Fg%2F11bxb9p706?authuser=0&amp;hl=es'&gt;Mapa del Vivero Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Grupo Viverista Mundo Verde (vivero Mundo Verde)?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Grupo Viverista Mundo Verde (vivero Mundo Verde) son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 09:00 a 16:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 11:00 a 15:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Grupo Viverista Mundo Verde (vivero Mundo Verde)  un promedio de 4.4 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 26 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="Q2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-alfalfares-queretaro" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Alfalfares Queretaro&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.129244191454!2d-100.4548504!3d20.6235881!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d350644b901c25%3A0x713ab4ffa3b4ab64!2sVivero%20Alfalfares%20Queretaro!5e0!3m2!1ses!2smx!4v1681340483652!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Alfalfares Queretaro:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 133 2361&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Alfalfares Queretaro:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Alfalfares Queretaro:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Av. Laureles, Mision Fundadores, 76116 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='https://www.google.com/maps/place/Vivero+Alfalfares+Queretaro/@20.6235881,-100.4548504,17z/data=!3m1!4b1!4m6!3m5!1s0x85d350644b901c25:0x713ab4ffa3b4ab64!8m2!3d20.6235881!4d-100.4548504!16s%2Fg%2F11c2nvlf86?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Alfalfares Queretaro&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Alfalfares Queretaro?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Alfalfares Queretaro son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 08:00 a 15:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 08:00 a 15:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 08:00 a 15:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 08:00 a 15:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 08:00 a 15:00&lt;/li&gt;
+                        &lt;li&gt;Sábado Cerrado&lt;/li&gt;
+                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Alfalfares Queretaro&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Alfalfares Queretaro  un promedio de 4.3 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 26 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="R2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-ekologia" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros Ekologia&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3732.0347586679122!2d-100.4422908!3d20.7088131!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35a73dad5916f%3A0x7f01506fd1eeb404!2sViveros%20Ekologia!5e0!3m2!1ses!2smx!4v1681340871469!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros Ekologia:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 218 8489&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros Ekologia:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros Ekologia:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Blvrd de la Campana, 76230 Juriquilla, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para ir a este centro manejando, puedes usar esta dirección oficial con tu google maps o usando este  &lt;a href='https://www.google.com/maps/place/Viveros+Ekologia/@20.7088131,-100.4422908,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35a73dad5916f:0x7f01506fd1eeb404!8m2!3d20.7088131!4d-100.4422908!16s%2Fg%2F11fz9_b33n?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros Ekologia&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Viveros Ekologia?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros Ekologia son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 08:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 08:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 08:00 a 14:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 08:00 a 14:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Viveros Ekologia&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros Ekologia  un promedio de 4.4 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 38 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="S2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-paraiso" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros Paraiso&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.0344376337434!2d-100.4151193!3d20.5866512!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d345e88af63827%3A0x9cc13443eda24a11!2sViveros%20paraiso!5e0!3m2!1ses!2smx!4v1681340576097!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros Paraiso:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 329 8612&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros Paraiso:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros Paraiso:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Av. Tlacote 149, Galindas, 76177 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/Viveros+paraiso/@20.5866512,-100.4151193,17z/data=!3m1!4b1!4m6!3m5!1s0x85d345e88af63827:0x9cc13443eda24a11!8m2!3d20.5866512!4d-100.4151193!16s%2Fg%2F11h6lqsq7f?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros Paraiso&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Viveros Paraiso?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros Paraiso son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Es importante revisar en sus redes sociales o contactos digitales antes de ir, incluso si ya tienes los horarios oficiales, para evitar cualquier cambio logístico o de horario de última hora&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Viveros Paraiso&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros Paraiso  un promedio de 4.2 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 39 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="T2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-san-pedro-martir" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero San Pedro Martir&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.244285228582!2d-100.4580511!3d20.6188973!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d3518e09b138e9%3A0x55e937ef0fafa207!2sVIVERO%20SAN%20PEDRO%20MARTIR!5e0!3m2!1ses!2smx!4v1681340598618!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero San Pedro Martir:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero San Pedro Martir:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero San Pedro Martir:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es C. Hidalgo 18, 76117 Santa María Magdalena, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/VIVERO+SAN+PEDRO+MARTIR/@20.6188973,-100.4580511,17z/data=!3m1!4b1!4m6!3m5!1s0x85d3518e09b138e9:0x55e937ef0fafa207!8m2!3d20.6188973!4d-100.4580511!16s%2Fg%2F11h79k836s?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero San Pedro Martir&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero San Pedro Martir?&lt;/h3&gt;  
+                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero San Pedro Martir&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero San Pedro Martir  un promedio de 4.9 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 22 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="U2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-la-palma" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros La Palma&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.785730676873!2d-100.44956789999999!3d20.6375888!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35086133d0069%3A0xcd37ff386efb2811!2sViveros%20la%20Palma!5e0!3m2!1ses!2smx!4v1681340461016!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros La Palma:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 442 352 3818&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros La Palma:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros La Palma:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Av. de la Luz 305, Cosmos, 76110 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;¿Estás lista(o) para lanzarte a este sitio? Entonces pon la dirección en tu app de navegación favorita o síguete por este enlace al &lt;a href='https://www.google.com/maps/place/Viveros+la+Palma/@20.6375888,-100.4495679,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35086133d0069:0xcd37ff386efb2811!8m2!3d20.6375888!4d-100.4495679!16s%2Fg%2F11sb4xnv82?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros La Palma&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Viveros La Palma?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros La Palma son los siguientes:&lt;/p&gt;                       
                     &lt;ul&gt;
                         &lt;li&gt;Lunes de 09:00 a 20:00&lt;/li&gt;
                         &lt;li&gt;Martes de 09:00 a 20:00&lt;/li&gt;
                         &lt;li&gt;Miércoles de 09:00 a 20:00&lt;/li&gt;
                         &lt;li&gt;Jueves de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Sábado Cerrado&lt;/li&gt;
+                        &lt;li&gt;Viernes de 09:00 a 20:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 09:00 a 20:00&lt;/li&gt;
                         &lt;li&gt;Domingo de 09:00 a 20:00&lt;/li&gt;
                     &lt;/ul&gt;
-                    &lt;p&gt;Siempre está bueno que, aunque ya tengas estos horarios oficiales, cheques sus redes sociales y medios de contacto antes de ir, para estar al tanto de cualquier cambio de horario o logística inesperado&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Flor Del Desierto&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivero Flor Del Desierto tiene un promedio de 4.5 estrellas (de 5 en total), como resultado de un análisis de 54 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="I2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#4 Viveros Jard-dinn&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3722.914873733447!2d-86.8447381!3d21.0760619!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2a6b04a852a1%3A0x8ffec9e050d83ff4!2sViveros%20Jard-Dinn!5e0!3m2!1ses!2smx!4v1680822461858!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros Jard-dinn:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 882 0099&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros Jard-dinn:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros Jard-dinn:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Carretera Cancun Aeropuerto km 11.5, Colonia Alfredo V. Bonfil, 77560 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/Viveros+Jard-Dinn/@21.0760619,-86.8447381,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2a6b04a852a1:0x8ffec9e050d83ff4!8m2!3d21.0760619!4d-86.8447381!16s%2Fg%2F1tf2yvx4?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros Jard-dinn&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Viveros Jard-dinn?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros Jard-dinn son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 07:00 a 13:30&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Viveros Jard-dinn&lt;/h3&gt;
-                &lt;p&gt;El vivero Viveros Jard-dinn tiene un promedio de 4.5 estrellas (de 5 en total), como resultado de un análisis de 34 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="J2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#5 Flores De Chiltepec S.a De C.v Sucursal Cancún&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3720.8950932064654!2d-86.8353459!3d21.156572799999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2bf6f511c873%3A0xbd66dca5e27fd53!2sFlores%20de%20Chiltepec%20S.A%20de%20C.V%20Sucursal%20Canc%C3%BAn!5e0!3m2!1ses!2smx!4v1680822585607!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Flores De Chiltepec S.a De C.v Sucursal Cancún:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 898 4129&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Flores De Chiltepec S.a De C.v Sucursal Cancún:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="http://www.chiltepec.com/"&gt;Web de Flores De Chiltepec S.a De C.v Sucursal Cancún&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Flores De Chiltepec S.a De C.v Sucursal Cancún:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Palenque 174, 77509 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Flores+de+Chiltepec+S.A+de+C.V+Sucursal+Canc%C3%BAn/@21.1565728,-86.8353459,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2bf6f511c873:0xbd66dca5e27fd53!8m2!3d21.1565728!4d-86.8353459!16s%2Fg%2F11c3_1kk66?authuser=0&amp;hl=es'&gt;Mapa del Vivero Flores De Chiltepec S.a De C.v Sucursal Cancún&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Flores De Chiltepec S.a De C.v Sucursal Cancún?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Flores De Chiltepec S.a De C.v Sucursal Cancún son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 11:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 11:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 14:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Flores De Chiltepec S.a De C.v Sucursal Cancún&lt;/h3&gt;
-                &lt;p&gt;El vivero Flores De Chiltepec S.a De C.v Sucursal Cancún tiene un promedio de 4.2 estrellas (de 5 en total), como resultado de un análisis de 42 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="K2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#6 Vivero All Green&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3722.833706094093!2d-86.842548!3d21.079303!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2a6d29b79edd%3A0x9603cb87b8d91dfc!2sVIVERO%20ALL%20GREEN!5e0!3m2!1ses!2smx!4v1680822361102!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero All Green:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 440 0063&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero All Green:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://www.facebook.com/jardinesallgreencancun/"&gt;Web de Vivero All Green&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero All Green:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Blvd. Luis D. Colosio, Km. 11.6, Alfredo V. Bonfil, 77560 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar la dirección manejando, puedes apoyarte poniéndola en una app de navegación o ir directo a este &lt;a href='https://www.google.com/maps/place/VIVERO+ALL+GREEN/@21.079303,-86.842548,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2a6d29b79edd:0x9603cb87b8d91dfc!8m2!3d21.079303!4d-86.842548!16s%2Fg%2F11c6v8p91n?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero All Green&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero All Green?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero All Green son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 14:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;A pesar de que los horarios sean oficiales, es buena idea que antes ir, revises siempre cómo están las cosas en sus redes sociales y contactos digitales, esto te permitirá asegurarte de que no haya cambios de horario o logística antes de tu arribo al lugar&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero All Green&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivero All Green tiene un promedio de 4.5 estrellas (de 5 en total), como resultado de un análisis de 21 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="L2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#7 Vivero Las Lomas&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3721.7840447037306!2d-86.8437407!3d21.1211742!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2bb7b3469c0d%3A0x884aad7b3419b3ec!2sVivero%20Las%20Lomas!5e0!3m2!1ses!2smx!4v1680822405478!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Las Lomas:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 304 3274&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Las Lomas:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Las Lomas:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es 77533 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Si necesitas llegar a este destino, basta con que ingreses la dirección en una app de navegación o sigas este &lt;a href='https://www.google.com/maps/place/Vivero+Las+Lomas/@21.1211742,-86.8437407,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2bb7b3469c0d:0x884aad7b3419b3ec!8m2!3d21.1211742!4d-86.8437407!16s%2Fg%2F11gfp8jkj4?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Las Lomas&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Las Lomas?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Las Lomas son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 14:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Es importante verificar sus redes sociales o contactos digitales antes de ir, porque independientemente de estos horarios oficiales, siempre pueden existir cambios de último momento por situaciones extraordinarias de clima, temporada vacacional y demás&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Las Lomas&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivero Las Lomas tiene un promedio de 4.2 estrellas (de 5 en total), como resultado de un análisis de 25 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="M2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#8 Vivero El Centauro&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3718.8207268521196!2d-86.86682119999999!3d21.2389564!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2da6f937e17b%3A0x2965a39579ff476a!2sVivero%20El%20Centauro!5e0!3m2!1ses!2smx!4v1680822509593!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero El Centauro:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 404 8259&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero El Centauro:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero El Centauro:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Unnamed Road, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar el lugar, símplemente apóyate de una app de navegación (ej. GoogleMaps) ingresando esta dirección, o utiliza este enlace al &lt;a href='https://www.google.com/maps/place/Vivero+El+Centauro/@21.2389564,-86.8668212,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2da6f937e17b:0x2965a39579ff476a!8m2!3d21.2389564!4d-86.8668212!16s%2Fg%2F11fwhb4b9v?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero El Centauro&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero El Centauro?&lt;/h3&gt;  
-                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
- &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero El Centauro&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivero El Centauro tiene un promedio de 4.3 estrellas (de 5 en total), como resultado de un análisis de 12 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="N2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#9 El Semillero De Danny&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3720.776891731739!2d-86.8679202!3d21.161275399999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2d38abb59243%3A0xe46dbef4da7cb70c!2sEl%20Semillero%20de%20Danny!5e0!3m2!1ses!2smx!4v1680822558764!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono El Semillero De Danny:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 440 4454&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS El Semillero De Danny:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://www.facebook.com/ElSemillerodeDanny"&gt;Web de El Semillero De Danny&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección El Semillero De Danny:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Calle 42 Pte. Supermanzana 94 Manzana 87, 77517 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/El+Semillero+de+Danny/@21.1612754,-86.8679202,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2d38abb59243:0xe46dbef4da7cb70c!8m2!3d21.1612754!4d-86.8679202!16s%2Fg%2F11pkb9nr4c?authuser=0&amp;hl=es'&gt;Mapa del Vivero El Semillero De Danny&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto El Semillero De Danny?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de El Semillero De Danny son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Sábado Cerrado&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de El Semillero De Danny&lt;/h3&gt;
-                &lt;p&gt;El vivero El Semillero De Danny tiene un promedio de 5 estrellas (de 5 en total), como resultado de un análisis de 11 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="O2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#10 Cactuseria-cactus Y Suculentas&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3720.7454406800093!2d-86.8459354!3d21.1625265!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2da708014339%3A0x94ca6375018929e3!2sCactuseria-Cactus%20y%20Suculentas!5e0!3m2!1ses!2smx!4v1680822478937!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Cactuseria-cactus Y Suculentas:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 484 0041&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Cactuseria-cactus Y Suculentas:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Cactuseria-cactus Y Suculentas:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Calle 75 Nte. 11, 77514 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com/maps/place/Cactuseria-Cactus+y+Suculentas/@21.1625265,-86.8459354,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2da708014339:0x94ca6375018929e3!8m2!3d21.1625265!4d-86.8459354!16s%2Fg%2F11n138j58h?authuser=0&amp;hl=es'&gt;Mapa del Vivero Cactuseria-cactus Y Suculentas&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Cactuseria-cactus Y Suculentas?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Cactuseria-cactus Y Suculentas son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Jueves de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 12:00 a 17:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Cactuseria-cactus Y Suculentas&lt;/h3&gt;
-                &lt;p&gt;El vivero Cactuseria-cactus Y Suculentas tiene un promedio de 4.9 estrellas (de 5 en total), como resultado de un análisis de 9 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="P2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#11 Plantas, Rosales Y Maceteros&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3720.8151630387956!2d-86.84076209999999!3d21.1597529!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2bf48b349cb5%3A0x54c6f450c242f6a1!2sPlantas%2C%20Rosales%20y%20Maceteros!5e0!3m2!1ses!2smx!4v1680822425478!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Plantas, Rosales Y Maceteros:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Plantas, Rosales Y Maceteros:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Plantas, Rosales Y Maceteros:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Playa Larga 7, 77508 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar este lugar sólo necesitas poner la dirección en una app tipo googleMaps o irte siguiendo este link del &lt;a href='https://www.google.com/maps/place/Plantas,+Rosales+y+Maceteros/@21.1597529,-86.8407621,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2bf48b349cb5:0x54c6f450c242f6a1!8m2!3d21.1597529!4d-86.8407621!16s%2Fg%2F11hz2l1wm2?authuser=0&amp;hl=es'&gt;Mapa del Vivero Plantas, Rosales Y Maceteros&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Plantas, Rosales Y Maceteros?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Plantas, Rosales Y Maceteros son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 11:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 11:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 11:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 11:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 11:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 11:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Antes de visitar el lugar, es una buena idea verificar sus sitios de contacto digitales y redes sociales, aún si ya cuentas con los horarios oficiales, para evitar cualquier cambio inesperado o sorpresas ya que estés ahí (por ej. cambio por días feriados)&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Plantas, Rosales Y Maceteros&lt;/h3&gt;
-                &lt;p&gt;El vivero Plantas, Rosales Y Maceteros tiene un promedio de 4.8 estrellas (de 5 en total), como resultado de un análisis de 9 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="Q2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#12 Plantando.mx&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3721.455611595501!2d-86.8716766!3d21.1342592!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2b40a22f33e9%3A0x8fa1d18121f11466!2sPlantando.mx!5e0!3m2!1ses!2smx!4v1680822531585!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Plantando.mx:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 184 4919&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Plantando.mx:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://instagram.com/plantando.mx?utm_medium=copy_link"&gt;Web de Plantando.mx&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Plantando.mx:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es P.º del Mayab Supermanzana 514, Kukulkan, 77535 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Plantando.mx/@21.1342592,-86.8716766,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2b40a22f33e9:0x8fa1d18121f11466!8m2!3d21.1342592!4d-86.8716766!16s%2Fg%2F11hdp0qr84?authuser=0&amp;hl=es'&gt;Mapa del Vivero Plantando.mx&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Plantando.mx?&lt;/h3&gt;  
-                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
- &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Plantando.mx&lt;/h3&gt;
-                &lt;p&gt;El vivero Plantando.mx tiene un promedio de 4.8 estrellas (de 5 en total), como resultado de un análisis de 9 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="R2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#13 Vivércity - Vivero En Cancún&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d1922625.184465087!2d-87.92829025!3d19.749744800000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2d5a97602b0b%3A0x85ee48170dab7067!2sViv%C3%A9rcity%20-%20Vivero%20en%20Canc%C3%BAn!5e0!3m2!1ses!2smx!4v1680822608510!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivércity - Vivero En Cancún:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 152 5966&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivércity - Vivero En Cancún:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="vivercity.com.mx"&gt;Web de Vivércity - Vivero En Cancún&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivércity - Vivero En Cancún:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es No cuenta con dirección&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para ir a este centro manejando, puedes usar esta dirección oficial con tu google maps o usando este  &lt;a href='https://www.google.com/maps/place/Viv%C3%A9rcity+-+Vivero+en+Canc%C3%BAn/@19.7497448,-87.9282903,8z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2d5a97602b0b:0x85ee48170dab7067!8m2!3d19.7497448!4d-87.9282902!16s%2Fg%2F11fmc0gdzn?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivércity - Vivero En Cancún&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivércity - Vivero En Cancún?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivércity - Vivero En Cancún son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 07:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado Cerrado&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Es importante revisar en sus redes sociales o contactos digitales antes de ir, incluso si ya tienes los horarios oficiales, para evitar cualquier cambio logístico o de horario de última hora&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivércity - Vivero En Cancún&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivércity - Vivero En Cancún tiene un promedio de 4.2 estrellas (de 5 en total), como resultado de un análisis de 10 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="S2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#14 El Jardin De La Lagartija&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d14980704.286144294!2d-102.62050004999999!3d23.554126900000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4c2b86aee217b5%3A0x17fdde586a839655!2sEl%20Jardin%20de%20la%20Lagartija!5e0!3m2!1ses!2smx!4v1680822378551!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono El Jardin De La Lagartija:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 998 191 9862&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS El Jardin De La Lagartija:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección El Jardin De La Lagartija:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es no cuenta con dirección&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;La verdad es que llegar a este Centro no tiene gran dificultad. Puedes encontrar la dirección de un lugar siguiendo cualquier aplicación de navegación que se te facilite o siguiendo esta liga al &lt;a href='https://www.google.com/maps/place/El+Jardin+de+la+Lagartija/@23.5541269,-102.6205,5z/data=!3m1!4b1!4m6!3m5!1s0x8f4c2b86aee217b5:0x17fdde586a839655!8m2!3d23.5541269!4d-102.6205!16s%2Fg%2F11hf2k5_79?authuser=0&amp;hl=es'&gt;Mapa del Vivero El Jardin De La Lagartija&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto El Jardin De La Lagartija?&lt;/h3&gt;  
-                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
- &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de El Jardin De La Lagartija&lt;/h3&gt;
-                &lt;p&gt;El vivero El Jardin De La Lagartija tiene un promedio de 4.6 estrellas (de 5 en total), como resultado de un análisis de 8 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="T2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2&gt;&lt;b&gt;#15 Vivero La Tierra De Los Ents&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3720.747728363293!2d-86.9270179!3d21.162435499999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8f4dd33cc30b349f%3A0xd265ae33d02825fa!2sVivero%20la%20tierra%20de%20los%20ents!5e0!3m2!1ses!2smx!4v1680822492019!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero La Tierra De Los Ents:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero La Tierra De Los Ents:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero La Tierra De Los Ents:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Av. Chetumal, 77553 Cancún, Q.R.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Puedes llegar a este centro facilmente manejando apoyándote en una aplicación de navegación (ej. maps) o consultando este &lt;a href='https://www.google.com/maps/place/Vivero+la+tierra+de+los+ents/@21.1624355,-86.9270179,17z/data=!3m1!4b1!4m6!3m5!1s0x8f4dd33cc30b349f:0xd265ae33d02825fa!8m2!3d21.1624355!4d-86.9270179!16s%2Fg%2F11k8gxq3_b?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero La Tierra De Los Ents&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero La Tierra De Los Ents?&lt;/h3&gt;  
-                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
- &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero La Tierra De Los Ents&lt;/h3&gt;
-                &lt;p&gt;El vivero Vivero La Tierra De Los Ents tiene un promedio de 4.5 estrellas (de 5 en total), como resultado de un análisis de 6 reseñas públicas encontradas.&lt;/p&gt;                   
-        </v>
-      </c>
-      <c r="U2" t="str">
-        <v>viveros-en-cancun-quintanaroo</v>
+                    &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Viveros La Palma&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros La Palma  un promedio de 4.1 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 23 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="V2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+    &lt;h2 class="wp-block-heading has-ast-global-color-3-color has-text-color" id="mas-informacion-de-viveros-en-mexico"&gt;Más información de Viveros En México&lt;/h2&gt;
+        &lt;p&gt;Esperamos que esta lista de los mejores viveros queretaro te haya sido útil y te ayude a encontrar el mejor sitio para adquirir tus plantas en esta ciudad. Si quieres conocer más viveros de México, no dudes en visitar nuestras listas de los mejores en diferentes ciudades del país. ¡Hasta pronto!&lt;/p&gt;
+        &lt;p class="has-text-align-center has-ast-global-color-1-background-color has-background"&gt;&lt;strong&gt;Otros artículos sobre viveros que podrían interesarte: &lt;/strong&gt;&lt;/p&gt;
+        &lt;div class="wp-block-columns"&gt;
+            &lt;div class="wp-block-column" style="margin:10px;"&gt;
+                &lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://tierradeplantas.com/que-es-un-vivero/"&gt;&lt;img src="https://tierradeplantas.com/wp-content/uploads/2023/02/QueesunviveroFEATURED.jpg" alt="qué es un vivero" class="wp-image-672"/&gt;&lt;/a&gt;&lt;/figure&gt;
+            &lt;/div&gt;
+            &lt;div class="wp-block-column" style="margin:10px;"&gt;
+                &lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://tierradeplantas.com/viveros/viveros-en-campeche-campeche/"&gt;&lt;img src="https://tierradeplantas.com/wp-content/uploads/2023/02/viveros_en_campeche_FEATURED.jpg" alt="viveros en campeche" class="wp-image-773"/&gt;&lt;/a&gt;&lt;/figure&gt;
+            &lt;/div&gt;
+            &lt;div class="wp-block-column" style="margin:10px;"&gt;
+                &lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://tierradeplantas.com/viveros/viveros-en-xalapa-veracruz/"&gt;&lt;img src="https://tierradeplantas.com/wp-content/uploads/2023/02/viveros_en_xalapa_FEATURED.jpg" alt="viveros en xalapa y coatepec veracruz" class="wp-image-779"/&gt;&lt;/a&gt;&lt;/figure&gt;
+            &lt;/div&gt;    
+        &lt;div&gt;
+    </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:U2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -978,179 +1012,168 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOUHmtpWUlYYtSNZQIaa5TYOQ5kZRpUkfues7N5=w426-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPy9f5lXXX_xEPND7kPs7qjKVfAPaMs22khKm7l=w408-h544-k-no</v>
       </c>
       <c r="B2" t="str">
-        <v>ren "AF1QipOUHmtpWUlYYtSNZQIaa5TYOQ5kZRpUkfues7N5=w426-h240-k-no" "Vivero_Espacios_Verdes_Cancun_3.jpg"</v>
+        <v>ren "AF1QipPy9f5lXXX_xEPND7kPs7qjKVfAPaMs22khKm7l=w408-h544-k-no" "Vivero_Nativos_12.jpg"</v>
       </c>
       <c r="C2" t="str">
-        <v>ren "1.jpg" "Vivero_Espacios_Verdes_Cancun_3.jpg"</v>
+        <v>ren "1.jpg" "Vivero_Nativos_12.jpg"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPzzMvJLR-WYqCWZgnuc2SfnuXidBkt4-iOzfKb=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMxDsnBYRnn8P-CxrS8aRzh8DgMblQl3nTROt-c=w408-h306-k-no</v>
       </c>
       <c r="B3" t="str">
-        <v>ren "AF1QipPzzMvJLR-WYqCWZgnuc2SfnuXidBkt4-iOzfKb=w408-h306-k-no" "VIVERO_LAS_PALMAS_CANCUN_2.jpg"</v>
+        <v>ren "AF1QipMxDsnBYRnn8P-CxrS8aRzh8DgMblQl3nTROt-c=w408-h306-k-no" "Cactus_Queretaro_114.jpg"</v>
       </c>
       <c r="C3" t="str">
-        <v>ren "2.jpg" "VIVERO_LAS_PALMAS_CANCUN_2.jpg"</v>
+        <v>ren "2.jpg" "Cactus_Queretaro_114.jpg"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM21ykX8azlHs1Aic3t22yA4CLRJMTnPxoofW4=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipN6GvTqzijzQQdpnp9JL5Ezj6cfX4agGH3OjNiy=w427-h240-k-no</v>
       </c>
       <c r="B4" t="str">
-        <v>ren "AF1QipM21ykX8azlHs1Aic3t22yA4CLRJMTnPxoofW4=w408-h544-k-no" "Vivero_Flor_Del_Desierto_0.jpg"</v>
+        <v>ren "AF1QipN6GvTqzijzQQdpnp9JL5Ezj6cfX4agGH3OjNiy=w427-h240-k-no" "Alma_Terra_57.jpg"</v>
       </c>
       <c r="C4" t="str">
-        <v>ren "3.jpg" "Vivero_Flor_Del_Desierto_0.jpg"</v>
+        <v>ren "3.jpg" "Alma_Terra_57.jpg"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNjGlvTHs8nfYteziv32diko47EdyIZ40GOwuVJ=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMFFLSG7kRzqdwTrjBwQjSTccr5CUwA6putH9la=w408-h544-k-no</v>
       </c>
       <c r="B5" t="str">
-        <v>ren "AF1QipNjGlvTHs8nfYteziv32diko47EdyIZ40GOwuVJ=w408-h306-k-no" "Viveros_Jard-Dinn_31.jpg"</v>
+        <v>ren "AF1QipMFFLSG7kRzqdwTrjBwQjSTccr5CUwA6putH9la=w408-h544-k-no" "Vivero_Vida_Giardan_0.jpg"</v>
       </c>
       <c r="C5" t="str">
-        <v>ren "4.jpg" "Viveros_Jard-Dinn_31.jpg"</v>
+        <v>ren "4.jpg" "Vivero_Vida_Giardan_0.jpg"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNcNdTj2IDhthjnodp5zHEu4P0j7H_KON0svJWx=w408-h543-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPCu0iqU4euzP1xBMUm5uST59ZkBGtPdA9NhXKz=w408-h510-k-no</v>
       </c>
       <c r="B6" t="str">
-        <v>ren "AF1QipNcNdTj2IDhthjnodp5zHEu4P0j7H_KON0svJWx=w408-h543-k-no" "Flores_de_Chiltepec_S.A_de_C.V_Sucursal_Cancun_59.jpg"</v>
+        <v>ren "AF1QipPCu0iqU4euzP1xBMUm5uST59ZkBGtPdA9NhXKz=w408-h510-k-no" "Vivero_Yanez_56.jpg"</v>
       </c>
       <c r="C6" t="str">
-        <v>ren "5.jpg" "Flores_de_Chiltepec_S.A_de_C.V_Sucursal_Cancun_59.jpg"</v>
+        <v>ren "5.jpg" "Vivero_Yanez_56.jpg"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNbYs5apU8kmQdqowshJyZiYffYnF-18_bKc6L9=w493-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMpf7LtrkQiAIsFRzcQjldD0X2ZbgVk7DxuVIyQ=w408-h725-k-no</v>
       </c>
       <c r="B7" t="str">
-        <v>ren "AF1QipNbYs5apU8kmQdqowshJyZiYffYnF-18_bKc6L9=w493-h240-k-no" "VIVERO_ALL_GREEN_9.jpg"</v>
+        <v>ren "AF1QipMpf7LtrkQiAIsFRzcQjldD0X2ZbgVk7DxuVIyQ=w408-h725-k-no" "Vision_Productores_de_Flores_72.jpg"</v>
       </c>
       <c r="C7" t="str">
-        <v>ren "6.jpg" "VIVERO_ALL_GREEN_9.jpg"</v>
+        <v>ren "6.jpg" "Vision_Productores_de_Flores_72.jpg"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOITXXZ7kpcQ2QpfRzzmn6Y2lxID7hgC5qX43oj=w408-h725-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMJfxylORxRnMsZ0T-IpVxqHX--GSR2pGGIEyt_=w408-h544-k-no</v>
       </c>
       <c r="B8" t="str">
-        <v>ren "AF1QipOITXXZ7kpcQ2QpfRzzmn6Y2lxID7hgC5qX43oj=w408-h725-k-no" "Vivero_Las_Lomas_19.jpg"</v>
+        <v>ren "AF1QipMJfxylORxRnMsZ0T-IpVxqHX--GSR2pGGIEyt_=w408-h544-k-no" "Viveros_la_eterna_primavera_54.jpg"</v>
       </c>
       <c r="C8" t="str">
-        <v>ren "7.jpg" "Vivero_Las_Lomas_19.jpg"</v>
+        <v>ren "7.jpg" "Viveros_la_eterna_primavera_54.jpg"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPgAiCZXEhJKJOKkndtdc2pK3tHhyLJykiljpKw=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNVXTEpLp0m-U4YFZVsE9piYUL3VmNsG5EJ3X0M=w408-h408-k-no</v>
       </c>
       <c r="B9" t="str">
-        <v>ren "AF1QipPgAiCZXEhJKJOKkndtdc2pK3tHhyLJykiljpKw=w408-h306-k-no" "Vivero_El_Centauro_42.jpg"</v>
+        <v>ren "AF1QipNVXTEpLp0m-U4YFZVsE9piYUL3VmNsG5EJ3X0M=w408-h408-k-no" "La_Semilla_Vivero_68.jpg"</v>
       </c>
       <c r="C9" t="str">
-        <v>ren "8.jpg" "Vivero_El_Centauro_42.jpg"</v>
+        <v>ren "8.jpg" "La_Semilla_Vivero_68.jpg"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMaQqK3fxJdPrYiG9H0AEZoRO2oLQ3kHKTygSDg=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM3jwmB4eqXXs9DThgPZsOrLy45zw3H7w-dPusF=w408-h271-k-no</v>
       </c>
       <c r="B10" t="str">
-        <v>ren "AF1QipMaQqK3fxJdPrYiG9H0AEZoRO2oLQ3kHKTygSDg=w408-h306-k-no" "El_Semillero_de_Danny_53.jpg"</v>
+        <v>ren "AF1QipM3jwmB4eqXXs9DThgPZsOrLy45zw3H7w-dPusF=w408-h271-k-no" "Grupo_Viverista_Mundo_Verde_(Vivero_Mundo_Verde)_82.jpg"</v>
       </c>
       <c r="C10" t="str">
-        <v>ren "9.jpg" "El_Semillero_de_Danny_53.jpg"</v>
+        <v>ren "9.jpg" "Grupo_Viverista_Mundo_Verde_(Vivero_Mundo_Verde)_82.jpg"</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipN96n_bliXqurPTa5HoblhmrAUVjhkv3sLGYry9=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOu0rzf6aI2jX0V53AKzg1LU8L0yIM1dsm7lGxS=w408-h544-k-no</v>
       </c>
       <c r="B11" t="str">
-        <v>ren "AF1QipN96n_bliXqurPTa5HoblhmrAUVjhkv3sLGYry9=w408-h544-k-no" "Cactuseria-Cactus_y_Suculentas_35.jpg"</v>
+        <v>ren "AF1QipOu0rzf6aI2jX0V53AKzg1LU8L0yIM1dsm7lGxS=w408-h544-k-no" "Vivero_Alfalfares_Queretaro_6.jpg"</v>
       </c>
       <c r="C11" t="str">
-        <v>ren "10.jpg" "Cactuseria-Cactus_y_Suculentas_35.jpg"</v>
+        <v>ren "10.jpg" "Vivero_Alfalfares_Queretaro_6.jpg"</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNW8NjHnzbTvAIQSlCIYqAalcUKS80p03NXFIy_=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMaJJ0n7LjzylNDUb-s-drXjX4O7eRKZpf6VauO=w408-h906-k-no</v>
       </c>
       <c r="B12" t="str">
-        <v>ren "AF1QipNW8NjHnzbTvAIQSlCIYqAalcUKS80p03NXFIy_=w408-h544-k-no" "Plantas,_Rosales_y_Maceteros_23.jpg"</v>
+        <v>ren "AF1QipMaJJ0n7LjzylNDUb-s-drXjX4O7eRKZpf6VauO=w408-h906-k-no" "Viveros_Ekologia_92.jpg"</v>
       </c>
       <c r="C12" t="str">
-        <v>ren "11.jpg" "Plantas,_Rosales_y_Maceteros_23.jpg"</v>
+        <v>ren "11.jpg" "Viveros_Ekologia_92.jpg"</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOzUde1XfC_hjEg0RTk-2KUv9ahKt-C1gKzPLIF=w426-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPBi2fca_94YcR3Bmk9jEyJeBmprLF76fMwBsh9=w408-h306-k-no</v>
       </c>
       <c r="B13" t="str">
-        <v>ren "AF1QipOzUde1XfC_hjEg0RTk-2KUv9ahKt-C1gKzPLIF=w426-h240-k-no" "Plantando.mx_47.jpg"</v>
+        <v>ren "AF1QipPBi2fca_94YcR3Bmk9jEyJeBmprLF76fMwBsh9=w408-h306-k-no" "Viveros_paraiso_26.jpg"</v>
       </c>
       <c r="C13" t="str">
-        <v>ren "12.jpg" "Plantando.mx_47.jpg"</v>
+        <v>ren "12.jpg" "Viveros_paraiso_26.jpg"</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMU9ZPXV33Cc6ok8c19ibiBlFqT3gAN2JojAdlt=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMCCGIWBgPSjlGOpNJi8ScA5SWKLY6vsyWtVq5U=w408-h544-k-no</v>
       </c>
       <c r="B14" t="str">
-        <v>ren "AF1QipMU9ZPXV33Cc6ok8c19ibiBlFqT3gAN2JojAdlt=w408-h306-k-no" "Vivercity_-_Vivero_en_Cancun_64.jpg"</v>
+        <v>ren "AF1QipMCCGIWBgPSjlGOpNJi8ScA5SWKLY6vsyWtVq5U=w408-h544-k-no" "VIVERO_SAN_PEDRO_MARTIR_31.jpg"</v>
       </c>
       <c r="C14" t="str">
-        <v>ren "13.jpg" "Vivercity_-_Vivero_en_Cancun_64.jpg"</v>
+        <v>ren "13.jpg" "VIVERO_SAN_PEDRO_MARTIR_31.jpg"</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPcEXuyMB2m9IxgtlNPjBZJVvuPZmuWMZpXMO9q=w408-h816-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOZzMTXikF2yDNFgXpjya8Qa7dG2T4YXbJdgBr-=w408-h725-k-no</v>
       </c>
       <c r="B15" t="str">
-        <v>ren "AF1QipPcEXuyMB2m9IxgtlNPjBZJVvuPZmuWMZpXMO9q=w408-h816-k-no" "El_Jardin_de_la_Lagartija_13.jpg"</v>
+        <v>ren "AF1QipOZzMTXikF2yDNFgXpjya8Qa7dG2T4YXbJdgBr-=w408-h725-k-no" "Viveros_la_Palma_1.jpg"</v>
       </c>
       <c r="C15" t="str">
-        <v>ren "14.jpg" "El_Jardin_de_la_Lagartija_13.jpg"</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>wget --no-check-certificate no hay foto</v>
-      </c>
-      <c r="B16" t="str">
-        <v>ren "no hay foto" "Vivero_la_tierra_de_los_ents_38.jpg"</v>
-      </c>
-      <c r="C16" t="str">
-        <v>ren "15.jpg" "Vivero_la_tierra_de_los_ents_38.jpg"</v>
+        <v>ren "14.jpg" "Viveros_la_Palma_1.jpg"</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,172 +1191,161 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Vivero Espacios Verdes Cancún</v>
+        <v>Vivero Nativos</v>
       </c>
       <c r="B2" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C2" t="str">
-        <v>Vivero_Espacios_Verdes_Cancun_3.jpg</v>
+        <v>Vivero_Nativos_12.jpg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Vivero Las Palmas Cancun</v>
+        <v>Cactus Querétaro</v>
       </c>
       <c r="B3" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C3" t="str">
-        <v>VIVERO_LAS_PALMAS_CANCUN_2.jpg</v>
+        <v>Cactus_Queretaro_114.jpg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Vivero Flor Del Desierto</v>
+        <v>Alma Terra</v>
       </c>
       <c r="B4" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C4" t="str">
-        <v>Vivero_Flor_Del_Desierto_0.jpg</v>
+        <v>Alma_Terra_57.jpg</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Viveros Jard-dinn</v>
+        <v>Vivero Vida Giardan</v>
       </c>
       <c r="B5" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C5" t="str">
-        <v>Viveros_Jard-Dinn_31.jpg</v>
+        <v>Vivero_Vida_Giardan_0.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Flores De Chiltepec S.a De C.v Sucursal Cancún</v>
+        <v>Vivero Yañez</v>
       </c>
       <c r="B6" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C6" t="str">
-        <v>Flores_de_Chiltepec_S.A_de_C.V_Sucursal_Cancun_59.jpg</v>
+        <v>Vivero_Yanez_56.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Vivero All Green</v>
+        <v>Visión Productores De Flores</v>
       </c>
       <c r="B7" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C7" t="str">
-        <v>VIVERO_ALL_GREEN_9.jpg</v>
+        <v>Vision_Productores_de_Flores_72.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Vivero Las Lomas</v>
+        <v>Viveros La Eterna Primavera</v>
       </c>
       <c r="B8" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C8" t="str">
-        <v>Vivero_Las_Lomas_19.jpg</v>
+        <v>Viveros_la_eterna_primavera_54.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Vivero El Centauro</v>
+        <v>La Semilla Vivero</v>
       </c>
       <c r="B9" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C9" t="str">
-        <v>Vivero_El_Centauro_42.jpg</v>
+        <v>La_Semilla_Vivero_68.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>El Semillero De Danny</v>
+        <v>Grupo Viverista Mundo Verde (vivero Mundo Verde)</v>
       </c>
       <c r="B10" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C10" t="str">
-        <v>El_Semillero_de_Danny_53.jpg</v>
+        <v>Grupo_Viverista_Mundo_Verde_(Vivero_Mundo_Verde)_82.jpg</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Cactuseria-cactus Y Suculentas</v>
+        <v>Vivero Alfalfares Queretaro</v>
       </c>
       <c r="B11" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C11" t="str">
-        <v>Cactuseria-Cactus_y_Suculentas_35.jpg</v>
+        <v>Vivero_Alfalfares_Queretaro_6.jpg</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Plantas, Rosales Y Maceteros</v>
+        <v>Viveros Ekologia</v>
       </c>
       <c r="B12" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C12" t="str">
-        <v>Plantas,_Rosales_y_Maceteros_23.jpg</v>
+        <v>Viveros_Ekologia_92.jpg</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Plantando.mx</v>
+        <v>Viveros Paraiso</v>
       </c>
       <c r="B13" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C13" t="str">
-        <v>Plantando.mx_47.jpg</v>
+        <v>Viveros_paraiso_26.jpg</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Vivércity - Vivero En Cancún</v>
+        <v>Vivero San Pedro Martir</v>
       </c>
       <c r="B14" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C14" t="str">
-        <v>Vivercity_-_Vivero_en_Cancun_64.jpg</v>
+        <v>VIVERO_SAN_PEDRO_MARTIR_31.jpg</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>El Jardin De La Lagartija</v>
+        <v>Viveros La Palma</v>
       </c>
       <c r="B15" t="str">
-        <v>quintanaroo</v>
+        <v>queretaro</v>
       </c>
       <c r="C15" t="str">
-        <v>El_Jardin_de_la_Lagartija_13.jpg</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Vivero La Tierra De Los Ents</v>
-      </c>
-      <c r="B16" t="str">
-        <v>quintanaroo</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Vivero_la_tierra_de_los_ents_38.jpg</v>
+        <v>Viveros_la_Palma_1.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/blogPostReady.xlsx
+++ b/blogPostReady.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,43 +454,28 @@
         <v>placeRank9</v>
       </c>
       <c r="Q1" t="str">
-        <v>placeRank10</v>
-      </c>
-      <c r="R1" t="str">
-        <v>placeRank11</v>
-      </c>
-      <c r="S1" t="str">
-        <v>placeRank12</v>
-      </c>
-      <c r="T1" t="str">
-        <v>placeRank13</v>
-      </c>
-      <c r="U1" t="str">
-        <v>placeRank14</v>
-      </c>
-      <c r="V1" t="str">
         <v>outro</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>queretaro</v>
+        <v>rosarito</v>
       </c>
       <c r="B2" t="str">
         <v>Viveros</v>
       </c>
       <c r="C2" t="str">
-        <v>Viveros en queretaro: Los Mejores Viveros en queretaro queretaroy alrededores.</v>
+        <v>Viveros en rosarito: Los Mejores Viveros en rosarito baja-california-nortey alrededores.</v>
       </c>
       <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">¡Hola y Bienvenid@ a esta Tierra de Plantas!. Si eres alguien amante de las plantas, estás buscando un buen vivero y vives en queretaro, ¡llegaste al lugar indicado!.
-    En este artículo te presentaremos los mejores viveros en queretaro, para que puedas encontrar todo lo que necesitas para tu jardín o huerto. Además, te daremos detalles sobre la ubicación y vías de contacto de cada sitio, así como la calificación promedio que los clientes le han dado a cada uno. Así que prepárate para conocer los mejores viveros de esta ciudad y encontrar todo lo que necesitas para hacer crecer tus plantas con éxito. ¡Comencemos! </v>
+        <v xml:space="preserve">¡Hola y Bienvenid@ a esta Tierra de Plantas!. Si eres alguien amante de las plantas, estás buscando un buen vivero y vives en rosarito, ¡llegaste al lugar indicado!.
+    En este artículo te presentaremos los mejores viveros en rosarito, para que puedas encontrar todo lo que necesitas para tu jardín o huerto. Además, te daremos detalles sobre la ubicación y vías de contacto de cada sitio, así como la calificación promedio que los clientes le han dado a cada uno. Así que prepárate para conocer los mejores viveros de esta ciudad y encontrar todo lo que necesitas para hacer crecer tus plantas con éxito. ¡Comencemos! </v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;h2&gt;Los Mejores viveros de queretaro&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;a href='#vivero-nativos'&gt;Vivero Nativos&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cactus-queretaro'&gt;Cactus Querétaro&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#alma-terra'&gt;Alma Terra&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-vida-giardan'&gt;Vivero Vida Giardan&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-yanez'&gt;Vivero Yañez&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vision-productores-de-flores'&gt;Visión Productores De Flores&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-la-eterna-primavera'&gt;Viveros La Eterna Primavera&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#la-semilla-vivero'&gt;La Semilla Vivero&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#grupo-viverista-mundo-verde-vivero-mundo-verde'&gt;Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-alfalfares-queretaro'&gt;Vivero Alfalfares Queretaro&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-ekologia'&gt;Viveros Ekologia&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-paraiso'&gt;Viveros Paraiso&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-san-pedro-martir'&gt;Vivero San Pedro Martir&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#viveros-la-palma'&gt;Viveros La Palma&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</v>
+        <v>&lt;h2&gt;Los Mejores viveros de rosarito&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;a href='#vivero-el-mayorista'&gt;Vivero El Mayorista&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-ceiba-"yaxche"'&gt;Vivero Ceiba "yaxché"&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-playas-de-rosarito-zona-centro'&gt;Vivero Playas De Rosarito Zona Centro&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-luz-y-sombra'&gt;Vivero Luz Y Sombra&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-la-central-de-el-descanso'&gt;Vivero La Central De El Descanso&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-el-rincon-de-nena'&gt;Vivero El Rincon De Nena&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-rancho-r'&gt;Vivero Rancho R&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#el-jardin-de-sandra'&gt;El Jardin De Sandra&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero'&gt;Vivero&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</v>
       </c>
       <c r="F2" t="str">
-        <v>viveros-en-queretaro-queretaro</v>
+        <v>viveros-en-rosarito-baja-california-norte</v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">
@@ -501,475 +486,305 @@
       </c>
       <c r="H2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-nativos" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Nativos&lt;/b&gt;&lt;/h2&gt;
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-el-mayorista" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero El Mayorista&lt;/b&gt;&lt;/h2&gt;
             &lt;div class="wp-block-columns" style="padding:0px;"&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.7201515208017!2d-100.39606359999999!3d20.640260599999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35b0bea5086b7%3A0x31e534a35e7385aa!2sVivero%20Nativos!5e0!3m2!1ses!2smx!4v1681340510798!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3368.3330218785222!2d-117.0469241!3d32.410236499999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d93757e2f06e6d%3A0x45ca9014307520be!2sVivero%20El%20Mayorista!5e0!3m2!1ses!2smx!4v1681487292630!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
                 &lt;/div&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Nativos:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 179 6762&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Nativos:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://www.facebook.com/viveronativosqro/"&gt;Web de Vivero Nativos&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Nativos:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es C. Cima 42, San Pedrito Peñuelas I, 76148 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero El Mayorista:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 661 112 0287&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero El Mayorista:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero El Mayorista:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Sonora 114, Plan Libertador, 22710 Rosarito, B.C.&lt;/p&gt;             
                 &lt;/div&gt;
             &lt;/div&gt;
-                &lt;p&gt;Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='https://www.google.com/maps/place/Vivero+Nativos/@20.6402606,-100.3960636,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35b0bea5086b7:0x31e534a35e7385aa!8m2!3d20.6402606!4d-100.3960636!16s%2Fg%2F11gzq17mmp?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Nativos&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Nativos?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Nativos son los siguientes:&lt;/p&gt;                       
+                &lt;p&gt;Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+El+Mayorista/@32.4102365,-117.0469241,17z/data=!3m1!4b1!4m6!3m5!1s0x80d93757e2f06e6d:0x45ca9014307520be!8m2!3d32.4102365!4d-117.0469241!16s%2Fg%2F11hg5f65xh?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero El Mayorista&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero El Mayorista?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero El Mayorista son los siguientes:&lt;/p&gt;                       
                     &lt;ul&gt;
-                        &lt;li&gt;Lunes de 10:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 10:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 10:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 10:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 10:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 10:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 11:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Lunes de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 09:00 a 18:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 09:00 a 18:00&lt;/li&gt;
                     &lt;/ul&gt;
-                    &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Nativos&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Nativos  un promedio de 4.7 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 168 reseñas públicas encontradas.&lt;/p&gt;  
+                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero El Mayorista&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero El Mayorista  un promedio de 4.5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 66 reseñas públicas encontradas.&lt;/p&gt;  
                 &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
         </v>
       </c>
       <c r="I2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="cactus-queretaro" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Cactus Querétaro&lt;/b&gt;&lt;/h2&gt;
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-ceiba-"yaxche"" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Ceiba "yaxché"&lt;/b&gt;&lt;/h2&gt;
             &lt;div class="wp-block-columns" style="padding:0px;"&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.3309858183725!2d-100.2890694!3d20.5745366!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d342c3cc989bc9%3A0xb889dc005565ef43!2sCactus%20Quer%C3%A9taro!5e0!3m2!1ses!2smx!4v1681340967999!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.086604902817!2d-117.04852779999999!3d32.363222199999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931c671c3c21d%3A0x32d969d64d39ab51!2sVivero%20Ceiba%20%22Yaxch%C3%A9%22!5e0!3m2!1ses!2smx!4v1681487332477!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
                 &lt;/div&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Cactus Querétaro:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 250 5363&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Cactus Querétaro:&lt;/h3&gt;
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Ceiba "yaxché":&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Ceiba "yaxché":&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://www.facebook.com/ceiba.yaxche"&gt;Web de Vivero Ceiba "yaxché"&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Ceiba "yaxché":&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Jalisco 698A, Constitución (Ampl. Constitución), 22710 Rosarito, B.C.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Ceiba+%22Yaxch%C3%A9%22/@32.3632222,-117.0485278,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931c671c3c21d:0x32d969d64d39ab51!8m2!3d32.3632222!4d-117.0485278!16s%2Fg%2F11rbb4l4mx?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Ceiba "yaxché"&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Ceiba "yaxché"?&lt;/h3&gt;  
+                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Ceiba "yaxché"&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Ceiba "yaxché"  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 20 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="J2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-playas-de-rosarito-zona-centro" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Playas De Rosarito Zona Centro&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.7964216072223!2d-117.05827509999999!3d32.3441744!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d9318ece2536b1%3A0x1a4bc2b803463f38!2sVivero%20Playas%20de%20Rosarito%20Zona%20Centro!5e0!3m2!1ses!2smx!4v1681487278772!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Playas De Rosarito Zona Centro:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Playas De Rosarito Zona Centro:&lt;/h3&gt;
                     &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Cactus Querétaro:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Ezequiel Montes 16 El Carmen, 76024 Santiago de Querétaro&lt;/p&gt;             
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Playas De Rosarito Zona Centro:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Blvd. Benito Juárez DROGUERIA, Centro Carretera, 22710 Rosarito, B.C.&lt;/p&gt;             
                 &lt;/div&gt;
             &lt;/div&gt;
-                &lt;p&gt;Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/Cactus+Quer%C3%A9taro/@20.5745366,-100.2890694,17z/data=!3m1!4b1!4m6!3m5!1s0x85d342c3cc989bc9:0xb889dc005565ef43!8m2!3d20.5745366!4d-100.2890694!16s%2Fg%2F11c5h440nd?authuser=0&amp;hl=es'&gt;Mapa del Vivero Cactus Querétaro&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Cactus Querétaro?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Cactus Querétaro son los siguientes:&lt;/p&gt;                       
+                &lt;p&gt;Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Playas+de+Rosarito+Zona+Centro/@32.3441744,-117.0582751,17z/data=!3m1!4b1!4m6!3m5!1s0x80d9318ece2536b1:0x1a4bc2b803463f38!8m2!3d32.3441744!4d-117.0582751!16s%2Fg%2F11hwfwmwwy?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Playas De Rosarito Zona Centro&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Playas De Rosarito Zona Centro?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Playas De Rosarito Zona Centro son los siguientes:&lt;/p&gt;                       
                     &lt;ul&gt;
-                        &lt;li&gt;Lunes de 10:00 a 12:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 10:00 a 12:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 10:00 a 12:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 10:00 a 12:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 10:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 10:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 10:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Lunes de 07:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Martes de 07:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 07:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Jueves de 07:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Viernes de 07:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Sábado de 07:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Domingo de 07:00 a 18:30&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Aunque estos horarios sean oficialmente vigentes, nunca está de más que antes de lanzarte, revises en sus redes sociales o contactos digitales que no haya habido ningún cambio logístico extraordinario en sus horarios de apertura y cierre.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Playas De Rosarito Zona Centro&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Playas De Rosarito Zona Centro  un promedio de 4.8 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 19 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="K2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-luz-y-sombra" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Luz Y Sombra&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3368.4166005494467!2d-116.9266662!3d32.40799709999999!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d93bb9fff33597%3A0x2d527c783f702069!2sVivero%20Luz%20Y%20Sombra!5e0!3m2!1ses!2smx!4v1681487376591!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Luz Y Sombra:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 664 340 6185&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Luz Y Sombra:&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://www.facebook.com/ViveroLuzYSombra?mibextid=LQQJ4d"&gt;Web de Vivero Luz Y Sombra&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Luz Y Sombra:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es 22163, Corredor Tijuana - Rosarito 2000 133, Hacienda Los Venados, Hacienda Los Venados, B.C.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para encontrar el lugar, símplemente apóyate de una app de navegación (ej. GoogleMaps) ingresando esta dirección, o utiliza este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Luz+Y+Sombra/@32.4079971,-116.9266662,17z/data=!3m1!4b1!4m6!3m5!1s0x80d93bb9fff33597:0x2d527c783f702069!8m2!3d32.4079971!4d-116.9266662!16s%2Fg%2F11g8vr39lh?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Luz Y Sombra&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Luz Y Sombra?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Luz Y Sombra son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 08:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Martes de 08:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 08:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Jueves de 08:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Viernes de 08:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Sábado de 08:00 a 18:30&lt;/li&gt;
+                        &lt;li&gt;Domingo de 09:00 a 16:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Luz Y Sombra&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Luz Y Sombra  un promedio de 4.6 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 20 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="L2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-la-central-de-el-descanso" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero La Central De El Descanso&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3375.9170408358195!2d-116.91019849999999!3d32.206466!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d927e880fad765%3A0xd93af40f5d437330!2sVivero%20La%20Central%20de%20El%20Descanso!5e0!3m2!1ses!2smx!4v1681487398628!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero La Central De El Descanso:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 661 688 1515&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero La Central De El Descanso:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero La Central De El Descanso:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es El Descanso, Km 49.05 Carretera Libre Tijuana-Ensenada, El Descanso, 22744 Rosarito, B.C.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com.mx/maps/place/Vivero+La+Central+de+El+Descanso/@32.206466,-116.9101985,17z/data=!3m1!4b1!4m6!3m5!1s0x80d927e880fad765:0xd93af40f5d437330!8m2!3d32.206466!4d-116.9101985!16s%2Fg%2F11gxmgy9w5?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero La Central De El Descanso&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero La Central De El Descanso?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero La Central De El Descanso son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 07:00 a 16:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 07:00 a 16:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles Cerrado&lt;/li&gt;
+                        &lt;li&gt;Jueves de 07:00 a 16:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 07:00 a 16:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 07:00 a 16:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 08:00 a 16:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Te sugerimos siempre revisar sus medios de contacto y redes sociales, incluso si cuentas con los horarios oficiales, para asegurarte de que no haya habido cambios inesperados en el horario o en la logística del lugar&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero La Central De El Descanso&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero La Central De El Descanso  un promedio de 4.8 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 12 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="M2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-el-rincon-de-nena" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero El Rincon De Nena&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.40927674325!2d-117.0487213!3d32.35456459999999!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931e4ca1f15ff%3A0x6d0beeb35735268a!2sVivero%20El%20Rincon%20De%20Nena!5e0!3m2!1ses!2smx!4v1681487288611!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero El Rincon De Nena:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero El Rincon De Nena:&lt;/h3&gt;
+                    &lt;p&gt;&lt;a href="https://www.facebook.com/profile.php?id=100006186975863"&gt;Web de Vivero El Rincon De Nena&lt;/a&gt;&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero El Rincon De Nena:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es C. Tabasco, Huacatay, 22707 Rosarito, B.C.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Utiliza la dirección en una herramienta de navegación para llegar directamente, o sigue este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+El+Rincon+De+Nena/@32.3545646,-117.0487213,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931e4ca1f15ff:0x6d0beeb35735268a!8m2!3d32.3545646!4d-117.0487213!16s%2Fg%2F11h4b7y3_n?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero El Rincon De Nena&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero El Rincon De Nena?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero El Rincon De Nena son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 07:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 07:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 07:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 07:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 07:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 07:00 a 17:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 08:30 a 15:30&lt;/li&gt;
                     &lt;/ul&gt;
                     &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Cactus Querétaro&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Cactus Querétaro  un promedio de 4.6 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 56 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;h3&gt;Calificación promedio de Vivero El Rincon De Nena&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero El Rincon De Nena  un promedio de 4.1 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 14 reseñas públicas encontradas.&lt;/p&gt;  
                 &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
         </v>
       </c>
-      <c r="J2" t="str" xml:space="preserve">
+      <c r="N2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="alma-terra" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Alma Terra&lt;/b&gt;&lt;/h2&gt;
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-rancho-r" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Rancho R&lt;/b&gt;&lt;/h2&gt;
             &lt;div class="wp-block-columns" style="padding:0px;"&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.2033978592335!2d-100.4566904!3d20.620564599999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x679dc19ab03d8eb7%3A0x87c65781246cf2be!2sAlma%20Terra!5e0!3m2!1ses!2smx!4v1681340716357!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3368.7418156907206!2d-117.05305320000001!3d32.399282!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931367e70e6cb%3A0x5bb1822aec489385!2sVivero%20Rancho%20R!5e0!3m2!1ses!2smx!4v1681487283686!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
                 &lt;/div&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Alma Terra:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 239 9519&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Alma Terra:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://almaterra-qro.negocio.site/?utm_source=gmb&amp;utm_medium=referral"&gt;Web de Alma Terra&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Alma Terra:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Colinas de Sta. Cruz, 76117 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Rancho R:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 664 501 3201&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Rancho R:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Rancho R:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es C. Estatuto Juridico 510, Veracruz, 22705 Rosarito, B.C.&lt;/p&gt;             
                 &lt;/div&gt;
             &lt;/div&gt;
-                &lt;p&gt;Con esta dirección y una app de navegación tipo Waze o GoogleMaps es muy sencillo llegar. Pudes hacerlo directo o ayudándote de este link al &lt;a href='https://www.google.com/maps/place/Alma+Terra/@20.6205646,-100.4566904,17z/data=!3m1!4b1!4m6!3m5!1s0x679dc19ab03d8eb7:0x87c65781246cf2be!8m2!3d20.6205646!4d-100.4566904!16s%2Fg%2F11rxqbdmg5?authuser=0&amp;hl=es'&gt;Mapa del Vivero Alma Terra&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Alma Terra?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Alma Terra son los siguientes:&lt;/p&gt;                       
+                &lt;p&gt;Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Rancho+R/@32.399282,-117.0530532,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931367e70e6cb:0x5bb1822aec489385!8m2!3d32.399282!4d-117.0530532!16s%2Fg%2F11c6qcnm50?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Rancho R&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero Rancho R?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Rancho R son los siguientes:&lt;/p&gt;                       
+                    &lt;ul&gt;
+                        &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 09:00 a 19:00&lt;/li&gt;
+                    &lt;/ul&gt;
+                    &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero Rancho R&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Rancho R  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 4 reseñas públicas encontradas.&lt;/p&gt;  
+                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
+        </v>
+      </c>
+      <c r="O2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="el-jardin-de-sandra" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;El Jardin De Sandra&lt;/b&gt;&lt;/h2&gt;
+            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.6595761680837!2d-117.0501537!3d32.347847400000006!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931f4715c1009%3A0x9a3875e940abe52d!2sEl%20jardin%20de%20sandra!5e0!3m2!1ses!2smx!4v1681487296881!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                &lt;/div&gt;
+                &lt;div class="wp-block-column" style="margin:10px"&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Teléfono El Jardin De Sandra:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 661 101 9667&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS El Jardin De Sandra:&lt;/h3&gt;
+                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
+                    &lt;h3 style="font-size:20px"&gt;Dirección El Jardin De Sandra:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Medano 350, Eduardo Crosthwhite, 22707 Rosarito, B.C.&lt;/p&gt;             
+                &lt;/div&gt;
+            &lt;/div&gt;
+                &lt;p&gt;Para llegar a este parque puedes poner colocar la dirección en una herramienta de navegación tipo waze o irte por medio de este enlace &lt;a href='https://www.google.com.mx/maps/place/El+jardin+de+sandra/@32.3478474,-117.0501537,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931f4715c1009:0x9a3875e940abe52d!8m2!3d32.3478474!4d-117.0501537!16s%2Fg%2F11k5m6k_bj?authuser=0&amp;hl=es'&gt;Mapa del Vivero El Jardin De Sandra&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto El Jardin De Sandra?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de El Jardin De Sandra son los siguientes:&lt;/p&gt;                       
                     &lt;ul&gt;
                         &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
                         &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
                         &lt;li&gt;Miércoles de 10:00 a 19:00&lt;/li&gt;
                         &lt;li&gt;Jueves de 10:00 a 19:00&lt;/li&gt;
                         &lt;li&gt;Viernes de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                        &lt;li&gt;Sábado de 12:00 a 19:00&lt;/li&gt;
+                        &lt;li&gt;Domingo de 12:00 a 19:00&lt;/li&gt;
                     &lt;/ul&gt;
-                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Alma Terra&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Alma Terra  un promedio de 4.9 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 27 reseñas públicas encontradas.&lt;/p&gt;  
+                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de El Jardin De Sandra&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a El Jardin De Sandra  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 2 reseñas públicas encontradas.&lt;/p&gt;  
                 &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
         </v>
       </c>
-      <c r="K2" t="str" xml:space="preserve">
+      <c r="P2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-vida-giardan" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Vida Giardan&lt;/b&gt;&lt;/h2&gt;
+            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero&lt;/b&gt;&lt;/h2&gt;
             &lt;div class="wp-block-columns" style="padding:0px;"&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.7352308880163!2d-100.3749967!3d20.598867500000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35b1e5e530d1b%3A0x7b2983287e73fb4f!2sVivero%20Vida%20Giardan!5e0!3m2!1ses!2smx!4v1681340456712!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.3629320604923!2d-117.0572119!3d32.35580819999999!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d9318e35f760f5%3A0x603abc271f40df60!2sVivero!5e0!3m2!1ses!2smx!4v1681487305576!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
                 &lt;/div&gt;
                 &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Vida Giardan:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 798 1705&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Vida Giardan:&lt;/h3&gt;
+                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero:&lt;/h3&gt;
+                    &lt;p&gt;El teléfono oficial de este vivero es 661 118 6146&lt;/p&gt;
+                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero:&lt;/h3&gt;
                     &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Vida Giardan:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Blvd. Bernardo Quintana 17, Pathe, 76020 Santiago de Querétaro, Qro.&lt;/p&gt;             
+                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero:&lt;/h3&gt;
+                    &lt;p&gt;La dirección oficial de este vivero es Tecate 178, Lopez Rodriguez, 22710 Rosarito, B.C.&lt;/p&gt;             
                 &lt;/div&gt;
             &lt;/div&gt;
-                &lt;p&gt;Para llegar a este parque, simplemente sigue las indicaciones de tu aplicación de navegación preferida o utiliza este link al &lt;a href='https://www.google.com/maps/place/Vivero+Vida+Giardan/@20.5988675,-100.3749967,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35b1e5e530d1b:0x7b2983287e73fb4f!8m2!3d20.5988675!4d-100.3749967!16s%2Fg%2F11f3c8zv1h?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Vida Giardan&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Vida Giardan?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Vida Giardan son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 07:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 07:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 07:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 07:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 07:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 07:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 07:00 a 19:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Vida Giardan&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Vida Giardan  un promedio de 4.2 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 92 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="L2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-yanez" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Yañez&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3736.1847186957134!2d-100.4333618!3d20.539621699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d3456deb84ff17%3A0x356708bb502be756!2sVivero%20Ya%C3%B1ez!5e0!3m2!1ses!2smx!4v1681340711559!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Yañez:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 295 7777&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Yañez:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://m.facebook.com/viveroyanezqro"&gt;Web de Vivero Yañez&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Yañez:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Walmart, Paseo Constituyentes km. 5.5 junto a, 76900 El Pueblito, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='https://www.google.com/maps/place/Vivero+Ya%C3%B1ez/@20.5396217,-100.4333618,17z/data=!3m1!4b1!4m6!3m5!1s0x85d3456deb84ff17:0x356708bb502be756!8m2!3d20.5396217!4d-100.4333618!16s%2Fg%2F1tfpvm6h?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Yañez&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Yañez?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Yañez son los siguientes:&lt;/p&gt;                       
+                &lt;p&gt;Para encontrar el sitio manejando puedes ingresar la dirección en una app tipo googleMaps o irte a este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero/@32.3558082,-117.0572119,17z/data=!3m1!4b1!4m6!3m5!1s0x80d9318e35f760f5:0x603abc271f40df60!8m2!3d32.3558082!4d-117.0572119!16s%2Fg%2F11s1w8kt8q?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero&lt;/a&gt;&lt;/p&gt;  
+                &lt;h3&gt;¿En qué horarios está abierto Vivero?&lt;/h3&gt;  
+                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero son los siguientes:&lt;/p&gt;                       
                     &lt;ul&gt;
                         &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
                         &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
                         &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
                         &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
                         &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 16:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Yañez&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Yañez  un promedio de 4.2 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 82 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="M2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vision-productores-de-flores" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Visión Productores De Flores&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.0732775036395!2d-100.38300219999999!3d20.5850649!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d344cdf465dc4d%3A0xe99a16e054bb533f!2sVisi%C3%B3n%20Productores%20de%20Flores!5e0!3m2!1ses!2smx!4v1681340783749!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Visión Productores De Flores:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 403 6631&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Visión Productores De Flores:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Visión Productores De Flores:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es José Siurob 31, zona dos extendida, Alameda, 76040 Santiago de Querétaro, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='https://www.google.com/maps/place/Visi%C3%B3n+Productores+de+Flores/@20.5850649,-100.3830022,17z/data=!3m1!4b1!4m6!3m5!1s0x85d344cdf465dc4d:0xe99a16e054bb533f!8m2!3d20.5850649!4d-100.3830022!16s%2Fg%2F11cjj831j_?authuser=0&amp;hl=es'&gt;Mapa del Vivero Visión Productores De Flores&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Visión Productores De Flores?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Visión Productores De Flores son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 14:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Visión Productores De Flores&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Visión Productores De Flores  un promedio de 4.7 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 32 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="N2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-la-eterna-primavera" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros La Eterna Primavera&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.867747864348!2d-100.3704692!3d20.5525914!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d3459fdd2ade4d%3A0xa1d3bda9b0435ef9!2sViveros%20la%20eterna%20primavera!5e0!3m2!1ses!2smx!4v1681340702928!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros La Eterna Primavera:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 444 551 4704&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros La Eterna Primavera:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros La Eterna Primavera:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Av. Villas del Cimatario, Villas del Cimatario, Huertas del Cimatario, 76080 Santiago de Querétaro, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Si necesitas llegar a este destino, basta con que ingreses la dirección en una app de navegación o sigas este &lt;a href='https://www.google.com/maps/place/Viveros+la+eterna+primavera/@20.5525914,-100.3704692,17z/data=!3m1!4b1!4m6!3m5!1s0x85d3459fdd2ade4d:0xa1d3bda9b0435ef9!8m2!3d20.5525914!4d-100.3704692!16s%2Fg%2F11fm73sz42?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros La Eterna Primavera&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Viveros La Eterna Primavera?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros La Eterna Primavera son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Jueves de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Domingo de 11:30 a 17:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque los horarios oficiales estén disponibles, es recomendable siempre verificar sus sitios de contacto y redes sociales antes de visitar el lugar, por cualquier cambio extraordinario que pudieran haber tenido&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Viveros La Eterna Primavera&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros La Eterna Primavera  un promedio de 4.7 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 24 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="O2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="la-semilla-vivero" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;La Semilla Vivero&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3736.5269914526534!2d-100.4230803!3d20.5256079!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d34f7fb62e0e5d%3A0xe9e312fd1a0ae13b!2sLa%20Semilla%20Vivero!5e0!3m2!1ses!2smx!4v1681340765379!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono La Semilla Vivero:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 228 2300&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS La Semilla Vivero:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://lasemillavivero.com/"&gt;Web de La Semilla Vivero&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección La Semilla Vivero:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Bosque Versalles 12, Colinas del Bosque II, Filosofal, 76904 El Pueblito, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/La+Semilla+Vivero/@20.5256079,-100.4230803,17z/data=!3m1!4b1!4m6!3m5!1s0x85d34f7fb62e0e5d:0xe9e312fd1a0ae13b!8m2!3d20.5256079!4d-100.4230803!16s%2Fg%2F1tcx1wk6?authuser=0&amp;hl=es'&gt;Mapa del Vivero La Semilla Vivero&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto La Semilla Vivero?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de La Semilla Vivero son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 15:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de La Semilla Vivero&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a La Semilla Vivero  un promedio de 4 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 66 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="P2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="grupo-viverista-mundo-verde-vivero-mundo-verde" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.5243573830535!2d-100.3442134!3d20.648235600000003!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35c79874303b1%3A0x74dd94661cc350d2!2sGrupo%20Viverista%20Mundo%20Verde%20(Vivero%20Mundo%20Verde)!5e0!3m2!1ses!2smx!4v1681340828353!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Grupo Viverista Mundo Verde (vivero Mundo Verde):&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 300 5782&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Grupo Viverista Mundo Verde (vivero Mundo Verde):&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://grupomundoverde.mx/"&gt;Web de Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Grupo Viverista Mundo Verde (vivero Mundo Verde):&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Anillo Vial Fray Junípero Serra #9576-A, El Refugio, 76146 Santiago de Querétaro, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar este lugar sólo necesitas poner la dirección en una app tipo googleMaps o irte siguiendo este link del &lt;a href='https://www.google.com/maps/place/Grupo+Viverista+Mundo+Verde+(Vivero+Mundo+Verde)/@20.6482356,-100.3442134,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35c79874303b1:0x74dd94661cc350d2!8m2!3d20.6482356!4d-100.3442134!16s%2Fg%2F11bxb9p706?authuser=0&amp;hl=es'&gt;Mapa del Vivero Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Grupo Viverista Mundo Verde (vivero Mundo Verde)?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Grupo Viverista Mundo Verde (vivero Mundo Verde) son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 16:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 11:00 a 15:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Grupo Viverista Mundo Verde (vivero Mundo Verde)&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Grupo Viverista Mundo Verde (vivero Mundo Verde)  un promedio de 4.4 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 26 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="Q2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-alfalfares-queretaro" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Alfalfares Queretaro&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.129244191454!2d-100.4548504!3d20.6235881!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d350644b901c25%3A0x713ab4ffa3b4ab64!2sVivero%20Alfalfares%20Queretaro!5e0!3m2!1ses!2smx!4v1681340483652!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Alfalfares Queretaro:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 133 2361&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Alfalfares Queretaro:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Alfalfares Queretaro:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Av. Laureles, Mision Fundadores, 76116 Santiago de Querétaro, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='https://www.google.com/maps/place/Vivero+Alfalfares+Queretaro/@20.6235881,-100.4548504,17z/data=!3m1!4b1!4m6!3m5!1s0x85d350644b901c25:0x713ab4ffa3b4ab64!8m2!3d20.6235881!4d-100.4548504!16s%2Fg%2F11c2nvlf86?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Alfalfares Queretaro&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Alfalfares Queretaro?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Alfalfares Queretaro son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 15:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 15:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 15:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 15:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 15:00&lt;/li&gt;
                         &lt;li&gt;Sábado Cerrado&lt;/li&gt;
                         &lt;li&gt;Domingo Cerrado&lt;/li&gt;
                     &lt;/ul&gt;
-                    &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Alfalfares Queretaro&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Alfalfares Queretaro  un promedio de 4.3 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 26 reseñas públicas encontradas.&lt;/p&gt;  
+                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
+                &lt;h3&gt;Calificación promedio de Vivero&lt;/h3&gt;
+                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 1 reseñas públicas encontradas.&lt;/p&gt;  
                 &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
         </v>
       </c>
-      <c r="R2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-ekologia" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros Ekologia&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3732.0347586679122!2d-100.4422908!3d20.7088131!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35a73dad5916f%3A0x7f01506fd1eeb404!2sViveros%20Ekologia!5e0!3m2!1ses!2smx!4v1681340871469!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros Ekologia:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 218 8489&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros Ekologia:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros Ekologia:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Blvrd de la Campana, 76230 Juriquilla, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para ir a este centro manejando, puedes usar esta dirección oficial con tu google maps o usando este  &lt;a href='https://www.google.com/maps/place/Viveros+Ekologia/@20.7088131,-100.4422908,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35a73dad5916f:0x7f01506fd1eeb404!8m2!3d20.7088131!4d-100.4422908!16s%2Fg%2F11fz9_b33n?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros Ekologia&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Viveros Ekologia?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros Ekologia son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 14:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 08:00 a 14:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Viveros Ekologia&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros Ekologia  un promedio de 4.4 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 38 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="S2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-paraiso" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros Paraiso&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3735.0344376337434!2d-100.4151193!3d20.5866512!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d345e88af63827%3A0x9cc13443eda24a11!2sViveros%20paraiso!5e0!3m2!1ses!2smx!4v1681340576097!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros Paraiso:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 329 8612&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros Paraiso:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros Paraiso:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Av. Tlacote 149, Galindas, 76177 Santiago de Querétaro, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com/maps/place/Viveros+paraiso/@20.5866512,-100.4151193,17z/data=!3m1!4b1!4m6!3m5!1s0x85d345e88af63827:0x9cc13443eda24a11!8m2!3d20.5866512!4d-100.4151193!16s%2Fg%2F11h6lqsq7f?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros Paraiso&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Viveros Paraiso?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros Paraiso son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Es importante revisar en sus redes sociales o contactos digitales antes de ir, incluso si ya tienes los horarios oficiales, para evitar cualquier cambio logístico o de horario de última hora&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Viveros Paraiso&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros Paraiso  un promedio de 4.2 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 39 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="T2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-san-pedro-martir" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero San Pedro Martir&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.244285228582!2d-100.4580511!3d20.6188973!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d3518e09b138e9%3A0x55e937ef0fafa207!2sVIVERO%20SAN%20PEDRO%20MARTIR!5e0!3m2!1ses!2smx!4v1681340598618!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero San Pedro Martir:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero San Pedro Martir:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero San Pedro Martir:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es C. Hidalgo 18, 76117 Santa María Magdalena, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='https://www.google.com/maps/place/VIVERO+SAN+PEDRO+MARTIR/@20.6188973,-100.4580511,17z/data=!3m1!4b1!4m6!3m5!1s0x85d3518e09b138e9:0x55e937ef0fafa207!8m2!3d20.6188973!4d-100.4580511!16s%2Fg%2F11h79k836s?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero San Pedro Martir&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero San Pedro Martir?&lt;/h3&gt;  
-                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
- &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero San Pedro Martir&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero San Pedro Martir  un promedio de 4.9 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 22 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="U2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="viveros-la-palma" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Viveros La Palma&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.785730676873!2d-100.44956789999999!3d20.6375888!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x85d35086133d0069%3A0xcd37ff386efb2811!2sViveros%20la%20Palma!5e0!3m2!1ses!2smx!4v1681340461016!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Viveros La Palma:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 442 352 3818&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Viveros La Palma:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Viveros La Palma:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Av. de la Luz 305, Cosmos, 76110 Santiago de Querétaro, Qro.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;¿Estás lista(o) para lanzarte a este sitio? Entonces pon la dirección en tu app de navegación favorita o síguete por este enlace al &lt;a href='https://www.google.com/maps/place/Viveros+la+Palma/@20.6375888,-100.4495679,17z/data=!3m1!4b1!4m6!3m5!1s0x85d35086133d0069:0xcd37ff386efb2811!8m2!3d20.6375888!4d-100.4495679!16s%2Fg%2F11sb4xnv82?authuser=0&amp;hl=es'&gt;Mapa del Vivero Viveros La Palma&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Viveros La Palma?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Viveros La Palma son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 20:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 09:00 a 20:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Viveros La Palma&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Viveros La Palma  un promedio de 4.1 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 23 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
-      </c>
-      <c r="V2" t="str" xml:space="preserve">
+      <c r="Q2" t="str" xml:space="preserve">
         <v xml:space="preserve">
     &lt;h2 class="wp-block-heading has-ast-global-color-3-color has-text-color" id="mas-informacion-de-viveros-en-mexico"&gt;Más información de Viveros En México&lt;/h2&gt;
-        &lt;p&gt;Esperamos que esta lista de los mejores viveros queretaro te haya sido útil y te ayude a encontrar el mejor sitio para adquirir tus plantas en esta ciudad. Si quieres conocer más viveros de México, no dudes en visitar nuestras listas de los mejores en diferentes ciudades del país. ¡Hasta pronto!&lt;/p&gt;
+        &lt;p&gt;Esperamos que esta lista de los mejores viveros rosarito te haya sido útil y te ayude a encontrar el mejor sitio para adquirir tus plantas en esta ciudad. Si quieres conocer más viveros de México, no dudes en visitar nuestras listas de los mejores en diferentes ciudades del país. ¡Hasta pronto!&lt;/p&gt;
         &lt;p class="has-text-align-center has-ast-global-color-1-background-color has-background"&gt;&lt;strong&gt;Otros artículos sobre viveros que podrían interesarte: &lt;/strong&gt;&lt;/p&gt;
         &lt;div class="wp-block-columns"&gt;
             &lt;div class="wp-block-column" style="margin:10px;"&gt;
@@ -987,14 +802,14 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,168 +827,113 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPy9f5lXXX_xEPND7kPs7qjKVfAPaMs22khKm7l=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNnZiHFW_e5Aj1F3jH9v3uc_UPTO9bF5SEZTZB3=w408-h541-k-no</v>
       </c>
       <c r="B2" t="str">
-        <v>ren "AF1QipPy9f5lXXX_xEPND7kPs7qjKVfAPaMs22khKm7l=w408-h544-k-no" "Vivero_Nativos_12.jpg"</v>
+        <v>ren "AF1QipNnZiHFW_e5Aj1F3jH9v3uc_UPTO9bF5SEZTZB3=w408-h541-k-no" "Vivero_El_Mayorista_3.jpg"</v>
       </c>
       <c r="C2" t="str">
-        <v>ren "1.jpg" "Vivero_Nativos_12.jpg"</v>
+        <v>ren "1.jpg" "Vivero_El_Mayorista_3.jpg"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMxDsnBYRnn8P-CxrS8aRzh8DgMblQl3nTROt-c=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOegc8DzW6jm-rRq-XdHx2PadlCELPgpGXr0Vfn=w408-h306-k-no</v>
       </c>
       <c r="B3" t="str">
-        <v>ren "AF1QipMxDsnBYRnn8P-CxrS8aRzh8DgMblQl3nTROt-c=w408-h306-k-no" "Cactus_Queretaro_114.jpg"</v>
+        <v>ren "AF1QipOegc8DzW6jm-rRq-XdHx2PadlCELPgpGXr0Vfn=w408-h306-k-no" "Vivero_Ceiba_"Yaxche"_12.jpg"</v>
       </c>
       <c r="C3" t="str">
-        <v>ren "2.jpg" "Cactus_Queretaro_114.jpg"</v>
+        <v>ren "2.jpg" "Vivero_Ceiba_"Yaxche"_12.jpg"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipN6GvTqzijzQQdpnp9JL5Ezj6cfX4agGH3OjNiy=w427-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPbLUYIn4tUIBYTCocC9YiGugPmdNqXw3HQzLOg=w408-h408-k-no</v>
       </c>
       <c r="B4" t="str">
-        <v>ren "AF1QipN6GvTqzijzQQdpnp9JL5Ezj6cfX4agGH3OjNiy=w427-h240-k-no" "Alma_Terra_57.jpg"</v>
+        <v>ren "AF1QipPbLUYIn4tUIBYTCocC9YiGugPmdNqXw3HQzLOg=w408-h408-k-no" "Vivero_Playas_de_Rosarito_Zona_Centro_0.jpg"</v>
       </c>
       <c r="C4" t="str">
-        <v>ren "3.jpg" "Alma_Terra_57.jpg"</v>
+        <v>ren "3.jpg" "Vivero_Playas_de_Rosarito_Zona_Centro_0.jpg"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMFFLSG7kRzqdwTrjBwQjSTccr5CUwA6putH9la=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM-LO2xg27zwZu7Mp5TAd-Ih0oq1I3042oksWA=w408-h544-k-no</v>
       </c>
       <c r="B5" t="str">
-        <v>ren "AF1QipMFFLSG7kRzqdwTrjBwQjSTccr5CUwA6putH9la=w408-h544-k-no" "Vivero_Vida_Giardan_0.jpg"</v>
+        <v>ren "AF1QipM-LO2xg27zwZu7Mp5TAd-Ih0oq1I3042oksWA=w408-h544-k-no" "Vivero_Luz_Y_Sombra_22.jpg"</v>
       </c>
       <c r="C5" t="str">
-        <v>ren "4.jpg" "Vivero_Vida_Giardan_0.jpg"</v>
+        <v>ren "4.jpg" "Vivero_Luz_Y_Sombra_22.jpg"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPCu0iqU4euzP1xBMUm5uST59ZkBGtPdA9NhXKz=w408-h510-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP-XqgDlXoJlDvy2dyoQPvQqlLzXObrFcrErZiH=w408-h544-k-no</v>
       </c>
       <c r="B6" t="str">
-        <v>ren "AF1QipPCu0iqU4euzP1xBMUm5uST59ZkBGtPdA9NhXKz=w408-h510-k-no" "Vivero_Yanez_56.jpg"</v>
+        <v>ren "AF1QipP-XqgDlXoJlDvy2dyoQPvQqlLzXObrFcrErZiH=w408-h544-k-no" "Vivero_La_Central_de_El_Descanso_27.jpg"</v>
       </c>
       <c r="C6" t="str">
-        <v>ren "5.jpg" "Vivero_Yanez_56.jpg"</v>
+        <v>ren "5.jpg" "Vivero_La_Central_de_El_Descanso_27.jpg"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMpf7LtrkQiAIsFRzcQjldD0X2ZbgVk7DxuVIyQ=w408-h725-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMfp_WWZaaBL_MV-jmBrNrtDazEdBAA-OIzeETJ=w408-h544-k-no</v>
       </c>
       <c r="B7" t="str">
-        <v>ren "AF1QipMpf7LtrkQiAIsFRzcQjldD0X2ZbgVk7DxuVIyQ=w408-h725-k-no" "Vision_Productores_de_Flores_72.jpg"</v>
+        <v>ren "AF1QipMfp_WWZaaBL_MV-jmBrNrtDazEdBAA-OIzeETJ=w408-h544-k-no" "Vivero_El_Rincon_De_Nena_2.jpg"</v>
       </c>
       <c r="C7" t="str">
-        <v>ren "6.jpg" "Vision_Productores_de_Flores_72.jpg"</v>
+        <v>ren "6.jpg" "Vivero_El_Rincon_De_Nena_2.jpg"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMJfxylORxRnMsZ0T-IpVxqHX--GSR2pGGIEyt_=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNwLdiuW9pb6R9RI3c6GRNcF5A2n50fKd5VKTuH=w426-h240-k-no</v>
       </c>
       <c r="B8" t="str">
-        <v>ren "AF1QipMJfxylORxRnMsZ0T-IpVxqHX--GSR2pGGIEyt_=w408-h544-k-no" "Viveros_la_eterna_primavera_54.jpg"</v>
+        <v>ren "AF1QipNwLdiuW9pb6R9RI3c6GRNcF5A2n50fKd5VKTuH=w426-h240-k-no" "Vivero_Rancho_R_1.jpg"</v>
       </c>
       <c r="C8" t="str">
-        <v>ren "7.jpg" "Viveros_la_eterna_primavera_54.jpg"</v>
+        <v>ren "7.jpg" "Vivero_Rancho_R_1.jpg"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNVXTEpLp0m-U4YFZVsE9piYUL3VmNsG5EJ3X0M=w408-h408-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPJ_QFF30sb4g5QkKXunkYVsaa_5zDve6v9Zo87=w408-h544-k-no</v>
       </c>
       <c r="B9" t="str">
-        <v>ren "AF1QipNVXTEpLp0m-U4YFZVsE9piYUL3VmNsG5EJ3X0M=w408-h408-k-no" "La_Semilla_Vivero_68.jpg"</v>
+        <v>ren "AF1QipPJ_QFF30sb4g5QkKXunkYVsaa_5zDve6v9Zo87=w408-h544-k-no" "El_jardin_de_sandra_4.jpg"</v>
       </c>
       <c r="C9" t="str">
-        <v>ren "8.jpg" "La_Semilla_Vivero_68.jpg"</v>
+        <v>ren "8.jpg" "El_jardin_de_sandra_4.jpg"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM3jwmB4eqXXs9DThgPZsOrLy45zw3H7w-dPusF=w408-h271-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP1qj31fuu-6VSywK17V5lhXBlChVI7t6vXh4Z_=w408-h306-k-no</v>
       </c>
       <c r="B10" t="str">
-        <v>ren "AF1QipM3jwmB4eqXXs9DThgPZsOrLy45zw3H7w-dPusF=w408-h271-k-no" "Grupo_Viverista_Mundo_Verde_(Vivero_Mundo_Verde)_82.jpg"</v>
+        <v>ren "AF1QipP1qj31fuu-6VSywK17V5lhXBlChVI7t6vXh4Z_=w408-h306-k-no" "Vivero_6.jpg"</v>
       </c>
       <c r="C10" t="str">
-        <v>ren "9.jpg" "Grupo_Viverista_Mundo_Verde_(Vivero_Mundo_Verde)_82.jpg"</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOu0rzf6aI2jX0V53AKzg1LU8L0yIM1dsm7lGxS=w408-h544-k-no</v>
-      </c>
-      <c r="B11" t="str">
-        <v>ren "AF1QipOu0rzf6aI2jX0V53AKzg1LU8L0yIM1dsm7lGxS=w408-h544-k-no" "Vivero_Alfalfares_Queretaro_6.jpg"</v>
-      </c>
-      <c r="C11" t="str">
-        <v>ren "10.jpg" "Vivero_Alfalfares_Queretaro_6.jpg"</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMaJJ0n7LjzylNDUb-s-drXjX4O7eRKZpf6VauO=w408-h906-k-no</v>
-      </c>
-      <c r="B12" t="str">
-        <v>ren "AF1QipMaJJ0n7LjzylNDUb-s-drXjX4O7eRKZpf6VauO=w408-h906-k-no" "Viveros_Ekologia_92.jpg"</v>
-      </c>
-      <c r="C12" t="str">
-        <v>ren "11.jpg" "Viveros_Ekologia_92.jpg"</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPBi2fca_94YcR3Bmk9jEyJeBmprLF76fMwBsh9=w408-h306-k-no</v>
-      </c>
-      <c r="B13" t="str">
-        <v>ren "AF1QipPBi2fca_94YcR3Bmk9jEyJeBmprLF76fMwBsh9=w408-h306-k-no" "Viveros_paraiso_26.jpg"</v>
-      </c>
-      <c r="C13" t="str">
-        <v>ren "12.jpg" "Viveros_paraiso_26.jpg"</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMCCGIWBgPSjlGOpNJi8ScA5SWKLY6vsyWtVq5U=w408-h544-k-no</v>
-      </c>
-      <c r="B14" t="str">
-        <v>ren "AF1QipMCCGIWBgPSjlGOpNJi8ScA5SWKLY6vsyWtVq5U=w408-h544-k-no" "VIVERO_SAN_PEDRO_MARTIR_31.jpg"</v>
-      </c>
-      <c r="C14" t="str">
-        <v>ren "13.jpg" "VIVERO_SAN_PEDRO_MARTIR_31.jpg"</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOZzMTXikF2yDNFgXpjya8Qa7dG2T4YXbJdgBr-=w408-h725-k-no</v>
-      </c>
-      <c r="B15" t="str">
-        <v>ren "AF1QipOZzMTXikF2yDNFgXpjya8Qa7dG2T4YXbJdgBr-=w408-h725-k-no" "Viveros_la_Palma_1.jpg"</v>
-      </c>
-      <c r="C15" t="str">
-        <v>ren "14.jpg" "Viveros_la_Palma_1.jpg"</v>
+        <v>ren "9.jpg" "Vivero_6.jpg"</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,161 +951,106 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Vivero Nativos</v>
+        <v>Vivero El Mayorista</v>
       </c>
       <c r="B2" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C2" t="str">
-        <v>Vivero_Nativos_12.jpg</v>
+        <v>Vivero_El_Mayorista_3.jpg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Cactus Querétaro</v>
+        <v>Vivero Ceiba "yaxché"</v>
       </c>
       <c r="B3" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C3" t="str">
-        <v>Cactus_Queretaro_114.jpg</v>
+        <v>Vivero_Ceiba_"Yaxche"_12.jpg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alma Terra</v>
+        <v>Vivero Playas De Rosarito Zona Centro</v>
       </c>
       <c r="B4" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C4" t="str">
-        <v>Alma_Terra_57.jpg</v>
+        <v>Vivero_Playas_de_Rosarito_Zona_Centro_0.jpg</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Vivero Vida Giardan</v>
+        <v>Vivero Luz Y Sombra</v>
       </c>
       <c r="B5" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C5" t="str">
-        <v>Vivero_Vida_Giardan_0.jpg</v>
+        <v>Vivero_Luz_Y_Sombra_22.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Vivero Yañez</v>
+        <v>Vivero La Central De El Descanso</v>
       </c>
       <c r="B6" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C6" t="str">
-        <v>Vivero_Yanez_56.jpg</v>
+        <v>Vivero_La_Central_de_El_Descanso_27.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Visión Productores De Flores</v>
+        <v>Vivero El Rincon De Nena</v>
       </c>
       <c r="B7" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C7" t="str">
-        <v>Vision_Productores_de_Flores_72.jpg</v>
+        <v>Vivero_El_Rincon_De_Nena_2.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Viveros La Eterna Primavera</v>
+        <v>Vivero Rancho R</v>
       </c>
       <c r="B8" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C8" t="str">
-        <v>Viveros_la_eterna_primavera_54.jpg</v>
+        <v>Vivero_Rancho_R_1.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>La Semilla Vivero</v>
+        <v>El Jardin De Sandra</v>
       </c>
       <c r="B9" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C9" t="str">
-        <v>La_Semilla_Vivero_68.jpg</v>
+        <v>El_jardin_de_sandra_4.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Grupo Viverista Mundo Verde (vivero Mundo Verde)</v>
+        <v>Vivero</v>
       </c>
       <c r="B10" t="str">
-        <v>queretaro</v>
+        <v>baja-california-norte</v>
       </c>
       <c r="C10" t="str">
-        <v>Grupo_Viverista_Mundo_Verde_(Vivero_Mundo_Verde)_82.jpg</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Vivero Alfalfares Queretaro</v>
-      </c>
-      <c r="B11" t="str">
-        <v>queretaro</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Vivero_Alfalfares_Queretaro_6.jpg</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Viveros Ekologia</v>
-      </c>
-      <c r="B12" t="str">
-        <v>queretaro</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Viveros_Ekologia_92.jpg</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Viveros Paraiso</v>
-      </c>
-      <c r="B13" t="str">
-        <v>queretaro</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Viveros_paraiso_26.jpg</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Vivero San Pedro Martir</v>
-      </c>
-      <c r="B14" t="str">
-        <v>queretaro</v>
-      </c>
-      <c r="C14" t="str">
-        <v>VIVERO_SAN_PEDRO_MARTIR_31.jpg</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Viveros La Palma</v>
-      </c>
-      <c r="B15" t="str">
-        <v>queretaro</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Viveros_la_Palma_1.jpg</v>
+        <v>Vivero_6.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/blogPostReady.xlsx
+++ b/blogPostReady.xlsx
@@ -399,14 +399,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>place</v>
+        <v>state</v>
       </c>
       <c r="B1" t="str">
         <v>type</v>
@@ -418,398 +418,978 @@
         <v>postIntro</v>
       </c>
       <c r="E1" t="str">
-        <v>tableOfContent</v>
+        <v>postTOC</v>
       </c>
       <c r="F1" t="str">
+        <v>postNote</v>
+      </c>
+      <c r="G1" t="str">
+        <v>placeRank1</v>
+      </c>
+      <c r="H1" t="str">
+        <v>placeRank2</v>
+      </c>
+      <c r="I1" t="str">
+        <v>placeRank3</v>
+      </c>
+      <c r="J1" t="str">
+        <v>placeRank4</v>
+      </c>
+      <c r="K1" t="str">
+        <v>placeRank5</v>
+      </c>
+      <c r="L1" t="str">
+        <v>placeRank6</v>
+      </c>
+      <c r="M1" t="str">
+        <v>placeRank7</v>
+      </c>
+      <c r="N1" t="str">
+        <v>placeRank8</v>
+      </c>
+      <c r="O1" t="str">
+        <v>placeRank9</v>
+      </c>
+      <c r="P1" t="str">
+        <v>placeRank10</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>placeRank11</v>
+      </c>
+      <c r="R1" t="str">
+        <v>placeRank12</v>
+      </c>
+      <c r="S1" t="str">
+        <v>placeRank13</v>
+      </c>
+      <c r="T1" t="str">
+        <v>placeRank14</v>
+      </c>
+      <c r="U1" t="str">
+        <v>placeRank15</v>
+      </c>
+      <c r="V1" t="str">
+        <v>placeRank16</v>
+      </c>
+      <c r="W1" t="str">
+        <v>placeRank17</v>
+      </c>
+      <c r="X1" t="str">
+        <v>placeRank18</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>placeRank19</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>placeRank20</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>placeRank21</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>placeRank22</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>placeRank23</v>
+      </c>
+      <c r="AD1" t="str">
         <v>slug</v>
-      </c>
-      <c r="G1" t="str">
-        <v>postNote</v>
-      </c>
-      <c r="H1" t="str">
-        <v>placeRank1</v>
-      </c>
-      <c r="I1" t="str">
-        <v>placeRank2</v>
-      </c>
-      <c r="J1" t="str">
-        <v>placeRank3</v>
-      </c>
-      <c r="K1" t="str">
-        <v>placeRank4</v>
-      </c>
-      <c r="L1" t="str">
-        <v>placeRank5</v>
-      </c>
-      <c r="M1" t="str">
-        <v>placeRank6</v>
-      </c>
-      <c r="N1" t="str">
-        <v>placeRank7</v>
-      </c>
-      <c r="O1" t="str">
-        <v>placeRank8</v>
-      </c>
-      <c r="P1" t="str">
-        <v>placeRank9</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>outro</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>rosarito</v>
+        <v>Jalisco</v>
       </c>
       <c r="B2" t="str">
-        <v>Viveros</v>
+        <v>Parques Ecoturísticos</v>
       </c>
       <c r="C2" t="str">
-        <v>Viveros en rosarito: Los Mejores Viveros en rosarito baja-california-nortey alrededores.</v>
+        <v>Parques Ecoturísticos en Jalisco: 15 Lugares Increibles para hacer Ecoturismo en Jalisco y sus alrededores.</v>
       </c>
       <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">¡Hola y Bienvenid@ a esta Tierra de Plantas!. Si eres alguien amante de las plantas, estás buscando un buen vivero y vives en rosarito, ¡llegaste al lugar indicado!.
-    En este artículo te presentaremos los mejores viveros en rosarito, para que puedas encontrar todo lo que necesitas para tu jardín o huerto. Además, te daremos detalles sobre la ubicación y vías de contacto de cada sitio, así como la calificación promedio que los clientes le han dado a cada uno. Así que prepárate para conocer los mejores viveros de esta ciudad y encontrar todo lo que necesitas para hacer crecer tus plantas con éxito. ¡Comencemos! </v>
+        <v xml:space="preserve">¿Listo para una aventura de ecoturismo sin igual en Jalisco? ¡pues aterrizaste en el lugar adecuado!. Hoy te vamos a ayudar a identificar los mejores parques ecoturísticos en Jalisco, para que no te queden dudas ni pretextos para no salir a la naturaleza estos días. 
+ Esta lista fué preparada haciendo una clasificación detallada de los sitios ecoturísticos con mejor calificación en redes sociales, medios digitales y testimonios oficiales de visitantes previos. Además de incluir las calificaciones oficiales que han recibido, incluye también las vías de contacto oficial de cada sitio, horarios vigentes y liga a mapas y detalles logísticos para llegar de manera segura a cada uno de ellos. 
+ Asi es que nada... toma nota y empieza a preparar tu visita, estamos seguras(os) de que luego de echar un ojo a esta lista, vas a querer salir a conocer estos sitios ecoturísticos ¡desde ya!.</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;h2&gt;Los Mejores viveros de rosarito&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;a href='#vivero-el-mayorista'&gt;Vivero El Mayorista&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-ceiba-"yaxche"'&gt;Vivero Ceiba "yaxché"&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-playas-de-rosarito-zona-centro'&gt;Vivero Playas De Rosarito Zona Centro&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-luz-y-sombra'&gt;Vivero Luz Y Sombra&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-la-central-de-el-descanso'&gt;Vivero La Central De El Descanso&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-el-rincon-de-nena'&gt;Vivero El Rincon De Nena&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero-rancho-r'&gt;Vivero Rancho R&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#el-jardin-de-sandra'&gt;El Jardin De Sandra&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#vivero'&gt;Vivero&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</v>
-      </c>
-      <c r="F2" t="str">
-        <v>viveros-en-rosarito-baja-california-norte</v>
+        <v>&lt;H2&gt;Los Mejores Parques Ecoturísticos en Jalisco&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;a href='#parque-nacional-volcan-nevado-de-colima'&gt;Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-el-salto-del-nogal,-tapalpa'&gt;Cascada El Salto Del Nogal, Tapalpa&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#sierra-de-quila'&gt;Sierra De Quila&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-ecologico-huilotan'&gt;Parque Ecológico Huilotán&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-natural-los-frailes'&gt;Parque Natural Los Frailes&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-de-comala'&gt;Cascada De Comala&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-los-azules-tequila'&gt;Cascada Los Azules Tequila&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#sierra-de-san-juan-cosala'&gt;Sierra De San Juan Cosalá&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-de-huaxtla'&gt;Cascada De Huaxtla&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#el-diente'&gt;El Diente&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#el-tepalo'&gt;El Tepalo&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#rancho-ecoturistico-agua-dulce-en-bosque-de-la-primavera'&gt;Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cerro-cuauhtepetl'&gt;Cerro Cuauhtépetl&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#bosque-de-arce,-bosque-de-maple'&gt;Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-el-salto'&gt;Cascada El Salto&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#salto-del-nogal'&gt;Salto Del Nogal&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#valle-de-los-enigmas'&gt;Valle De Los Enigmas&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-el-tecolote-mazamitla'&gt;Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-santa-cruz'&gt;Cascada Santa Cruz&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-ecologico-las-penas'&gt;Parque Ecológico Las Peñas&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#puente-de-arcediano'&gt;Puente De Arcediano&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#ekopark-tapalpa'&gt;Ekopark Tapalpa&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#piedras-bola'&gt;Piedras Bola&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="F2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+        &lt;p class="has-background" style="background-color:#af6bb054;font-size:15px"&gt;OJO: Hemos excluido de esta lista a los desarrollos ecoturísticos exclusivamente recreativos (ej. balnearios) que no cuentan con al menos un componente educativo ambiental o cultural (por ej. la posibilidad de contratar un guía local para conocer más sobre el entorno o sus activos naturales y culturales).&lt;/p&gt;
+        </v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;p class="has-ast-global-color-1-background-color has-background;font-size:15px"&gt;
-                Nota: Los horarios y contactos de los viveros incluidos en esta lista fueron tomados de sus sitios y publicidad oficial. Si existe algún error ¡por favor no dudes en contactarnos! para hacer las correcciones pertinentes
-            &lt;/p&gt;
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="parque-nacional-volcan-nevado-de-colima"&gt;&lt;b&gt;#1 Parque Ecoturístico Parque Nacional Volcán Nevado De Colima&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Nacional_Volcan_Nevado_de_Colima_109.jpg" alt="Parque Nacional Volcán Nevado de Colima"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3759.2590836066643!2d-103.62758939999999!3d19.573398!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84256378913a02e1%3A0xd95a577754dc562c!2sParque%20Nacional%20Volc%C3%A1n%20Nevado%20de%20Colima!5e0!3m2!1ses!2smx!4v1680034650393!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Siguiendo con esta lista, ahora pasamos a Parque Nacional Volcán Nevado De Colima. Y es que si eres de quienes ama estar en contacto con la naturaleza y andas por Jalisco, entonces tienes que considerar la experiencia de visitar el parque natural Parque Nacional Volcán Nevado De Colima. Con una calificación promedio de 4.8 estrellas a partir de reviews de más de 955 presonas, no tenemos duda de es también una gran opcíon. Así que toma nota de todos sus datos y prográmate para sumergirte en los paisajes naturales de Jalisco y vive el ecoturismo que te ofrece Parque Nacional Volcán Nevado De Colima.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Parque Nacional Volcán Nevado De Colima"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en México 54D 16, Usmajac, Jal.
+Con esta dirección y una app de navegación tipo Waze o GoogleMaps es muy sencillo llegar. Pudes hacerlo directo o ayudándote de este link al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque Nacional Volcán Nevado De Colima?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Parque Nacional Volcán Nevado De Colima son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 341 412 2025
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.nevadodecolima.mx/"&gt;Web de Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Parque Nacional Volcán Nevado De Colima?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Parque Nacional Volcán Nevado De Colima son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Antes de visitar el lugar, es una buena idea verificar sus sitios de contacto digitales y redes sociales, aún si ya cuentas con los horarios oficiales, para evitar cualquier cambio inesperado o sorpresas ya que estés ahí (por ej. cambio por días feriados)&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="H2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-el-mayorista" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero El Mayorista&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3368.3330218785222!2d-117.0469241!3d32.410236499999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d93757e2f06e6d%3A0x45ca9014307520be!2sVivero%20El%20Mayorista!5e0!3m2!1ses!2smx!4v1681487292630!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero El Mayorista:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 661 112 0287&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero El Mayorista:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero El Mayorista:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Sonora 114, Plan Libertador, 22710 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+El+Mayorista/@32.4102365,-117.0469241,17z/data=!3m1!4b1!4m6!3m5!1s0x80d93757e2f06e6d:0x45ca9014307520be!8m2!3d32.4102365!4d-117.0469241!16s%2Fg%2F11hg5f65xh?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero El Mayorista&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero El Mayorista?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero El Mayorista son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 09:00 a 18:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero El Mayorista&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero El Mayorista  un promedio de 4.5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 66 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="cascada-el-salto-del-nogal,-tapalpa"&gt;&lt;b&gt;#2 Centro Ecoturístico Cascada El Salto Del Nogal, Tapalpa&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_el_Salto_del_Nogal,_Tapalpa_60.jpg" alt="Cascada el Salto del Nogal, Tapalpa"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3752.4190334000386!2d-103.76604080000001!3d19.8645203!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259c8d1976f83b%3A0xd3ba4ff63b56c131!2sCascada%20el%20Salto%20del%20Nogal%2C%20Tapalpa!5e0!3m2!1ses!2smx!4v1680034422555!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Para una gran experiencia de ecoturismo en Jalisco, está el sitio ecoturístico Cascada El Salto Del Nogal, Tapalpa. Decidimos agregar este sitio a la lista de los mejores parques naturales de este estado, gracias al aval de 4.8 estrellas que más de 967 visitantes le han dado. Entonces si te gusta estar rodeado de paisajes lindos, y vegetación nativa, etnonces este sitio es una de las opciones perfectas para tí para ti. Ponlo en tu lista ya mismo y aventúrate a conocer la naturalza de Jalisco visitando Cascada El Salto Del Nogal, Tapalpa.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Cascada El Salto Del Nogal, Tapalpa"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en Jalisco
+Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Cascada El Salto Del Nogal, Tapalpa&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Cascada El Salto Del Nogal, Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cascada El Salto Del Nogal, Tapalpa son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Cascada El Salto Del Nogal, Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="I2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-ceiba-"yaxche"" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Ceiba "yaxché"&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.086604902817!2d-117.04852779999999!3d32.363222199999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931c671c3c21d%3A0x32d969d64d39ab51!2sVivero%20Ceiba%20%22Yaxch%C3%A9%22!5e0!3m2!1ses!2smx!4v1681487332477!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Ceiba "yaxché":&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Ceiba "yaxché":&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://www.facebook.com/ceiba.yaxche"&gt;Web de Vivero Ceiba "yaxché"&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Ceiba "yaxché":&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Jalisco 698A, Constitución (Ampl. Constitución), 22710 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Podrás llegar manejando sin ningún problema, símplemente usa la dirección en una app como waze o googleMaps, o usa este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Ceiba+%22Yaxch%C3%A9%22/@32.3632222,-117.0485278,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931c671c3c21d:0x32d969d64d39ab51!8m2!3d32.3632222!4d-117.0485278!16s%2Fg%2F11rbb4l4mx?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Ceiba "yaxché"&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Ceiba "yaxché"?&lt;/h3&gt;  
-                &lt;p&gt;Lamentablemente este vivero no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
- &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB) para constatar horarios vigentes.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Ceiba "yaxché"&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Ceiba "yaxché"  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 20 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="sierra-de-quila"&gt;&lt;b&gt;#3 Parque Ecoturístico Sierra De Quila&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Sierra_de_Quila_89.jpg" alt="Sierra de Quila"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3742.502994807881!2d-104.0857276!3d20.279436999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8425c6fa622d8c37%3A0x8b71e406b164e9d1!2sSierra%20de%20Quila!5e0!3m2!1ses!2smx!4v1680034557357!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;El centro ecoturístico Sierra De Quila es nuestra siguiente recomendación. Una de las opciones inmejorables para vivir la naturaleza en Jalisco. Con 4.8 estrellas y el aval de al menos 244 visitantes con opiniones positivas, este sitio ecoturístico se ha posicionado como uno de los mejores de por acá, y es un atractivo natural obligado si lo que buscas es un hacer algo de ecoturismo. Entonces, apúntate también todos sus detalles y ponte en ruta a las Sierra De Quila.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Sierra De Quila"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en Portal Hidalgo 36A, 48540 Tecolotlán, Jal.
+Con esta dirección y un googleMaps o waze típico del celular vas a poder llegar sin ningún problema al sitio. Igual para facilitarte el proceso, acá te va una liga al &lt;a href='undefined'&gt;Mapa del Parque Natural Sierra De Quila&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Sierra De Quila?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Sierra De Quila son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.sierradequila.org/"&gt;Web de Sierra De Quila&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Sierra De Quila?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Sierra De Quila son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Martes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Jueves de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Sábado Cerrado&lt;/li&gt;
+                            &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="J2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-playas-de-rosarito-zona-centro" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Playas De Rosarito Zona Centro&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.7964216072223!2d-117.05827509999999!3d32.3441744!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d9318ece2536b1%3A0x1a4bc2b803463f38!2sVivero%20Playas%20de%20Rosarito%20Zona%20Centro!5e0!3m2!1ses!2smx!4v1681487278772!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Playas De Rosarito Zona Centro:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Playas De Rosarito Zona Centro:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Playas De Rosarito Zona Centro:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Blvd. Benito Juárez DROGUERIA, Centro Carretera, 22710 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Playas+de+Rosarito+Zona+Centro/@32.3441744,-117.0582751,17z/data=!3m1!4b1!4m6!3m5!1s0x80d9318ece2536b1:0x1a4bc2b803463f38!8m2!3d32.3441744!4d-117.0582751!16s%2Fg%2F11hwfwmwwy?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Playas De Rosarito Zona Centro&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Playas De Rosarito Zona Centro?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Playas De Rosarito Zona Centro son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 07:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Martes de 07:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 07:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Jueves de 07:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Viernes de 07:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Sábado de 07:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Domingo de 07:00 a 18:30&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque estos horarios sean oficialmente vigentes, nunca está de más que antes de lanzarte, revises en sus redes sociales o contactos digitales que no haya habido ningún cambio logístico extraordinario en sus horarios de apertura y cierre.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Playas De Rosarito Zona Centro&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Playas De Rosarito Zona Centro  un promedio de 4.8 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 19 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="parque-ecologico-huilotan"&gt;&lt;b&gt;#4 Parque de Ecoturismo Parque Ecológico Huilotán&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Ecologico_Huilotan_16.jpg" alt="Parque Ecológico Huilotán"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3725.8126445377825!2d-103.3999547!3d20.9600378!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428986151c6cb27%3A0xed44c6d542806d04!2sParque%20Ecol%C3%B3gico%20Huilot%C3%A1n!5e0!3m2!1ses!2smx!4v1680034220340!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Parque Ecológico Huilotán es el siguiente de los parques ecoturísticos más populares de Jalisco. Este sitio logró un promedio de calificación de 4.6 estrellas de más de 1114 visitantes, pues se trata de un lugar perfecto para disfrutar el paisaje y los entornos naturales de Jalisco. Entonces... anótate toda su información para que puedas visitar el parque de ecoturismo Parque Ecológico Huilotán cuanto antes.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Parque Ecológico Huilotán"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en Carr a Colotlán km 22.5, Huilotan, 45250 Zapopan, Jal.
+Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Parque Ecológico Huilotán&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque Ecológico Huilotán?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Ecológico Huilotán son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1342 5610
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/ecohuilotan/"&gt;Web de Parque Ecológico Huilotán&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Parque Ecológico Huilotán?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Ecológico Huilotán son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Sábado de 08:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Domingo de 08:00 a 18:00&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Es importante verificar en sus redes sociales o contactos digitales antes de ir, incluso si ya tienes los horarios oficiales, para evitar cualquier cambio logístico de última hora&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="K2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-luz-y-sombra" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Luz Y Sombra&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3368.4166005494467!2d-116.9266662!3d32.40799709999999!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d93bb9fff33597%3A0x2d527c783f702069!2sVivero%20Luz%20Y%20Sombra!5e0!3m2!1ses!2smx!4v1681487376591!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Luz Y Sombra:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 664 340 6185&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Luz Y Sombra:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://www.facebook.com/ViveroLuzYSombra?mibextid=LQQJ4d"&gt;Web de Vivero Luz Y Sombra&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Luz Y Sombra:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es 22163, Corredor Tijuana - Rosarito 2000 133, Hacienda Los Venados, Hacienda Los Venados, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar el lugar, símplemente apóyate de una app de navegación (ej. GoogleMaps) ingresando esta dirección, o utiliza este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+Luz+Y+Sombra/@32.4079971,-116.9266662,17z/data=!3m1!4b1!4m6!3m5!1s0x80d93bb9fff33597:0x2d527c783f702069!8m2!3d32.4079971!4d-116.9266662!16s%2Fg%2F11g8vr39lh?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Luz Y Sombra&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Luz Y Sombra?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Luz Y Sombra son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Sábado de 08:00 a 18:30&lt;/li&gt;
-                        &lt;li&gt;Domingo de 09:00 a 16:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Luz Y Sombra&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Luz Y Sombra  un promedio de 4.6 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 20 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="parque-natural-los-frailes"&gt;&lt;b&gt;#5 Centro Ecoturístico Parque Natural Los Frailes&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Natural_Los_Frailes_40.jpg" alt="Parque Natural Los Frailes"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3750.454584076914!2d-103.76132709999999!3d19.947376!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842590df7d01ea05%3A0xfdde2013bb2d06ad!2sParque%20Natural%20Los%20Frailes!5e0!3m2!1ses!2smx!4v1680034330464!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Este parque ecoturístico tiene  4.6 estrellas de calificación promedio, a partir de las más de 697 opiniones de sus visitantes... ¿nada mal no?. Es por esto que Parque Natural Los Frailes es parte de esta lista de los parques ecoturísticos mejor calificados de Jalisco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el centro ecoturístico Parque Natural Los Frailes en Jalisco es sin duda una gran opción.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Parque Natural Los Frailes"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en Miguel Hidalgo 272, Centro, 49340 Tapalpa, Jal.
+Para encontrar el sitio manejando puedes ingresar la dirección en una app tipo googleMaps o irte a este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Parque Natural Los Frailes&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Parque Natural Los Frailes?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Natural Los Frailes son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1443 1204 o 3418783680
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.tapalpalosfrailes.com/"&gt;Web de Parque Natural Los Frailes&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque de ecoturismo Parque Natural Los Frailes?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Natural Los Frailes son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 10:30 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Martes Cerrado&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 10:30 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Jueves de 10:30 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 10:30 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Sábado de 10:30 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Domingo de 10:30 a 18:00&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Te sugerimos siempre revisar sus medios de contacto y redes sociales, incluso si cuentas con los horarios oficiales, para asegurarte de que no haya habido cambios inesperados en el horario o en la logística del lugar&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="L2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-la-central-de-el-descanso" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero La Central De El Descanso&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3375.9170408358195!2d-116.91019849999999!3d32.206466!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d927e880fad765%3A0xd93af40f5d437330!2sVivero%20La%20Central%20de%20El%20Descanso!5e0!3m2!1ses!2smx!4v1681487398628!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero La Central De El Descanso:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 661 688 1515&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero La Central De El Descanso:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero La Central De El Descanso:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es El Descanso, Km 49.05 Carretera Libre Tijuana-Ensenada, El Descanso, 22744 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='https://www.google.com.mx/maps/place/Vivero+La+Central+de+El+Descanso/@32.206466,-116.9101985,17z/data=!3m1!4b1!4m6!3m5!1s0x80d927e880fad765:0xd93af40f5d437330!8m2!3d32.206466!4d-116.9101985!16s%2Fg%2F11gxmgy9w5?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero La Central De El Descanso&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero La Central De El Descanso?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero La Central De El Descanso son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 07:00 a 16:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 07:00 a 16:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles Cerrado&lt;/li&gt;
-                        &lt;li&gt;Jueves de 07:00 a 16:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 07:00 a 16:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 07:00 a 16:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 08:00 a 16:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Te sugerimos siempre revisar sus medios de contacto y redes sociales, incluso si cuentas con los horarios oficiales, para asegurarte de que no haya habido cambios inesperados en el horario o en la logística del lugar&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero La Central De El Descanso&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero La Central De El Descanso  un promedio de 4.8 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 12 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="cascada-de-comala"&gt;&lt;b&gt;#6 Centro Ecoturístico Cascada De Comala&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_de_Comala_78.jpg" alt="Cascada de Comala"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3747.9258989254363!2d-103.9415753!3d20.053546299999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8425bdde84b25927%3A0x92ad59a6afbc03cb!2sCascada%20de%20Comala!5e0!3m2!1ses!2smx!4v1680034506066!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Vamos con el siguiente de esta lista: Cascada De Comala. Si te apasiona el ecoturismo y estas buscando explorar la naturaleza increíble de Jalisco, la verdad es que no puedes perderte Cascada De Comala. Este parque ecoturístico es el sitio ideal para disfrutar paisajes naturales lindos y desconectarte un poco de la urbe. Más de 681 personas lo han evaluado con un promedio de 4.7 estrellas. Aunque hay algunos detallitos que se pueden mejorar, definitivamente es una súper opción si lo que buscas es una experiencia cargada de naturaleza.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Cascada De Comala"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en municipio de, Cómala, Portal guerrero 10, 48640 Chiquilistlán, Jal.
+Para llegar a este sitio, simplemente ingresa la dirección en una app de navegación o síguete este enlace al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Cascada De Comala&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Cascada De Comala?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cascada De Comala son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Cascada De Comala?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Cascada De Comala son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="M2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-el-rincon-de-nena" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero El Rincon De Nena&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.40927674325!2d-117.0487213!3d32.35456459999999!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931e4ca1f15ff%3A0x6d0beeb35735268a!2sVivero%20El%20Rincon%20De%20Nena!5e0!3m2!1ses!2smx!4v1681487288611!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero El Rincon De Nena:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con un teléfono oficial de contacto&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero El Rincon De Nena:&lt;/h3&gt;
-                    &lt;p&gt;&lt;a href="https://www.facebook.com/profile.php?id=100006186975863"&gt;Web de Vivero El Rincon De Nena&lt;/a&gt;&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero El Rincon De Nena:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es C. Tabasco, Huacatay, 22707 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Utiliza la dirección en una herramienta de navegación para llegar directamente, o sigue este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero+El+Rincon+De+Nena/@32.3545646,-117.0487213,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931e4ca1f15ff:0x6d0beeb35735268a!8m2!3d32.3545646!4d-117.0487213!16s%2Fg%2F11h4b7y3_n?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero El Rincon De Nena&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero El Rincon De Nena?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero El Rincon De Nena son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 07:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 07:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 07:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 07:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 07:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 07:00 a 17:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 08:30 a 15:30&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero El Rincon De Nena&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero El Rincon De Nena  un promedio de 4.1 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 14 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="cascada-los-azules-tequila"&gt;&lt;b&gt;#7 Centro Ecoturístico Cascada Los Azules Tequila&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_Los_Azules_Tequila_74.jpg" alt="Cascada Los Azules Tequila"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3727.3432635410354!2d-103.8209851!3d20.898505!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84261607855d3ea7%3A0x3ad506d67937c56a!2sCascada%20Los%20Azules%20Tequila!5e0!3m2!1ses!2smx!4v1680037497994!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Ok... ¿Te gusta el ecoturismo y andas en Jalisco buscando algo de aventura natural no? Entonces agrega ya mismo en tu lista al centro de ecoturismo Cascada Los Azules Tequila. Este es un lugar ideal para encontrarte con la naturaleza y disfrutar de paisajes lindos. Es un centro ecoturístico que ha sido evaluado por más de 620 personas y tiene un promedio de 4.6 estrellas de calificación. Aunque puede que haya algunos detallitos que es posible mejorar, la realidad es que Cascada Los Azules Tequila es un paso obligado para explorar la naturaleza de Jalisco y hacer algo de ecoturismo por acá.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Cascada Los Azules Tequila"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en Tequila, Jal.
+Para llegar a este parque puedes poner colocar la dirección en una herramienta de navegación tipo waze o irte por medio de este enlace &lt;a href='undefined'&gt;Mapa del Centro de Ecoturismo Cascada Los Azules Tequila&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada Los Azules Tequila?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cascada Los Azules Tequila son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Cascada Los Azules Tequila?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="N2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero-rancho-r" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero Rancho R&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3368.7418156907206!2d-117.05305320000001!3d32.399282!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931367e70e6cb%3A0x5bb1822aec489385!2sVivero%20Rancho%20R!5e0!3m2!1ses!2smx!4v1681487283686!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero Rancho R:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 664 501 3201&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero Rancho R:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero Rancho R:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es C. Estatuto Juridico 510, Veracruz, 22705 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='https://www.google.com.mx/maps/place/Vivero+Rancho+R/@32.399282,-117.0530532,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931367e70e6cb:0x5bb1822aec489385!8m2!3d32.399282!4d-117.0530532!16s%2Fg%2F11c6qcnm50?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero Rancho R&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero Rancho R?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero Rancho R son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 09:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 09:00 a 19:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero Rancho R&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero Rancho R  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 4 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="sierra-de-san-juan-cosala"&gt;&lt;b&gt;#8 Sitio Ecoturístico Sierra De San Juan Cosalá&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Sierra_de_San_Juan_Cosala_10.jpg" alt="Sierra de San Juan Cosalá"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3741.2246685411524!2d-103.27789179999999!3d20.332335300000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f445cbfaa281b%3A0x89a266c7a003565e!2sSierra%20de%20San%20Juan%20Cosal%C3%A1!5e0!3m2!1ses!2smx!4v1680037173298!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;El parque de ecoturismo Sierra De San Juan Cosalá el siguiente en esta lista. Este centro ecoturístico es una de las joyas naturales que tiene Jalisco para los aficionados al ecoturismo y la aventura. Se trata de un lugar evaluado en promedio con 4.6 estrellas por al menos 585 personas. No podemos dejar de recomendártelo como un una opción importante para la exploración natural de Tabasco Jalisco. Así que ya sabes, guárdate toda la información logística que vamos a darte a continuación y anímate a visitar este increíble parque ecoturístico cuanto antes.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Sierra De San Juan Cosalá"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en Sin nombre No. 1744 2545, Fidel Velázquez, 44220 Guadalajara, Jal.
+Para llegar al centro manejando puedes poner la dirección en un navegador digital (ej. waze o googleMaps), o irte usando este enlace directo al &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Sierra De San Juan Cosalá&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Sierra De San Juan Cosalá?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Sierra De San Juan Cosalá son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Sierra De San Juan Cosalá?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="O2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="el-jardin-de-sandra" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;El Jardin De Sandra&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.6595761680837!2d-117.0501537!3d32.347847400000006!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d931f4715c1009%3A0x9a3875e940abe52d!2sEl%20jardin%20de%20sandra!5e0!3m2!1ses!2smx!4v1681487296881!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono El Jardin De Sandra:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 661 101 9667&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS El Jardin De Sandra:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección El Jardin De Sandra:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Medano 350, Eduardo Crosthwhite, 22707 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para llegar a este parque puedes poner colocar la dirección en una herramienta de navegación tipo waze o irte por medio de este enlace &lt;a href='https://www.google.com.mx/maps/place/El+jardin+de+sandra/@32.3478474,-117.0501537,17z/data=!3m1!4b1!4m6!3m5!1s0x80d931f4715c1009:0x9a3875e940abe52d!8m2!3d32.3478474!4d-117.0501537!16s%2Fg%2F11k5m6k_bj?authuser=0&amp;hl=es'&gt;Mapa del Vivero El Jardin De Sandra&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto El Jardin De Sandra?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de El Jardin De Sandra son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 10:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Sábado de 12:00 a 19:00&lt;/li&gt;
-                        &lt;li&gt;Domingo de 12:00 a 19:00&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de El Jardin De Sandra&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a El Jardin De Sandra  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 2 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="cascada-de-huaxtla"&gt;&lt;b&gt;#9 Parque de Ecoturismo Cascada De Huaxtla&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_De_Huaxtla_81.jpg" alt="Cascada De Huaxtla"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3726.3992211384416!2d-103.3961775!3d20.936477099999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428a3e053b954a7%3A0x775436aaa7eaa27f!2sCascada%20De%20Huaxtla!5e0!3m2!1ses!2smx!4v1680034519995!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Otra excente opción si andas buscando naturaleza para descansar y salir de lo cotidiano es el parque ecoturístico Cascada De Huaxtla. Acá encontrarás algunos de los paisajes más bonitos y naturales de Jalisco. Este sitio tiene una calificación promedio de 4.5estrellas, y al menos 474 reseñas de visitantes que ya lo han disfrutado. Por esto, es uno de los más concurridos de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza! en Cascada De Huaxtla.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Cascada De Huaxtla"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en Camino a Huaxtla S/n, 45200 Zapopan, Jal.
+Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Cascada De Huaxtla&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Cascada De Huaxtla?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada De Huaxtla son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1398 9937
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/CascadasHuaxtla"&gt;Web de Cascada De Huaxtla&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Cascada De Huaxtla?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Cascada De Huaxtla son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 08:30 a 18:30&lt;/li&gt;
+                            &lt;li&gt;Martes de 08:30 a 18:30&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 08:30 a 18:30&lt;/li&gt;
+                            &lt;li&gt;Jueves de 08:30 a 18:30&lt;/li&gt;
+                            &lt;li&gt;Viernes de 08:30 a 18:30&lt;/li&gt;
+                            &lt;li&gt;Sábado de 08:30 a 18:30&lt;/li&gt;
+                            &lt;li&gt;Domingo de 08:30 a 18:30&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="P2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;h2 class="wp-block-heading has-ast-global-color-4-color has-ast-global-color-3-background-color has-text-color has-background" id="vivero" style="padding-top:12px;padding-right:12px;padding-bottom:12px;padding-left:12px"&gt;&lt;b&gt;Vivero&lt;/b&gt;&lt;/h2&gt;
-            &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt;
-                    &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3370.3629320604923!2d-117.0572119!3d32.35580819999999!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x80d9318e35f760f5%3A0x603abc271f40df60!2sVivero!5e0!3m2!1ses!2smx!4v1681487305576!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                &lt;/div&gt;
-                &lt;div class="wp-block-column" style="margin:10px"&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Teléfono Vivero:&lt;/h3&gt;
-                    &lt;p&gt;El teléfono oficial de este vivero es 661 118 6146&lt;/p&gt;
-                    &lt;h3 style="font-size:20px"&gt;Web/RRSS Vivero:&lt;/h3&gt;
-                    &lt;p&gt;Este vivero no cuenta con web oficial disponible&lt;/p&gt; 
-                    &lt;h3 style="font-size:20px"&gt;Dirección Vivero:&lt;/h3&gt;
-                    &lt;p&gt;La dirección oficial de este vivero es Tecate 178, Lopez Rodriguez, 22710 Rosarito, B.C.&lt;/p&gt;             
-                &lt;/div&gt;
-            &lt;/div&gt;
-                &lt;p&gt;Para encontrar el sitio manejando puedes ingresar la dirección en una app tipo googleMaps o irte a este enlace al &lt;a href='https://www.google.com.mx/maps/place/Vivero/@32.3558082,-117.0572119,17z/data=!3m1!4b1!4m6!3m5!1s0x80d9318e35f760f5:0x603abc271f40df60!8m2!3d32.3558082!4d-117.0572119!16s%2Fg%2F11s1w8kt8q?authuser=0&amp;hl=es'&gt;Mapa del Vivero Vivero&lt;/a&gt;&lt;/p&gt;  
-                &lt;h3&gt;¿En qué horarios está abierto Vivero?&lt;/h3&gt;  
-                &lt;p&gt;Los horarios oficiales encontrados en las referencias oficiales de Vivero son los siguientes:&lt;/p&gt;                       
-                    &lt;ul&gt;
-                        &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
-                        &lt;li&gt;Sábado Cerrado&lt;/li&gt;
-                        &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                    &lt;/ul&gt;
-                    &lt;p&gt;Te recomendamos  igual siempre revisar sus redes sociales y contactos digitales antes de ir, pues aunque este horario es oficial, pueden haber cambios en fechas especiales, épocas vacacionales y demás&lt;/p&gt;
-                &lt;h3&gt;Calificación promedio de Vivero&lt;/h3&gt;
-                &lt;p&gt;Los clientes y visitantes anteriores le han dado a Vivero  un promedio de 5 estrellas (de 5 en total). Esta calificación fué obtenida a partir de analizar aproximadamente 1 reseñas públicas encontradas.&lt;/p&gt;  
-                &lt;hr class="wp-block-separator has-text-color has-ast-global-color-3-color has-alpha-channel-opacity has-ast-global-color-3-background-color has-background is-style-dots" style="margin-top:var(--wp--preset--spacing--50);margin-bottom:var(--wp--preset--spacing--50)"/&gt;                 
-        </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="el-diente"&gt;&lt;b&gt;#10 Sitio Ecoturístico El Diente&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/El_Diente_10.jpg" alt="El Diente"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3730.007618118131!2d-103.39627420000001!3d20.790979699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428a50bd1f9101b%3A0x951ad8c2c8c680b7!2sEl%20Diente!5e0!3m2!1ses!2smx!4v1680034193570!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;El siguiente destino en esta lista es El Diente. Si lo que quieres es encontrar un lugar para conectarte con la naturaleza, el parque ecoturístico El Diente será una de tus mejores apuestas. Este sitio forma parte de esta lista de los mejores parques ecoturísticos de Jalisco gracias al respaldo y opiniones de más de 418 visitantes que le han otorgado una calificación de más de 4.8 estrellas en promedio. Este lugar es sin duda uno de los mejores para disfrutar del entorno natural y paisajes de Jalisco y practicar el ecoturismo y la aventura en la región.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "El Diente"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en Zapopan, Jal.
+Para llegar a este sitio, simplemente ingresa la dirección en una app de navegación o síguete este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico El Diente&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico El Diente?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Natural El Diente son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1600 3356
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico El Diente?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque natural El Diente son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 06:30 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Martes de 06:30 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 06:30 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Jueves de 06:30 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 06:30 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Sábado de 06:30 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Domingo de 06:30 a 17:00&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
+            </v>
       </c>
       <c r="Q2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-    &lt;h2 class="wp-block-heading has-ast-global-color-3-color has-text-color" id="mas-informacion-de-viveros-en-mexico"&gt;Más información de Viveros En México&lt;/h2&gt;
-        &lt;p&gt;Esperamos que esta lista de los mejores viveros rosarito te haya sido útil y te ayude a encontrar el mejor sitio para adquirir tus plantas en esta ciudad. Si quieres conocer más viveros de México, no dudes en visitar nuestras listas de los mejores en diferentes ciudades del país. ¡Hasta pronto!&lt;/p&gt;
-        &lt;p class="has-text-align-center has-ast-global-color-1-background-color has-background"&gt;&lt;strong&gt;Otros artículos sobre viveros que podrían interesarte: &lt;/strong&gt;&lt;/p&gt;
-        &lt;div class="wp-block-columns"&gt;
-            &lt;div class="wp-block-column" style="margin:10px;"&gt;
-                &lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://tierradeplantas.com/que-es-un-vivero/"&gt;&lt;img src="https://tierradeplantas.com/wp-content/uploads/2023/02/QueesunviveroFEATURED.jpg" alt="qué es un vivero" class="wp-image-672"/&gt;&lt;/a&gt;&lt;/figure&gt;
-            &lt;/div&gt;
-            &lt;div class="wp-block-column" style="margin:10px;"&gt;
-                &lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://tierradeplantas.com/viveros/viveros-en-campeche-campeche/"&gt;&lt;img src="https://tierradeplantas.com/wp-content/uploads/2023/02/viveros_en_campeche_FEATURED.jpg" alt="viveros en campeche" class="wp-image-773"/&gt;&lt;/a&gt;&lt;/figure&gt;
-            &lt;/div&gt;
-            &lt;div class="wp-block-column" style="margin:10px;"&gt;
-                &lt;figure class="wp-block-image size-full"&gt;&lt;a href="https://tierradeplantas.com/viveros/viveros-en-xalapa-veracruz/"&gt;&lt;img src="https://tierradeplantas.com/wp-content/uploads/2023/02/viveros_en_xalapa_FEATURED.jpg" alt="viveros en xalapa y coatepec veracruz" class="wp-image-779"/&gt;&lt;/a&gt;&lt;/figure&gt;
-            &lt;/div&gt;    
-        &lt;div&gt;
-    </v>
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="el-tepalo"&gt;&lt;b&gt;#11 Sitio Ecoturístico El Tepalo&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/El_Tepalo_50.jpg" alt="El Tepalo"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3741.8217319491396!2d-103.25673669999999!3d20.307644699999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f46a5c300bea5%3A0x553667a56d72e417!2sEl%20Tepalo!5e0!3m2!1ses!2smx!4v1680034376025!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Entendemos que si estás aquí, es porque quieres conocer más opciones para conectarte con la naturaleza y disfrutarla a tope en Jalisco. Y pues bueno... el centro ecoturístico El Tepalo} puede ser la respuesta que buscabas. Este centro ecoturístico ha sido evaluado por más de 350 personas con un promedio de calificación de  4.8 estrellas, haciéndolo uno de los parques naturales más recomendados de Jalisco. Así que nada.. a pasar del pensamiento a la acción y a poner El Tepalo en tu ruta de ecoturismo ¡pero ya!.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "El Tepalo"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en Ajijic, Jal.
+Para llegar a este lugar, simplemente ingresa la dirección en una app de navegación o utiliza este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico El Tepalo&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico El Tepalo?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico El Tepalo son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico El Tepalo?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico El Tepalo son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Antes de visitar el lugar, es importante revisar sus sitios digitales y redes sociales, así te aseguras de detectar cualquier cambio que hayan tenido de última hora por cuestiones de fechas especiales, vacaciones, temporadas altas, etc&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="R2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="rancho-ecoturistico-agua-dulce-en-bosque-de-la-primavera"&gt;&lt;b&gt;#12 Centro Ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Rancho_Ecoturistico_Agua_Dulce_en_Bosque_de_La_Primavera_1.jpg" alt="Rancho Ecoturístico Agua Dulce en Bosque de La Primavera"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3732.2511189620936!2d-103.61879689999999!3d20.700024899999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84260373d59b4113%3A0xe197a8e8ff36cd7c!2sRancho%20Ecotur%C3%ADstico%20Agua%20Dulce%20en%20Bosque%20de%20La%20Primavera!5e0!3m2!1ses!2smx!4v1680034152587!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;El parque ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera en Jalisco es la siguiente opción en nuestra lista. Una rre buena alternativa para hacer ecoturismo por acá. Con una calificación promedio de 4.5 derivada de reseñas de más de 268 personas, este lugar es considerado uno de los mejores centro de ecoturismo de la región. Es por eso que forma parte de esta lista. Entonces ya sabes... si la naturaleza y la aventura te motivan, no puedes dejar de visitar Rancho Ecoturístico Agua Dulce En Bosque De La Primavera y sumergirte en los paisajes naturales de Jalisco.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Rancho Ecoturístico Agua Dulce En Bosque De La Primavera"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque natural se ubica en Ejido, Emiliano Zapata, 45226 Zapopan, Jal.
+Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2614 4586
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/Rancho-Ecoturistico-Agua-Dulce-1591180471106695/"&gt;Web de Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="S2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="cerro-cuauhtepetl"&gt;&lt;b&gt;#13 Parque de Ecoturismo Cerro Cuauhtépetl&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cerro_Cuauhtepetl_38.jpg" alt="Cerro Cuauhtépetl"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.6110363230982!2d-103.9724141!3d20.603936199999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8426747830f3c727%3A0x2926239f7194ddd3!2sCerro%20Cuauht%C3%A9petl!5e0!3m2!1ses!2smx!4v1680037303356!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Si mueres de curiosidad y ganas de estar en contacto con la naturaleza, entonces tienes que conocer el parque ecoturístico Cerro Cuauhtépetl en Jalisco. Este sitio ha sido evaluado con 4.5 estrellas en promedio por más de 124 personas, lo que lo hace una opción fantástica para tener una aventura natural si estás por esta zona del país. No lo dudes más y simplemente toma nota de sus datos y ¡lánzate a conocer sus paisajes y vive el ecoturismo a tope!. &lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Cerro Cuauhtépetl"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en 54000 Tlalnepantla, Jal.
+Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='undefined'&gt;Mapa del Sitio Ecoturístico Cerro Cuauhtépetl&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro de ecoturismo Cerro Cuauhtépetl?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cerro Cuauhtépetl son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Cerro Cuauhtépetl?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="T2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="bosque-de-arce,-bosque-de-maple"&gt;&lt;b&gt;#14 Parque Natural Bosque De Arce, Bosque De Maple&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Bosque_de_Arce,_Bosque_de_Maple_92.jpg" alt="Bosque de Arce, Bosque de Maple"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3744.11427904691!2d-104.7593902!3d20.2125717!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8424112e2275765d%3A0x4d92a9f00d186c53!2sBosque%20de%20Arce%2C%20Bosque%20de%20Maple!5e0!3m2!1ses!2smx!4v1680034571410!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Bosque De Arce, Bosque De Maple es el siguiente destino ideal para quien busca disfrutar del ecoturismo y la naturaleza en Jalisco. Este lugar cuenta con un promedio de 4.6 estrellas según los 126 visitantes que lo han calificado. En este lugar podrás conocer Jalisco desde una perspectiva diferente, rodeándote de espacios lindos y de opciones para disfrutar la naturaleza. Revisa todos los detalles a continuación y programa tu visita cuanto antes.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Bosque De Arce, Bosque De Maple"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en 48259 Talpa de Allende, Jal.
+Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Bosque De Arce, Bosque De Maple?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Bosque De Arce, Bosque De Maple son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.bosquedearce.org/"&gt;Web de Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Bosque De Arce, Bosque De Maple?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Bosque De Arce, Bosque De Maple son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Es importante revisar en sus redes sociales o contactos digitales antes de ir, incluso si ya tienes los horarios oficiales, para evitar cualquier cambio logístico o de horario de última hora&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="U2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="cascada-el-salto"&gt;&lt;b&gt;#15 Centro Ecoturístico Cascada El Salto&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_El_Salto_87.jpg" alt="Cascada El Salto"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.7334583920215!2d-103.04200189999999!3d19.893473800000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f095b0cbcbff7%3A0x5675ed86994c4006!2sCascada%20El%20Salto!5e0!3m2!1ses!2smx!4v1680034547920!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Si quieres escapar de la rutina y disfrutar de la naturaleza a full, el parque ecoturístico Cascada El Salto -si o sí- es una opción que debe estar en tu lista. Este parque ecoturístico ha sido evaluado por más de 263 visitantes, quienes lo han posicionado como uno de los mejores de Jalisco, (con 4.5 estrellas en promedio). Es por eso que hemos decidido hacerlo parte de esta lista de los mejores, y dejártelo en las recomendaciones si lo que buscas es respirar naturaleza al máximo. &lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Cascada El Salto"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en 49533 Mazamitla, Jal.
+Para encontrar el lugar, símplemente apóyate de una app de navegación (ej. GoogleMaps) ingresando esta dirección, o utiliza este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Cascada El Salto&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada El Salto?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada El Salto son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Cascada El Salto?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Cascada El Salto son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 09:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Martes Cerrado&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 09:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Jueves de 09:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 09:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
+                            &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="V2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="salto-del-nogal"&gt;&lt;b&gt;#16 Centro Ecoturístico Salto Del Nogal&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Salto_del_nogal_44.jpg" alt="Salto del nogal"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3752.414040705661!2d-103.76650194999999!3d19.8647313!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259c8d1b8aeff1%3A0x9f4cae138a2698d2!2sSalto%20del%20nogal!5e0!3m2!1ses!2smx!4v1680037331800!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Otra gran opción para tí, si te gusta estar en contacto con la naturaleza y estás buscando lugares para hacer ecoturismo en Jalisco, es sin duda Salto Del Nogal!. Con un promedio de 4.8 estrellas evaluadas por al menos 100 visitantes, este parque ecoturístico es uno de los favoritos de acá. Así que si ya estás lista(o), prepárate para sumergirte en los paisajes naturales e inolvidables deJalisco y ¡aventúrate a conocer Salto Del Nogal!.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Salto Del Nogal"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este sitio ecoturístico se ubica en no cuenta con dirección
+Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Salto Del Nogal&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Salto Del Nogal?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Salto Del Nogal son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es no cuenta con teléfono
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Salto Del Nogal?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="W2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="valle-de-los-enigmas"&gt;&lt;b&gt;#17 Parque Ecoturístico Valle De Los Enigmas&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Valle_De_Los_Enigmas_24.jpg" alt="Valle De Los Enigmas"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3749.767590603122!2d-103.77727519999999!3d19.976273899999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259b3805d17393%3A0x33ce3fee08bf3706!2sValle%20De%20Los%20Enigmas!5e0!3m2!1ses!2smx!4v1680034257268!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Si se trata de explorar la belleza natural de Jalisco, entonces el sitio ecoturístico Valle De Los Enigmas es lo que llamamos un "must". Este sitio ecoturístico está recomendado por más de 124 opiniones de visitantes que lo han evaluado hasta con 4.8 estrellas. Se trata de uno de los espacios naturales más amenos de la región y una alternativa que no debes dejar de visitar si andas por Jalisco buscando algo de naturaleza.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Valle De Los Enigmas"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque de ecoturismo se ubica en Las Piedrotas, Jal.
+Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Valle De Los Enigmas&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Valle De Los Enigmas?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Valle De Los Enigmas son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2374 4770
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Valle De Los Enigmas?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Valle De Los Enigmas son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Jueves Cerrado&lt;/li&gt;
+                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="X2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="parque-el-tecolote-mazamitla"&gt;&lt;b&gt;#18 Parque de Ecoturismo Parque El Tecolote Mazamitla&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_El_Tecolote_Mazamitla_12.jpg" alt="Parque El Tecolote Mazamitla"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.3010733056253!2d-102.98559209999999!3d19.9117137!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f06265b4584bb%3A0x62569beda3af123c!2sParque%20El%20Tecolote%20Mazamitla!5e0!3m2!1ses!2smx!4v1680034202440!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Con una calificación promedio de 4.5 estrellas y más de 571 opiniones positivas, ¡ Parque El Tecolote Mazamitla en Jalisco es otra de las alternativas infaltables esta lista de mejores centros ecoturísticos!. Si lo tuyo son entornos naturales, no tenemos duda de que este parque te permitirá disfrutar al máximo tu experiencia. Así que no dudes - Parque El Tecolote Mazamitla será una excelente elección para hacer ecoturismo en esta región.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Parque El Tecolote Mazamitla"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este centro ecoturístico se ubica en Terracería Mazamitla - El Tigre Km 6.5 Ejido La estacada - Epenche Chico, 49500 Mazamitla, Jal.
+Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque El Tecolote Mazamitla?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Parque El Tecolote Mazamitla son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2211 0879
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.parquetecolotemazamitla.com.mx/"&gt;Web de Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Parque El Tecolote Mazamitla?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque El Tecolote Mazamitla son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 10:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Martes de 10:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Miércoles Cerrado&lt;/li&gt;
+                            &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 10:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Sábado de 10:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Domingo de 10:00 a 18:00&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;A pesar de que los horarios sean oficiales, es buena idea que antes ir, revises siempre cómo están las cosas en sus redes sociales y contactos digitales, esto te permitirá asegurarte de que no haya cambios de horario o logística antes de tu arribo al lugar&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="Y2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="cascada-santa-cruz"&gt;&lt;b&gt;#19 Centro Ecoturístico Cascada Santa Cruz&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_Santa_Cruz_22.jpg" alt="Cascada Santa Cruz"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3756.0372943335537!2d-103.3503544!3d19.7110363!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f9b49ae29df3d%3A0x1c904fd827efbff!2sCascada%20Santa%20Cruz!5e0!3m2!1ses!2smx!4v1680037227838!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Otro lugar ideal si estás buscando un espacio para conectarte con la naturaleza y disfrutarla a lo más es  Cascada Santa Cruz. Esta es una de las mejores opciones de Jalisco, con más de 90 opiniones positivas de sus visitantes, quienes lo han calificado en promedio como un sitio de 4.7 estrellas. Todo esto lo mantiene como uno de los centros ecoturísticos más concurridos de la región. Entonces ya sabes, si andas por Jalisco, aprovecha la oportunidad y organízate para visitar Cascada Santa Cruz.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Cascada Santa Cruz"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este sitio ecoturístico se ubica en 49656 Tamazula de Gordiano, Jal.
+Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='undefined'&gt;Mapa del Sitio Ecoturístico Cascada Santa Cruz&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada Santa Cruz?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada Santa Cruz son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Cascada Santa Cruz?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del sitio ecoturístico Cascada Santa Cruz son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;A pesar de que los horarios estén oficialmente vigentes, siempre está bien mirar en sus sitios de contacto y redes antes de visitarlos, por cualquier cambio extraordinario que pudieran tener, ambios por temporadas vacacionales, festivos, etc.&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="Z2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="parque-ecologico-las-penas"&gt;&lt;b&gt;#20 Parque Ecoturístico Parque Ecológico Las Peñas&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Ecologico_Las_Penas_30.jpg" alt="Parque Ecológico Las Peñas"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3756.311056395434!2d-103.44668779999999!3d19.6993768!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f841f76685b6b%3A0xcb531015417a0f04!2sParque%20Ecol%C3%B3gico%20Las%20Pe%C3%B1as!5e0!3m2!1ses!2smx!4v1680034284776!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Si te apasiona la naturaleza y andas en busca de aventuras ¡pues no se diga más! porque sin duda el centro ecoturístico Parque Ecológico Las Peñas es otra de las alternativas en Jalisco que no debes dejar pasar. Este parque ecoturístico tiene una calificación promedio de 4.7 estrellas, gracias a que al menos 2185 personas distintas lo han evaluado de este modo... motivo por el que forma parte de este rank de los mejores. Así es que... siendo uno de los centros de ecoturismo mejores calificados en Jalisco ¿qué esperas para visitarlo?&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Parque Ecológico Las Peñas"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en C. Marcos Gordoa 477, Las Peñas, Cd Guzman, Jal.
+Para encontrar el sitio manejando puedes ingresar la dirección en una app tipo googleMaps o irte a este enlace al &lt;a href='undefined'&gt;Mapa del Parque Natural Parque Ecológico Las Peñas&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Parque Ecológico Las Peñas?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Parque Ecológico Las Peñas son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 341 575 2500
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.ciudadguzman.gob.mx/Pagina.aspx?id=8a094b55-ec5e-4e56-8c7b-0b73460caa13"&gt;Web de Parque Ecológico Las Peñas&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Parque Ecológico Las Peñas?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Ecológico Las Peñas son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 07:00 a 19:00&lt;/li&gt;
+                            &lt;li&gt;Martes de 07:00 a 19:00&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 07:00 a 19:00&lt;/li&gt;
+                            &lt;li&gt;Jueves de 07:00 a 19:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 07:00 a 19:00&lt;/li&gt;
+                            &lt;li&gt;Sábado de 07:00 a 19:00&lt;/li&gt;
+                            &lt;li&gt;Domingo de 07:00 a 19:00&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Aunque los horarios oficiales estén disponibles, es recomendable siempre verificar sus sitios de contacto y redes sociales antes de visitar el lugar, por cualquier cambio extraordinario que pudieran haber tenido&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="AA2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="puente-de-arcediano"&gt;&lt;b&gt;#21 Parque de Ecoturismo Puente De Arcediano&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Puente_de_Arcediano_70.jpg" alt="Puente de Arcediano"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3731.2427604291765!2d-103.2949252!3d20.740952399999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428b094a6b90599%3A0x2957e091bba749ec!2sPuente%20de%20Arcediano!5e0!3m2!1ses!2smx!4v1680037477048!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Si andas en búsca de experiencias únicas en la naturaleza, entonces el centro de ecoturismo Puente De Arcediano en Jalisco tiene que ser también parte de tu lista. Este es un parque ecoturístico con más de 1964 opiniones de visitantes y que ha sido de manera consistente calificado con hasta 4.8 estrellas, es por eso que aunque pueda tener algunas áreas de mejora, es uno de los mejores lugares para disfrutar de la naturaleza de este estado. Así que no lo pienses mucho más y ¡a visitar Puente De Arcediano!&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Puente De Arcediano"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en Guadalajara, Jal.
+Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Puente De Arcediano&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Puente De Arcediano?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Puente De Arcediano son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Puente De Arcediano?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del parque ecológico Puente De Arcediano son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 06:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Martes de 06:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 06:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Jueves de 06:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Viernes de 06:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Sábado de 06:00 a 18:00&lt;/li&gt;
+                            &lt;li&gt;Domingo de 06:00 a 18:00&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Es importante verificar sus redes sociales o contactos digitales antes de ir, porque independientemente de estos horarios oficiales, siempre pueden existir cambios de último momento por situaciones extraordinarias de clima, temporada vacacional y demás&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="AB2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="ekopark-tapalpa"&gt;&lt;b&gt;#22 Parque de Ecoturismo Ekopark Tapalpa&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Ekopark_Tapalpa_43.jpg" alt="Ekopark Tapalpa"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.325905571427!2d-103.82067909999999!3d19.9106666!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259bdf45267167%3A0x3ee6ce2ad3377dd7!2sEkopark%20Tapalpa!5e0!3m2!1ses!2smx!4v1680034344043!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Nuestra siguiente gran opción para quienes disfrutan de los paisajes naturales es el parque de ecoturismo Ekopark Tapalpa en Jalisco. Con más de 417 opiniones de visitantes y una calificación promedio de 4.5 estrellas, este lugar es uno de los más valorados en la región, así que toma nota de sus datos a continuación y programa tu visita ¡pero ya!.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Ekopark Tapalpa"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en Camino a San Gabriel Km. 6.5, 49340 Tapalpa, Jal.
+Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='undefined'&gt;Mapa del Centro de Ecoturismo Ekopark Tapalpa&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Ekopark Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Ekopark Tapalpa son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 3813 5907
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.ekopark.com.mx/"&gt;Web de Ekopark Tapalpa&lt;/a&gt;&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Ekopark Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Ekopark Tapalpa son los siguientes:&lt;/p&gt;                       
+                        &lt;ul&gt;
+                            &lt;li&gt;Lunes de 10:30 a 17:30&lt;/li&gt;
+                            &lt;li&gt;Martes de 10:30 a 17:30&lt;/li&gt;
+                            &lt;li&gt;Miércoles de 10:30 a 17:30&lt;/li&gt;
+                            &lt;li&gt;Jueves de 10:30 a 17:30&lt;/li&gt;
+                            &lt;li&gt;Viernes de 10:30 a 17:30&lt;/li&gt;
+                            &lt;li&gt;Sábado de 10:30 a 17:30&lt;/li&gt;
+                            &lt;li&gt;Domingo de 10:30 a 17:30&lt;/li&gt;
+                        &lt;/ul&gt;
+                        &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="AC2" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+            &lt;!-- /wp:separator --&gt;
+            &lt;h2 id="piedras-bola"&gt;&lt;b&gt;#23 Centro Ecoturístico Piedras Bola&lt;/b&gt;&lt;/h2&gt;
+                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;
+                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Piedras_Bola_62.jpg" alt="Piedras Bola"/&gt;&lt;/figure&gt; 
+                    &lt;/div&gt;
+                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
+                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.4346558331736!2d-104.0579168!3d20.6518883!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842670fee733ff31%3A0x8a463530201a51bf!2sPiedras%20Bola!5e0!3m2!1ses!2smx!4v1680034432113!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;                
+                &lt;p&gt;Piedras Bola es nuestra siguiente recomendación. Se trata de uno de los sitios naturales más lindos que Jalisco tiene para ofrecer. Está respaldado por la aprobación de más de 118 opiniones que en promedio le han otorgado 4.5 estrellas, haciéndolo un favorito por acá, y volviéndolo una parada obligada en esta lista de los mejores centro ecoturístico de Jalisco.&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Piedras Bola"? &lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Este parque ecoturístico se ubica en Ameca, Jal.
+Para ir a este parque, simplemente basta con colocar la dirección en una app de navegación o siguiendo este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Piedras Bola&lt;/a&gt;&lt;/p&gt;
+                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Piedras Bola?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Piedras Bola son: &lt;/p&gt;
+                    &lt;ul&gt;
+                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                        &lt;/li&gt;                                              
+                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                    &lt;/ul&gt;
+                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Piedras Bola?&lt;/b&gt;&lt;/h3&gt;
+                    &lt;div&gt;
+                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+ &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
+            </v>
+      </c>
+      <c r="AD2" t="str">
+        <v>parques-ecoturisticos-jalisco</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AD2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -827,113 +1407,267 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNnZiHFW_e5Aj1F3jH9v3uc_UPTO9bF5SEZTZB3=w408-h541-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP65Jq6pL7kHV7opdk0DgleAJlRVqauV0Mmrug0=w408-h306-k-no</v>
       </c>
       <c r="B2" t="str">
-        <v>ren "AF1QipNnZiHFW_e5Aj1F3jH9v3uc_UPTO9bF5SEZTZB3=w408-h541-k-no" "Vivero_El_Mayorista_3.jpg"</v>
+        <v>ren "AF1QipP65Jq6pL7kHV7opdk0DgleAJlRVqauV0Mmrug0=w408-h306-k-no" "Parque_Nacional_Volcan_Nevado_de_Colima_109.jpg"</v>
       </c>
       <c r="C2" t="str">
-        <v>ren "1.jpg" "Vivero_El_Mayorista_3.jpg"</v>
+        <v>ren "1.jpg" "Parque_Nacional_Volcan_Nevado_de_Colima_109.jpg"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOegc8DzW6jm-rRq-XdHx2PadlCELPgpGXr0Vfn=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP7ZAVQr7dKxya7aaePeAS9FdO2JTXqBpMF8ytR=w408-h306-k-no</v>
       </c>
       <c r="B3" t="str">
-        <v>ren "AF1QipOegc8DzW6jm-rRq-XdHx2PadlCELPgpGXr0Vfn=w408-h306-k-no" "Vivero_Ceiba_"Yaxche"_12.jpg"</v>
+        <v>ren "AF1QipP7ZAVQr7dKxya7aaePeAS9FdO2JTXqBpMF8ytR=w408-h306-k-no" "Cascada_el_Salto_del_Nogal,_Tapalpa_60.jpg"</v>
       </c>
       <c r="C3" t="str">
-        <v>ren "2.jpg" "Vivero_Ceiba_"Yaxche"_12.jpg"</v>
+        <v>ren "2.jpg" "Cascada_el_Salto_del_Nogal,_Tapalpa_60.jpg"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPbLUYIn4tUIBYTCocC9YiGugPmdNqXw3HQzLOg=w408-h408-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOUfgTtNjSfSqPS1Gf_mTgxd8Udt7TRTI1UWgVr=w408-h306-k-no</v>
       </c>
       <c r="B4" t="str">
-        <v>ren "AF1QipPbLUYIn4tUIBYTCocC9YiGugPmdNqXw3HQzLOg=w408-h408-k-no" "Vivero_Playas_de_Rosarito_Zona_Centro_0.jpg"</v>
+        <v>ren "AF1QipOUfgTtNjSfSqPS1Gf_mTgxd8Udt7TRTI1UWgVr=w408-h306-k-no" "Sierra_de_Quila_89.jpg"</v>
       </c>
       <c r="C4" t="str">
-        <v>ren "3.jpg" "Vivero_Playas_de_Rosarito_Zona_Centro_0.jpg"</v>
+        <v>ren "3.jpg" "Sierra_de_Quila_89.jpg"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM-LO2xg27zwZu7Mp5TAd-Ih0oq1I3042oksWA=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP32WNhuH_Wp-lH31y87R5IBN24wOWcu31G1-9k=w408-h543-k-no</v>
       </c>
       <c r="B5" t="str">
-        <v>ren "AF1QipM-LO2xg27zwZu7Mp5TAd-Ih0oq1I3042oksWA=w408-h544-k-no" "Vivero_Luz_Y_Sombra_22.jpg"</v>
+        <v>ren "AF1QipP32WNhuH_Wp-lH31y87R5IBN24wOWcu31G1-9k=w408-h543-k-no" "Parque_Ecologico_Huilotan_16.jpg"</v>
       </c>
       <c r="C5" t="str">
-        <v>ren "4.jpg" "Vivero_Luz_Y_Sombra_22.jpg"</v>
+        <v>ren "4.jpg" "Parque_Ecologico_Huilotan_16.jpg"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP-XqgDlXoJlDvy2dyoQPvQqlLzXObrFcrErZiH=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMATcIm-meyIvySLSRha0H4lsJtrL7vlMNLoPpb=w425-h240-k-no</v>
       </c>
       <c r="B6" t="str">
-        <v>ren "AF1QipP-XqgDlXoJlDvy2dyoQPvQqlLzXObrFcrErZiH=w408-h544-k-no" "Vivero_La_Central_de_El_Descanso_27.jpg"</v>
+        <v>ren "AF1QipMATcIm-meyIvySLSRha0H4lsJtrL7vlMNLoPpb=w425-h240-k-no" "Parque_Natural_Los_Frailes_40.jpg"</v>
       </c>
       <c r="C6" t="str">
-        <v>ren "5.jpg" "Vivero_La_Central_de_El_Descanso_27.jpg"</v>
+        <v>ren "5.jpg" "Parque_Natural_Los_Frailes_40.jpg"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMfp_WWZaaBL_MV-jmBrNrtDazEdBAA-OIzeETJ=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPeR_Ns8W9E4oTAvJXxreU0xJ4ouccQSZgoRjNS=w408-h544-k-no</v>
       </c>
       <c r="B7" t="str">
-        <v>ren "AF1QipMfp_WWZaaBL_MV-jmBrNrtDazEdBAA-OIzeETJ=w408-h544-k-no" "Vivero_El_Rincon_De_Nena_2.jpg"</v>
+        <v>ren "AF1QipPeR_Ns8W9E4oTAvJXxreU0xJ4ouccQSZgoRjNS=w408-h544-k-no" "Cascada_de_Comala_78.jpg"</v>
       </c>
       <c r="C7" t="str">
-        <v>ren "6.jpg" "Vivero_El_Rincon_De_Nena_2.jpg"</v>
+        <v>ren "6.jpg" "Cascada_de_Comala_78.jpg"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNwLdiuW9pb6R9RI3c6GRNcF5A2n50fKd5VKTuH=w426-h240-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM-NY1vQo8qn-NQM5cJG7Po52a5_OOgixaoJfSf=w408-h544-k-no</v>
       </c>
       <c r="B8" t="str">
-        <v>ren "AF1QipNwLdiuW9pb6R9RI3c6GRNcF5A2n50fKd5VKTuH=w426-h240-k-no" "Vivero_Rancho_R_1.jpg"</v>
+        <v>ren "AF1QipM-NY1vQo8qn-NQM5cJG7Po52a5_OOgixaoJfSf=w408-h544-k-no" "Cascada_Los_Azules_Tequila_74.jpg"</v>
       </c>
       <c r="C8" t="str">
-        <v>ren "7.jpg" "Vivero_Rancho_R_1.jpg"</v>
+        <v>ren "7.jpg" "Cascada_Los_Azules_Tequila_74.jpg"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPJ_QFF30sb4g5QkKXunkYVsaa_5zDve6v9Zo87=w408-h544-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOUv4cOvglEzecvLucnbjLlO5rtiCTDPVdu6HzN=w408-h306-k-no</v>
       </c>
       <c r="B9" t="str">
-        <v>ren "AF1QipPJ_QFF30sb4g5QkKXunkYVsaa_5zDve6v9Zo87=w408-h544-k-no" "El_jardin_de_sandra_4.jpg"</v>
+        <v>ren "AF1QipOUv4cOvglEzecvLucnbjLlO5rtiCTDPVdu6HzN=w408-h306-k-no" "Sierra_de_San_Juan_Cosala_10.jpg"</v>
       </c>
       <c r="C9" t="str">
-        <v>ren "8.jpg" "El_jardin_de_sandra_4.jpg"</v>
+        <v>ren "8.jpg" "Sierra_de_San_Juan_Cosala_10.jpg"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipP1qj31fuu-6VSywK17V5lhXBlChVI7t6vXh4Z_=w408-h306-k-no</v>
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOy8s0BQb-wDhEVesVzgv4CWEgXXH7MRplAQ_60=w408-h331-k-no</v>
       </c>
       <c r="B10" t="str">
-        <v>ren "AF1QipP1qj31fuu-6VSywK17V5lhXBlChVI7t6vXh4Z_=w408-h306-k-no" "Vivero_6.jpg"</v>
+        <v>ren "AF1QipOy8s0BQb-wDhEVesVzgv4CWEgXXH7MRplAQ_60=w408-h331-k-no" "Cascada_De_Huaxtla_81.jpg"</v>
       </c>
       <c r="C10" t="str">
-        <v>ren "9.jpg" "Vivero_6.jpg"</v>
+        <v>ren "9.jpg" "Cascada_De_Huaxtla_81.jpg"</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipOnFpr7Wbg-wTiadDy8H6mX5GWRFzUNW_BBD48i=w408-h544-k-no</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ren "AF1QipOnFpr7Wbg-wTiadDy8H6mX5GWRFzUNW_BBD48i=w408-h544-k-no" "El_Diente_10.jpg"</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ren "10.jpg" "El_Diente_10.jpg"</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMBLMMYftIeatzVBMjgzmj1lAC9KK1SvpSLMFxf=w408-h544-k-no</v>
+      </c>
+      <c r="B12" t="str">
+        <v>ren "AF1QipMBLMMYftIeatzVBMjgzmj1lAC9KK1SvpSLMFxf=w408-h544-k-no" "El_Tepalo_50.jpg"</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ren "11.jpg" "El_Tepalo_50.jpg"</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNQuK7HKyH4ABW5ofHDNysVzzimogsFHe9xsMtN=w408-h306-k-no</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ren "AF1QipNQuK7HKyH4ABW5ofHDNysVzzimogsFHe9xsMtN=w408-h306-k-no" "Rancho_Ecoturistico_Agua_Dulce_en_Bosque_de_La_Primavera_1.jpg"</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ren "12.jpg" "Rancho_Ecoturistico_Agua_Dulce_en_Bosque_de_La_Primavera_1.jpg"</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMl5tUDpKNoqWcixCGjJnx3-_etWRpCn42uuhFP=w408-h306-k-no</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ren "AF1QipMl5tUDpKNoqWcixCGjJnx3-_etWRpCn42uuhFP=w408-h306-k-no" "Cerro_Cuauhtepetl_38.jpg"</v>
+      </c>
+      <c r="C14" t="str">
+        <v>ren "13.jpg" "Cerro_Cuauhtepetl_38.jpg"</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPJmC1Aq0XkExGVWewzvwlZ3__eDSR8WIyUuw4_=w408-h306-k-no</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ren "AF1QipPJmC1Aq0XkExGVWewzvwlZ3__eDSR8WIyUuw4_=w408-h306-k-no" "Bosque_de_Arce,_Bosque_de_Maple_92.jpg"</v>
+      </c>
+      <c r="C15" t="str">
+        <v>ren "14.jpg" "Bosque_de_Arce,_Bosque_de_Maple_92.jpg"</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMC-PZjp31JBNK-CqgHZM_nTbXlROf9mz7yOrfx=w408-h499-k-no</v>
+      </c>
+      <c r="B16" t="str">
+        <v>ren "AF1QipMC-PZjp31JBNK-CqgHZM_nTbXlROf9mz7yOrfx=w408-h499-k-no" "Cascada_El_Salto_87.jpg"</v>
+      </c>
+      <c r="C16" t="str">
+        <v>ren "15.jpg" "Cascada_El_Salto_87.jpg"</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM9yILvTQ0W8h-FNQWerVOSTmoQ84NEuXlrIupz=w408-h544-k-no</v>
+      </c>
+      <c r="B17" t="str">
+        <v>ren "AF1QipM9yILvTQ0W8h-FNQWerVOSTmoQ84NEuXlrIupz=w408-h544-k-no" "Salto_del_nogal_44.jpg"</v>
+      </c>
+      <c r="C17" t="str">
+        <v>ren "16.jpg" "Salto_del_nogal_44.jpg"</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMKQhAykE2TDDjYngHw8ThmA3AyaCgEiFpoQywt=w408-h306-k-no</v>
+      </c>
+      <c r="B18" t="str">
+        <v>ren "AF1QipMKQhAykE2TDDjYngHw8ThmA3AyaCgEiFpoQywt=w408-h306-k-no" "Valle_De_Los_Enigmas_24.jpg"</v>
+      </c>
+      <c r="C18" t="str">
+        <v>ren "17.jpg" "Valle_De_Los_Enigmas_24.jpg"</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPBffb4wRky0Lq3UFTVE_ksobkLO5ZXpbzVjdEc=w408-h306-k-no</v>
+      </c>
+      <c r="B19" t="str">
+        <v>ren "AF1QipPBffb4wRky0Lq3UFTVE_ksobkLO5ZXpbzVjdEc=w408-h306-k-no" "Parque_El_Tecolote_Mazamitla_12.jpg"</v>
+      </c>
+      <c r="C19" t="str">
+        <v>ren "18.jpg" "Parque_El_Tecolote_Mazamitla_12.jpg"</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipO0va0moRhV98nHrGPM_rxgeg14PBfGFQxTKA5Q=w408-h306-k-no</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ren "AF1QipO0va0moRhV98nHrGPM_rxgeg14PBfGFQxTKA5Q=w408-h306-k-no" "Cascada_Santa_Cruz_22.jpg"</v>
+      </c>
+      <c r="C20" t="str">
+        <v>ren "19.jpg" "Cascada_Santa_Cruz_22.jpg"</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipPpVssek5BwbxVQaId0W8EvOF4vr_QfuOjkAEFh=w451-h240-k-no</v>
+      </c>
+      <c r="B21" t="str">
+        <v>ren "AF1QipPpVssek5BwbxVQaId0W8EvOF4vr_QfuOjkAEFh=w451-h240-k-no" "Parque_Ecologico_Las_Penas_30.jpg"</v>
+      </c>
+      <c r="C21" t="str">
+        <v>ren "20.jpg" "Parque_Ecologico_Las_Penas_30.jpg"</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipM5CroBsYWumTshUBo0CUssCR-PBA93PiIYvlVt=w408-h306-k-no</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ren "AF1QipM5CroBsYWumTshUBo0CUssCR-PBA93PiIYvlVt=w408-h306-k-no" "Puente_de_Arcediano_70.jpg"</v>
+      </c>
+      <c r="C22" t="str">
+        <v>ren "21.jpg" "Puente_de_Arcediano_70.jpg"</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipMBXF3y5h34bJ1jzYw_i6Rv6jxqnLtSSsbQMBlI=w426-h240-k-no</v>
+      </c>
+      <c r="B23" t="str">
+        <v>ren "AF1QipMBXF3y5h34bJ1jzYw_i6Rv6jxqnLtSSsbQMBlI=w426-h240-k-no" "Ekopark_Tapalpa_43.jpg"</v>
+      </c>
+      <c r="C23" t="str">
+        <v>ren "22.jpg" "Ekopark_Tapalpa_43.jpg"</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>wget --no-check-certificate https://lh5.googleusercontent.com/p/AF1QipNmVwSp5-HKLJtnddIagFe5Ohm4QPWM5MdiqcbH=w408-h306-k-no</v>
+      </c>
+      <c r="B24" t="str">
+        <v>ren "AF1QipNmVwSp5-HKLJtnddIagFe5Ohm4QPWM5MdiqcbH=w408-h306-k-no" "Piedras_Bola_62.jpg"</v>
+      </c>
+      <c r="C24" t="str">
+        <v>ren "23.jpg" "Piedras_Bola_62.jpg"</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C24"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -951,106 +1685,260 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Vivero El Mayorista</v>
+        <v>Parque Nacional Volcán Nevado De Colima</v>
       </c>
       <c r="B2" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C2" t="str">
-        <v>Vivero_El_Mayorista_3.jpg</v>
+        <v>Parque_Nacional_Volcan_Nevado_de_Colima_109.jpg</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Vivero Ceiba "yaxché"</v>
+        <v>Cascada El Salto Del Nogal, Tapalpa</v>
       </c>
       <c r="B3" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C3" t="str">
-        <v>Vivero_Ceiba_"Yaxche"_12.jpg</v>
+        <v>Cascada_el_Salto_del_Nogal,_Tapalpa_60.jpg</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Vivero Playas De Rosarito Zona Centro</v>
+        <v>Sierra De Quila</v>
       </c>
       <c r="B4" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C4" t="str">
-        <v>Vivero_Playas_de_Rosarito_Zona_Centro_0.jpg</v>
+        <v>Sierra_de_Quila_89.jpg</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Vivero Luz Y Sombra</v>
+        <v>Parque Ecológico Huilotán</v>
       </c>
       <c r="B5" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C5" t="str">
-        <v>Vivero_Luz_Y_Sombra_22.jpg</v>
+        <v>Parque_Ecologico_Huilotan_16.jpg</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Vivero La Central De El Descanso</v>
+        <v>Parque Natural Los Frailes</v>
       </c>
       <c r="B6" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C6" t="str">
-        <v>Vivero_La_Central_de_El_Descanso_27.jpg</v>
+        <v>Parque_Natural_Los_Frailes_40.jpg</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Vivero El Rincon De Nena</v>
+        <v>Cascada De Comala</v>
       </c>
       <c r="B7" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C7" t="str">
-        <v>Vivero_El_Rincon_De_Nena_2.jpg</v>
+        <v>Cascada_de_Comala_78.jpg</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Vivero Rancho R</v>
+        <v>Cascada Los Azules Tequila</v>
       </c>
       <c r="B8" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C8" t="str">
-        <v>Vivero_Rancho_R_1.jpg</v>
+        <v>Cascada_Los_Azules_Tequila_74.jpg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>El Jardin De Sandra</v>
+        <v>Sierra De San Juan Cosalá</v>
       </c>
       <c r="B9" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C9" t="str">
-        <v>El_jardin_de_sandra_4.jpg</v>
+        <v>Sierra_de_San_Juan_Cosala_10.jpg</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Vivero</v>
+        <v>Cascada De Huaxtla</v>
       </c>
       <c r="B10" t="str">
-        <v>baja-california-norte</v>
+        <v>Jalisco</v>
       </c>
       <c r="C10" t="str">
-        <v>Vivero_6.jpg</v>
+        <v>Cascada_De_Huaxtla_81.jpg</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>El Diente</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C11" t="str">
+        <v>El_Diente_10.jpg</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>El Tepalo</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C12" t="str">
+        <v>El_Tepalo_50.jpg</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Rancho Ecoturístico Agua Dulce En Bosque De La Primavera</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Rancho_Ecoturistico_Agua_Dulce_en_Bosque_de_La_Primavera_1.jpg</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Cerro Cuauhtépetl</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Cerro_Cuauhtepetl_38.jpg</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Bosque De Arce, Bosque De Maple</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Bosque_de_Arce,_Bosque_de_Maple_92.jpg</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Cascada El Salto</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Cascada_El_Salto_87.jpg</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Salto Del Nogal</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Salto_del_nogal_44.jpg</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Valle De Los Enigmas</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Valle_De_Los_Enigmas_24.jpg</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Parque El Tecolote Mazamitla</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Parque_El_Tecolote_Mazamitla_12.jpg</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Cascada Santa Cruz</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Cascada_Santa_Cruz_22.jpg</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Parque Ecológico Las Peñas</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Parque_Ecologico_Las_Penas_30.jpg</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Puente De Arcediano</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Puente_de_Arcediano_70.jpg</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Ekopark Tapalpa</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Ekopark_Tapalpa_43.jpg</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Piedras Bola</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Jalisco</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Piedras_Bola_62.jpg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/blogPostReady.xlsx
+++ b/blogPostReady.xlsx
@@ -507,874 +507,943 @@
         <v>Parques Ecoturísticos en Jalisco: 15 Lugares Increibles para hacer Ecoturismo en Jalisco y sus alrededores.</v>
       </c>
       <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">¿Listo para una aventura de ecoturismo sin igual en Jalisco? ¡pues aterrizaste en el lugar adecuado!. Hoy te vamos a ayudar a identificar los mejores parques ecoturísticos en Jalisco, para que no te queden dudas ni pretextos para no salir a la naturaleza estos días. 
- Esta lista fué preparada haciendo una clasificación detallada de los sitios ecoturísticos con mejor calificación en redes sociales, medios digitales y testimonios oficiales de visitantes previos. Además de incluir las calificaciones oficiales que han recibido, incluye también las vías de contacto oficial de cada sitio, horarios vigentes y liga a mapas y detalles logísticos para llegar de manera segura a cada uno de ellos. 
- Asi es que nada... toma nota y empieza a preparar tu visita, estamos seguras(os) de que luego de echar un ojo a esta lista, vas a querer salir a conocer estos sitios ecoturísticos ¡desde ya!.</v>
+        <v xml:space="preserve">¿Estás en Jalisco y estás list@ para una aventura de ecoturismo a tope? ¡Pues hoy te tenemos cubierto/a!. Nuestro equipo  ha seleccionado los mejores centros de ecoturismo en Jalisco para que no te falten opciones de naturaleza durante tu estancia por esta región.  
+ Esta lista fué realizada en función de la satisfacción de sus visitantes previos, y la calidad y tipos de experiencia que ofrece cada lugar. 
+ Además de la lista, te compartiremos también detalles de cómo llegar a este lugar, sus horarios oficiales y vías de contacto. Así que ¡Prepárate para sumergirte en la naturaleza con nuestra lista de los parques ecoturísticos más destacados de Jalisco!</v>
       </c>
       <c r="E2" t="str">
         <v>&lt;H2&gt;Los Mejores Parques Ecoturísticos en Jalisco&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;a href='#parque-nacional-volcan-nevado-de-colima'&gt;Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-el-salto-del-nogal,-tapalpa'&gt;Cascada El Salto Del Nogal, Tapalpa&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#sierra-de-quila'&gt;Sierra De Quila&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-ecologico-huilotan'&gt;Parque Ecológico Huilotán&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-natural-los-frailes'&gt;Parque Natural Los Frailes&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-de-comala'&gt;Cascada De Comala&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-los-azules-tequila'&gt;Cascada Los Azules Tequila&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#sierra-de-san-juan-cosala'&gt;Sierra De San Juan Cosalá&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-de-huaxtla'&gt;Cascada De Huaxtla&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#el-diente'&gt;El Diente&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#el-tepalo'&gt;El Tepalo&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#rancho-ecoturistico-agua-dulce-en-bosque-de-la-primavera'&gt;Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cerro-cuauhtepetl'&gt;Cerro Cuauhtépetl&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#bosque-de-arce,-bosque-de-maple'&gt;Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-el-salto'&gt;Cascada El Salto&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#salto-del-nogal'&gt;Salto Del Nogal&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#valle-de-los-enigmas'&gt;Valle De Los Enigmas&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-el-tecolote-mazamitla'&gt;Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#cascada-santa-cruz'&gt;Cascada Santa Cruz&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#parque-ecologico-las-penas'&gt;Parque Ecológico Las Peñas&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#puente-de-arcediano'&gt;Puente De Arcediano&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#ekopark-tapalpa'&gt;Ekopark Tapalpa&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href='#piedras-bola'&gt;Piedras Bola&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</v>
       </c>
       <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-        &lt;p class="has-background" style="background-color:#af6bb054;font-size:15px"&gt;OJO: Hemos excluido de esta lista a los desarrollos ecoturísticos exclusivamente recreativos (ej. balnearios) que no cuentan con al menos un componente educativo ambiental o cultural (por ej. la posibilidad de contratar un guía local para conocer más sobre el entorno o sus activos naturales y culturales).&lt;/p&gt;
-        </v>
+            &lt;p class="has-background" style="background-color:#af6bb054;font-size:15px"&gt;OJO: Hemos excluido de esta lista a los desarrollos ecoturísticos exclusivamente recreativos (ej. balnearios) que no cuentan con al menos un componente educativo ambiental o cultural (por ej. la posibilidad de contratar un guía local para conocer más sobre el entorno o sus activos naturales y culturales).&lt;/p&gt;
+            </v>
       </c>
       <c r="G2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="parque-nacional-volcan-nevado-de-colima"&gt;&lt;b&gt;#1 Parque Ecoturístico Parque Nacional Volcán Nevado De Colima&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Nacional_Volcan_Nevado_de_Colima_109.jpg" alt="Parque Nacional Volcán Nevado de Colima"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3759.2590836066643!2d-103.62758939999999!3d19.573398!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84256378913a02e1%3A0xd95a577754dc562c!2sParque%20Nacional%20Volc%C3%A1n%20Nevado%20de%20Colima!5e0!3m2!1ses!2smx!4v1680034650393!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Siguiendo con esta lista, ahora pasamos a Parque Nacional Volcán Nevado De Colima. Y es que si eres de quienes ama estar en contacto con la naturaleza y andas por Jalisco, entonces tienes que considerar la experiencia de visitar el parque natural Parque Nacional Volcán Nevado De Colima. Con una calificación promedio de 4.8 estrellas a partir de reviews de más de 955 presonas, no tenemos duda de es también una gran opcíon. Así que toma nota de todos sus datos y prográmate para sumergirte en los paisajes naturales de Jalisco y vive el ecoturismo que te ofrece Parque Nacional Volcán Nevado De Colima.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Parque Nacional Volcán Nevado De Colima"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en México 54D 16, Usmajac, Jal.
-Con esta dirección y una app de navegación tipo Waze o GoogleMaps es muy sencillo llegar. Pudes hacerlo directo o ayudándote de este link al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque Nacional Volcán Nevado De Colima?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Parque Nacional Volcán Nevado De Colima son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 341 412 2025
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.nevadodecolima.mx/"&gt;Web de Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Parque Nacional Volcán Nevado De Colima?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Parque Nacional Volcán Nevado De Colima son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Antes de visitar el lugar, es una buena idea verificar sus sitios de contacto digitales y redes sociales, aún si ya cuentas con los horarios oficiales, para evitar cualquier cambio inesperado o sorpresas ya que estés ahí (por ej. cambio por días feriados)&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="parque-nacional-volcan-nevado-de-colima"&gt;&lt;b&gt;#1 Parque Ecoturístico Parque Nacional Volcán Nevado De Colima&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Nacional_Volcan_Nevado_de_Colima_109.jpg" alt="Parque Nacional Volcán Nevado de Colima"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3759.2590836066643!2d-103.62758939999999!3d19.573398!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84256378913a02e1%3A0xd95a577754dc562c!2sParque%20Nacional%20Volc%C3%A1n%20Nevado%20de%20Colima!5e0!3m2!1ses!2smx!4v1680034650393!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Dari Desbesel-nov 2019, Título: "Parque Nacional Volcán Nevado de Colima"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Otro de los sitios naturales más memorables de Jalisco es sin duda alguna el centro ecoturístico Parque Nacional Volcán Nevado De Colima. Este lugar está respaldado por un montón de visitantes previos y más de 955 evaluaciones promedio que rondan las 4.8 estrellas, lo que lo hace un favorito de la región. Es por eso que forma parte de esta lista de los mejores centros ecoturísticos de Jalisco, y es por eso también que nos parece una recomendación imperdible para ti.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Parque Nacional Volcán Nevado De Colima"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque de ecoturismo se ubica en México 54D 16, Usmajac, Jal.
+La verdad es que llegar a este Centro no tiene gran dificultad. Puedes encontrar la dirección de un lugar siguiendo cualquier aplicación de navegación que se te facilite o siguiendo esta liga al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Parque Nacional Volcán Nevado De Colima?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Parque Nacional Volcán Nevado De Colima son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 341 412 2025
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.nevadodecolima.mx/"&gt;Web de Parque Nacional Volcán Nevado De Colima&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Parque Nacional Volcán Nevado De Colima?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del centro ecoturístico Parque Nacional Volcán Nevado De Colima son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;A pesar de que los horarios estén oficialmente vigentes, siempre está bien mirar en sus sitios de contacto y redes antes de visitarlos, por cualquier cambio extraordinario que pudieran tener, ambios por temporadas vacacionales, festivos, etc.&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="H2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="cascada-el-salto-del-nogal,-tapalpa"&gt;&lt;b&gt;#2 Centro Ecoturístico Cascada El Salto Del Nogal, Tapalpa&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_el_Salto_del_Nogal,_Tapalpa_60.jpg" alt="Cascada el Salto del Nogal, Tapalpa"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3752.4190334000386!2d-103.76604080000001!3d19.8645203!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259c8d1976f83b%3A0xd3ba4ff63b56c131!2sCascada%20el%20Salto%20del%20Nogal%2C%20Tapalpa!5e0!3m2!1ses!2smx!4v1680034422555!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Para una gran experiencia de ecoturismo en Jalisco, está el sitio ecoturístico Cascada El Salto Del Nogal, Tapalpa. Decidimos agregar este sitio a la lista de los mejores parques naturales de este estado, gracias al aval de 4.8 estrellas que más de 967 visitantes le han dado. Entonces si te gusta estar rodeado de paisajes lindos, y vegetación nativa, etnonces este sitio es una de las opciones perfectas para tí para ti. Ponlo en tu lista ya mismo y aventúrate a conocer la naturalza de Jalisco visitando Cascada El Salto Del Nogal, Tapalpa.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Cascada El Salto Del Nogal, Tapalpa"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en Jalisco
-Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Cascada El Salto Del Nogal, Tapalpa&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Cascada El Salto Del Nogal, Tapalpa?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cascada El Salto Del Nogal, Tapalpa son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Cascada El Salto Del Nogal, Tapalpa?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="cascada-el-salto-del-nogal,-tapalpa"&gt;&lt;b&gt;#2 Parque Ecoturístico Cascada El Salto Del Nogal, Tapalpa&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_el_Salto_del_Nogal,_Tapalpa_60.jpg" alt="Cascada el Salto del Nogal, Tapalpa"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3752.4190334000386!2d-103.76604080000001!3d19.8645203!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259c8d1976f83b%3A0xd3ba4ff63b56c131!2sCascada%20el%20Salto%20del%20Nogal%2C%20Tapalpa!5e0!3m2!1ses!2smx!4v1680034422555!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Adir Arias-abr 2021, Título: "Cascada el Salto del Nogal, Tapalpa"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Cascada El Salto Del Nogal, Tapalpa es la siguiente parada obligatoria en esta lista de los mejores sitio ecoturístico para hacer ecoturismo en Jalisco. Este parque ha recibido un promedio de 4.8 estrellas según los 967 visitantes que lo han evaluado públicamente. Nada mal para esta región. Así que no lo pienses mas, conoce todos los detalles para llegar de manera segura y lánzate a disfrutar de sus espacios naturales y paisajes y ¡a vivir el ecoturismo en Jalisco a tope&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Cascada El Salto Del Nogal, Tapalpa"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecológico se ubica en Jalisco
+Para ir a este lugar usar esa dirección en un gps o ayudarte con este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Cascada El Salto Del Nogal, Tapalpa&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada El Salto Del Nogal, Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada El Salto Del Nogal, Tapalpa son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Cascada El Salto Del Nogal, Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
  &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                </v>
       </c>
       <c r="I2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="sierra-de-quila"&gt;&lt;b&gt;#3 Parque Ecoturístico Sierra De Quila&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Sierra_de_Quila_89.jpg" alt="Sierra de Quila"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3742.502994807881!2d-104.0857276!3d20.279436999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8425c6fa622d8c37%3A0x8b71e406b164e9d1!2sSierra%20de%20Quila!5e0!3m2!1ses!2smx!4v1680034557357!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;El centro ecoturístico Sierra De Quila es nuestra siguiente recomendación. Una de las opciones inmejorables para vivir la naturaleza en Jalisco. Con 4.8 estrellas y el aval de al menos 244 visitantes con opiniones positivas, este sitio ecoturístico se ha posicionado como uno de los mejores de por acá, y es un atractivo natural obligado si lo que buscas es un hacer algo de ecoturismo. Entonces, apúntate también todos sus detalles y ponte en ruta a las Sierra De Quila.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Sierra De Quila"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en Portal Hidalgo 36A, 48540 Tecolotlán, Jal.
-Con esta dirección y un googleMaps o waze típico del celular vas a poder llegar sin ningún problema al sitio. Igual para facilitarte el proceso, acá te va una liga al &lt;a href='undefined'&gt;Mapa del Parque Natural Sierra De Quila&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Sierra De Quila?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Sierra De Quila son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.sierradequila.org/"&gt;Web de Sierra De Quila&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Sierra De Quila?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Sierra De Quila son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Martes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Jueves de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Sábado Cerrado&lt;/li&gt;
-                            &lt;li&gt;Domingo Cerrado&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Te sugerimos verificar siempre sus canales digitales y redes sociales antes de ir al parque pues incluso si cuentas con los horarios oficiales, pudiera haber cambios especiales por feriados, vacaciones o situaciones inesperadas&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="sierra-de-quila"&gt;&lt;b&gt;#3 Parque Ecoturístico Sierra De Quila&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Sierra_de_Quila_89.jpg" alt="Sierra de Quila"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3742.502994807881!2d-104.0857276!3d20.279436999999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8425c6fa622d8c37%3A0x8b71e406b164e9d1!2sSierra%20de%20Quila!5e0!3m2!1ses!2smx!4v1680034557357!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Juan Carlos Orozco-abr 2018, Título: "Sierra de Quila"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Otra súper opción si estás en Jalisco en búsqueda de algo de ecoturismo y aventura es el parque ecoturístico Sierra De Quila. Hemos decidido incluir este parque natural en esta lista de los mejores de Jalisco gracias al respaldo y opiniones de más de 244 visitantes que lo han evaluado públicamente por lo menos con 4.8 estrellas de calificación, así que a tí no se te puede escapar. Chécate todos lo detalles necesarios para tu visita y dale con todo para levantar el ecoturismo en Jalisco apoyando y disfrutando Sierra De Quila.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural "Sierra De Quila"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este centro ecoturístico se ubica en Portal Hidalgo 36A, 48540 Tecolotlán, Jal.
+Con esta dirección y una app de navegación tipo Waze o GoogleMaps es muy sencillo llegar. Pudes hacerlo directo o ayudándote de este link al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Sierra De Quila&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Sierra De Quila?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Sierra De Quila son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.sierradequila.org/"&gt;Web de Sierra De Quila&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Sierra De Quila?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Sierra De Quila son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 09:00 a 14:00 de 15:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Sábado Cerrado&lt;/li&gt;
+                                &lt;li&gt;Domingo Cerrado&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="J2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="parque-ecologico-huilotan"&gt;&lt;b&gt;#4 Parque de Ecoturismo Parque Ecológico Huilotán&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Ecologico_Huilotan_16.jpg" alt="Parque Ecológico Huilotán"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3725.8126445377825!2d-103.3999547!3d20.9600378!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428986151c6cb27%3A0xed44c6d542806d04!2sParque%20Ecol%C3%B3gico%20Huilot%C3%A1n!5e0!3m2!1ses!2smx!4v1680034220340!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Parque Ecológico Huilotán es el siguiente de los parques ecoturísticos más populares de Jalisco. Este sitio logró un promedio de calificación de 4.6 estrellas de más de 1114 visitantes, pues se trata de un lugar perfecto para disfrutar el paisaje y los entornos naturales de Jalisco. Entonces... anótate toda su información para que puedas visitar el parque de ecoturismo Parque Ecológico Huilotán cuanto antes.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Parque Ecológico Huilotán"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en Carr a Colotlán km 22.5, Huilotan, 45250 Zapopan, Jal.
-Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Parque Ecológico Huilotán&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque Ecológico Huilotán?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Ecológico Huilotán son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1342 5610
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/ecohuilotan/"&gt;Web de Parque Ecológico Huilotán&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Parque Ecológico Huilotán?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Ecológico Huilotán son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Sábado de 08:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Domingo de 08:00 a 18:00&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Es importante verificar en sus redes sociales o contactos digitales antes de ir, incluso si ya tienes los horarios oficiales, para evitar cualquier cambio logístico de última hora&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="parque-ecologico-huilotan"&gt;&lt;b&gt;#4 Parque Ecoturístico Parque Ecológico Huilotán&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Ecologico_Huilotan_16.jpg" alt="Parque Ecológico Huilotán"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3725.8126445377825!2d-103.3999547!3d20.9600378!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428986151c6cb27%3A0xed44c6d542806d04!2sParque%20Ecol%C3%B3gico%20Huilot%C3%A1n!5e0!3m2!1ses!2smx!4v1680034220340!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Moisés Alejandro García Pérez-sept 2021, Título: "Parque Ecológico Huilotán"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Entendemos que si estás aquí, es porque quieres conocer más opciones para conectarte con la naturaleza y disfrutarla a tope en Jalisco. Y pues bueno... el parque ecoturístico Parque Ecológico Huilotán} puede ser la respuesta que buscabas. Este parque ecológico ha sido evaluado por más de 1114 personas con un promedio de calificación de  4.6 estrellas, haciéndolo uno de los parques de ecoturismo más recomendados de Jalisco. Así que nada.. a pasar del pensamiento a la acción y a poner Parque Ecológico Huilotán en tu ruta de ecoturismo ¡pero ya!.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Parque Ecológico Huilotán"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en Carr a Colotlán km 22.5, Huilotan, 45250 Zapopan, Jal.
+Puedes llegar a este centro facilmente manejando apoyándote en una aplicación de navegación (ej. maps) o consultando este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Parque Ecológico Huilotán&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro de ecoturismo Parque Ecológico Huilotán?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Parque Ecológico Huilotán son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1342 5610
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/ecohuilotan/"&gt;Web de Parque Ecológico Huilotán&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Parque Ecológico Huilotán?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Ecológico Huilotán son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 08:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 08:00 a 18:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Te sugerimos siempre revisar sus medios de contacto y redes sociales, incluso si cuentas con los horarios oficiales, para asegurarte de que no haya habido cambios inesperados en el horario o en la logística del lugar&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="K2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="parque-natural-los-frailes"&gt;&lt;b&gt;#5 Centro Ecoturístico Parque Natural Los Frailes&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Natural_Los_Frailes_40.jpg" alt="Parque Natural Los Frailes"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3750.454584076914!2d-103.76132709999999!3d19.947376!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842590df7d01ea05%3A0xfdde2013bb2d06ad!2sParque%20Natural%20Los%20Frailes!5e0!3m2!1ses!2smx!4v1680034330464!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Este parque ecoturístico tiene  4.6 estrellas de calificación promedio, a partir de las más de 697 opiniones de sus visitantes... ¿nada mal no?. Es por esto que Parque Natural Los Frailes es parte de esta lista de los parques ecoturísticos mejor calificados de Jalisco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el centro ecoturístico Parque Natural Los Frailes en Jalisco es sin duda una gran opción.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Parque Natural Los Frailes"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en Miguel Hidalgo 272, Centro, 49340 Tapalpa, Jal.
-Para encontrar el sitio manejando puedes ingresar la dirección en una app tipo googleMaps o irte a este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Parque Natural Los Frailes&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Parque Natural Los Frailes?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Parque Natural Los Frailes son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1443 1204 o 3418783680
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.tapalpalosfrailes.com/"&gt;Web de Parque Natural Los Frailes&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque de ecoturismo Parque Natural Los Frailes?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Natural Los Frailes son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 10:30 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Martes Cerrado&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 10:30 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Jueves de 10:30 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 10:30 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Sábado de 10:30 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Domingo de 10:30 a 18:00&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Te sugerimos siempre revisar sus medios de contacto y redes sociales, incluso si cuentas con los horarios oficiales, para asegurarte de que no haya habido cambios inesperados en el horario o en la logística del lugar&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="parque-natural-los-frailes"&gt;&lt;b&gt;#5 Parque Ecoturístico Parque Natural Los Frailes&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Natural_Los_Frailes_40.jpg" alt="Parque Natural Los Frailes"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3750.454584076914!2d-103.76132709999999!3d19.947376!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842590df7d01ea05%3A0xfdde2013bb2d06ad!2sParque%20Natural%20Los%20Frailes!5e0!3m2!1ses!2smx!4v1680034330464!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Parque Natural Los Frailes-mar 2021, Título: "Miguel Hidalgo 272, Centro, 49340 Tapalpa, Jal."&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Otra excente opción si andas buscando naturaleza para descansar y salir de lo cotidiano es el centro ecoturístico Parque Natural Los Frailes. Acá encontrarás algunos de los paisajes más bonitos y naturales de Jalisco. Este sitio tiene una calificación promedio de 4.5estrellas, y al menos 697 reseñas de visitantes que ya lo han disfrutado. Por esto, es uno de los más concurridos de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza! en Parque Natural Los Frailes.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Parque Natural Los Frailes"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en Miguel Hidalgo 272, Centro, 49340 Tapalpa, Jal.
+Para encontrar la dirección manejando, puedes apoyarte poniéndola en una app de navegación o ir directo a este &lt;a href='undefined'&gt;Mapa del Parque Natural Parque Natural Los Frailes&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del sitio ecoturístico Parque Natural Los Frailes?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Parque Natural Los Frailes son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1443 1204 o 3418783680
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.tapalpalosfrailes.com/"&gt;Web de Parque Natural Los Frailes&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Parque Natural Los Frailes?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del centro ecoturístico Parque Natural Los Frailes son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 10:30 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Martes Cerrado&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 10:30 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 10:30 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 10:30 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 10:30 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 10:30 a 18:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Antes de visitar el lugar, es importante revisar sus sitios digitales y redes sociales, así te aseguras de detectar cualquier cambio que hayan tenido de última hora por cuestiones de fechas especiales, vacaciones, temporadas altas, etc&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="L2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="cascada-de-comala"&gt;&lt;b&gt;#6 Centro Ecoturístico Cascada De Comala&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_de_Comala_78.jpg" alt="Cascada de Comala"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3747.9258989254363!2d-103.9415753!3d20.053546299999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8425bdde84b25927%3A0x92ad59a6afbc03cb!2sCascada%20de%20Comala!5e0!3m2!1ses!2smx!4v1680034506066!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Vamos con el siguiente de esta lista: Cascada De Comala. Si te apasiona el ecoturismo y estas buscando explorar la naturaleza increíble de Jalisco, la verdad es que no puedes perderte Cascada De Comala. Este parque ecoturístico es el sitio ideal para disfrutar paisajes naturales lindos y desconectarte un poco de la urbe. Más de 681 personas lo han evaluado con un promedio de 4.7 estrellas. Aunque hay algunos detallitos que se pueden mejorar, definitivamente es una súper opción si lo que buscas es una experiencia cargada de naturaleza.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Cascada De Comala"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en municipio de, Cómala, Portal guerrero 10, 48640 Chiquilistlán, Jal.
-Para llegar a este sitio, simplemente ingresa la dirección en una app de navegación o síguete este enlace al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Cascada De Comala&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque natural Cascada De Comala?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cascada De Comala son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Cascada De Comala?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Cascada De Comala son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="cascada-de-comala"&gt;&lt;b&gt;#6 Parque de Ecoturismo Cascada De Comala&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_de_Comala_78.jpg" alt="Cascada de Comala"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3747.9258989254363!2d-103.9415753!3d20.053546299999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8425bdde84b25927%3A0x92ad59a6afbc03cb!2sCascada%20de%20Comala!5e0!3m2!1ses!2smx!4v1680034506066!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Francisco Hernandez-feb 2021, Título: "Cascada de Comala"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Nuestra siguiente recomendación es parque ecológico Cascada De Comala. Si lo que buscas es conectar con la naturaleza de Jalisco, entonces -sí o sí- toca visitar este lugar. Este es uno de los parques ecoturísticos que resultó mejor evaluados en Jalisco (con 4.7 estrellas y más de 681 opiniones públicas de visitantes), lo que lo hace también un favorito de los amantes del ecoturismo y la aventura natural. Si andas en busqueda justo de eso, entonces revisa los detalles siguientes para tener una visita segura y ¡lánzate al parque Cascada De Comala!&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Cascada De Comala"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque de ecoturismo se ubica en municipio de, Cómala, Portal guerrero 10, 48640 Chiquilistlán, Jal.
+Puedes ir a este lugar sin problemas manejando, sólo coloca su dirección oficial en waze, google maps o equivalente, o guíate con este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Cascada De Comala&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada De Comala?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada De Comala son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Cascada De Comala?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Cascada De Comala son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="M2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="cascada-los-azules-tequila"&gt;&lt;b&gt;#7 Centro Ecoturístico Cascada Los Azules Tequila&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_Los_Azules_Tequila_74.jpg" alt="Cascada Los Azules Tequila"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3727.3432635410354!2d-103.8209851!3d20.898505!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84261607855d3ea7%3A0x3ad506d67937c56a!2sCascada%20Los%20Azules%20Tequila!5e0!3m2!1ses!2smx!4v1680037497994!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Ok... ¿Te gusta el ecoturismo y andas en Jalisco buscando algo de aventura natural no? Entonces agrega ya mismo en tu lista al centro de ecoturismo Cascada Los Azules Tequila. Este es un lugar ideal para encontrarte con la naturaleza y disfrutar de paisajes lindos. Es un centro ecoturístico que ha sido evaluado por más de 620 personas y tiene un promedio de 4.6 estrellas de calificación. Aunque puede que haya algunos detallitos que es posible mejorar, la realidad es que Cascada Los Azules Tequila es un paso obligado para explorar la naturaleza de Jalisco y hacer algo de ecoturismo por acá.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Cascada Los Azules Tequila"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en Tequila, Jal.
-Para llegar a este parque puedes poner colocar la dirección en una herramienta de navegación tipo waze o irte por medio de este enlace &lt;a href='undefined'&gt;Mapa del Centro de Ecoturismo Cascada Los Azules Tequila&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada Los Azules Tequila?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cascada Los Azules Tequila son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Cascada Los Azules Tequila?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="cascada-los-azules-tequila"&gt;&lt;b&gt;#7 Centro Ecoturístico Cascada Los Azules Tequila&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_Los_Azules_Tequila_74.jpg" alt="Cascada Los Azules Tequila"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3727.3432635410354!2d-103.8209851!3d20.898505!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84261607855d3ea7%3A0x3ad506d67937c56a!2sCascada%20Los%20Azules%20Tequila!5e0!3m2!1ses!2smx!4v1680037497994!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Gerardo Alonso Robledo Reynoso-oct 2022, Título: "Cascada Los Azules Tequila"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Si quieres escapar de la rutina y disfrutar de la naturaleza a full, el parque ecoturístico Cascada Los Azules Tequila -si o sí- es una opción que debe estar en tu lista. Este centro ecoturístico ha sido evaluado por más de 620 visitantes, quienes lo han posicionado como uno de los mejores de Jalisco, (con 4.6 estrellas en promedio). Es por eso que hemos decidido hacerlo parte de esta lista de los mejores, y dejártelo en las recomendaciones si lo que buscas es respirar naturaleza al máximo. &lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Cascada Los Azules Tequila"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en Tequila, Jal.
+Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='undefined'&gt;Mapa del Sitio Ecoturístico Cascada Los Azules Tequila&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Cascada Los Azules Tequila?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada Los Azules Tequila son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Cascada Los Azules Tequila?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
  &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                </v>
       </c>
       <c r="N2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="sierra-de-san-juan-cosala"&gt;&lt;b&gt;#8 Sitio Ecoturístico Sierra De San Juan Cosalá&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Sierra_de_San_Juan_Cosala_10.jpg" alt="Sierra de San Juan Cosalá"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3741.2246685411524!2d-103.27789179999999!3d20.332335300000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f445cbfaa281b%3A0x89a266c7a003565e!2sSierra%20de%20San%20Juan%20Cosal%C3%A1!5e0!3m2!1ses!2smx!4v1680037173298!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;El parque de ecoturismo Sierra De San Juan Cosalá el siguiente en esta lista. Este centro ecoturístico es una de las joyas naturales que tiene Jalisco para los aficionados al ecoturismo y la aventura. Se trata de un lugar evaluado en promedio con 4.6 estrellas por al menos 585 personas. No podemos dejar de recomendártelo como un una opción importante para la exploración natural de Tabasco Jalisco. Así que ya sabes, guárdate toda la información logística que vamos a darte a continuación y anímate a visitar este increíble parque ecoturístico cuanto antes.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Sierra De San Juan Cosalá"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en Sin nombre No. 1744 2545, Fidel Velázquez, 44220 Guadalajara, Jal.
-Para llegar al centro manejando puedes poner la dirección en un navegador digital (ej. waze o googleMaps), o irte usando este enlace directo al &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Sierra De San Juan Cosalá&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Sierra De San Juan Cosalá?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Sierra De San Juan Cosalá son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Sierra De San Juan Cosalá?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="sierra-de-san-juan-cosala"&gt;&lt;b&gt;#8 Parque de Ecoturismo Sierra De San Juan Cosalá&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Sierra_de_San_Juan_Cosala_10.jpg" alt="Sierra de San Juan Cosalá"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3741.2246685411524!2d-103.27789179999999!3d20.332335300000004!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f445cbfaa281b%3A0x89a266c7a003565e!2sSierra%20de%20San%20Juan%20Cosal%C3%A1!5e0!3m2!1ses!2smx!4v1680037173298!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)alfonso basurto hernandez-jun 2019, Título: "Sierra de San Juan Cosalá"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Sierra De San Juan Cosalá es el siguiente de los parques ecoturísticos más populares de Jalisco. Este sitio logró un promedio de calificación de 4.6 estrellas de más de 585 visitantes, pues se trata de un lugar perfecto para disfrutar el paisaje y los entornos naturales de Jalisco. Entonces... anótate toda su información para que puedas visitar el parque de ecoturismo Sierra De San Juan Cosalá cuanto antes.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural "Sierra De San Juan Cosalá"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este centro ecoturístico se ubica en Sin nombre No. 1744 2545, Fidel Velázquez, 44220 Guadalajara, Jal.
+Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Sierra De San Juan Cosalá&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Sierra De San Juan Cosalá?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Sierra De San Juan Cosalá son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Sierra De San Juan Cosalá?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
  &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                </v>
       </c>
       <c r="O2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="cascada-de-huaxtla"&gt;&lt;b&gt;#9 Parque de Ecoturismo Cascada De Huaxtla&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_De_Huaxtla_81.jpg" alt="Cascada De Huaxtla"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3726.3992211384416!2d-103.3961775!3d20.936477099999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428a3e053b954a7%3A0x775436aaa7eaa27f!2sCascada%20De%20Huaxtla!5e0!3m2!1ses!2smx!4v1680034519995!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Otra excente opción si andas buscando naturaleza para descansar y salir de lo cotidiano es el parque ecoturístico Cascada De Huaxtla. Acá encontrarás algunos de los paisajes más bonitos y naturales de Jalisco. Este sitio tiene una calificación promedio de 4.5estrellas, y al menos 474 reseñas de visitantes que ya lo han disfrutado. Por esto, es uno de los más concurridos de este estado. Así que nada... sin excusas y ¡a vivir esta experiencia en la naturaleza! en Cascada De Huaxtla.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Cascada De Huaxtla"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en Camino a Huaxtla S/n, 45200 Zapopan, Jal.
-Para ir a este sitio, coloca esta dirección en una herramienta de navegación o apóyate con este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Cascada De Huaxtla&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Cascada De Huaxtla?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada De Huaxtla son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1398 9937
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/CascadasHuaxtla"&gt;Web de Cascada De Huaxtla&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Cascada De Huaxtla?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Cascada De Huaxtla son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 08:30 a 18:30&lt;/li&gt;
-                            &lt;li&gt;Martes de 08:30 a 18:30&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 08:30 a 18:30&lt;/li&gt;
-                            &lt;li&gt;Jueves de 08:30 a 18:30&lt;/li&gt;
-                            &lt;li&gt;Viernes de 08:30 a 18:30&lt;/li&gt;
-                            &lt;li&gt;Sábado de 08:30 a 18:30&lt;/li&gt;
-                            &lt;li&gt;Domingo de 08:30 a 18:30&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="cascada-de-huaxtla"&gt;&lt;b&gt;#9 Centro de Ecoturismo Cascada De Huaxtla&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_De_Huaxtla_81.jpg" alt="Cascada De Huaxtla"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3726.3992211384416!2d-103.3961775!3d20.936477099999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428a3e053b954a7%3A0x775436aaa7eaa27f!2sCascada%20De%20Huaxtla!5e0!3m2!1ses!2smx!4v1680034519995!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Hugo Oceguera-abr 2021, Título: "Cascada De Huaxtla"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Si te apasiona la naturaleza y andas en busca de aventuras ¡pues no se diga más! porque sin duda el centro ecoturístico Cascada De Huaxtla es otra de las alternativas en Jalisco que no debes dejar pasar. Este parque ecológico tiene una calificación promedio de 4.7 estrellas, gracias a que al menos 474 personas distintas lo han evaluado de este modo... motivo por el que forma parte de este rank de los mejores. Así es que... siendo uno de los parques ecológicos mejores calificados en Jalisco ¿qué esperas para visitarlo?&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Cascada De Huaxtla"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este centro de ecoturismo se ubica en Camino a Huaxtla S/n, 45200 Zapopan, Jal.
+Para ir a este lugar usar esa dirección en un gps o ayudarte con este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Cascada De Huaxtla&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del sitio ecoturístico Cascada De Huaxtla?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada De Huaxtla son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1398 9937
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/CascadasHuaxtla"&gt;Web de Cascada De Huaxtla&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Cascada De Huaxtla?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del centro ecoturístico Cascada De Huaxtla son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 08:30 a 18:30&lt;/li&gt;
+                                &lt;li&gt;Martes de 08:30 a 18:30&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 08:30 a 18:30&lt;/li&gt;
+                                &lt;li&gt;Jueves de 08:30 a 18:30&lt;/li&gt;
+                                &lt;li&gt;Viernes de 08:30 a 18:30&lt;/li&gt;
+                                &lt;li&gt;Sábado de 08:30 a 18:30&lt;/li&gt;
+                                &lt;li&gt;Domingo de 08:30 a 18:30&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="P2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="el-diente"&gt;&lt;b&gt;#10 Sitio Ecoturístico El Diente&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/El_Diente_10.jpg" alt="El Diente"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3730.007618118131!2d-103.39627420000001!3d20.790979699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428a50bd1f9101b%3A0x951ad8c2c8c680b7!2sEl%20Diente!5e0!3m2!1ses!2smx!4v1680034193570!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;El siguiente destino en esta lista es El Diente. Si lo que quieres es encontrar un lugar para conectarte con la naturaleza, el parque ecoturístico El Diente será una de tus mejores apuestas. Este sitio forma parte de esta lista de los mejores parques ecoturísticos de Jalisco gracias al respaldo y opiniones de más de 418 visitantes que le han otorgado una calificación de más de 4.8 estrellas en promedio. Este lugar es sin duda uno de los mejores para disfrutar del entorno natural y paisajes de Jalisco y practicar el ecoturismo y la aventura en la región.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "El Diente"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en Zapopan, Jal.
-Para llegar a este sitio, simplemente ingresa la dirección en una app de navegación o síguete este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico El Diente&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico El Diente?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Natural El Diente son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1600 3356
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico El Diente?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque natural El Diente son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 06:30 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Martes de 06:30 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 06:30 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Jueves de 06:30 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 06:30 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Sábado de 06:30 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Domingo de 06:30 a 17:00&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="el-diente"&gt;&lt;b&gt;#10 Centro de Ecoturismo El Diente&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/El_Diente_10.jpg" alt="El Diente"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3730.007618118131!2d-103.39627420000001!3d20.790979699999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428a50bd1f9101b%3A0x951ad8c2c8c680b7!2sEl%20Diente!5e0!3m2!1ses!2smx!4v1680034193570!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)El dueño del pug-ago 2022, Título: "El Diente"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Para una gran experiencia de ecoturismo en Jalisco, está el parque ecoturístico El Diente. Decidimos agregar este sitio a la lista de los mejores parques ecoturísticos de este estado, gracias al aval de 4.8 estrellas que más de 418 visitantes le han dado. Entonces si te gusta estar rodeado de paisajes lindos, y vegetación nativa, etnonces este sitio es una de las opciones perfectas para tí para ti. Ponlo en tu lista ya mismo y aventúrate a conocer la naturalza de Jalisco visitando El Diente.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Natural "El Diente"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en Zapopan, Jal.
+Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='undefined'&gt;Mapa del Parque Natural El Diente&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico El Diente?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Centro Ecoturístico El Diente son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 1600 3356
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural El Diente?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico El Diente son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 06:30 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 06:30 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 06:30 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 06:30 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 06:30 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 06:30 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 06:30 a 17:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="Q2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="el-tepalo"&gt;&lt;b&gt;#11 Sitio Ecoturístico El Tepalo&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/El_Tepalo_50.jpg" alt="El Tepalo"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3741.8217319491396!2d-103.25673669999999!3d20.307644699999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f46a5c300bea5%3A0x553667a56d72e417!2sEl%20Tepalo!5e0!3m2!1ses!2smx!4v1680034376025!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Entendemos que si estás aquí, es porque quieres conocer más opciones para conectarte con la naturaleza y disfrutarla a tope en Jalisco. Y pues bueno... el centro ecoturístico El Tepalo} puede ser la respuesta que buscabas. Este centro ecoturístico ha sido evaluado por más de 350 personas con un promedio de calificación de  4.8 estrellas, haciéndolo uno de los parques naturales más recomendados de Jalisco. Así que nada.. a pasar del pensamiento a la acción y a poner El Tepalo en tu ruta de ecoturismo ¡pero ya!.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "El Tepalo"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en Ajijic, Jal.
-Para llegar a este lugar, simplemente ingresa la dirección en una app de navegación o utiliza este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico El Tepalo&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico El Tepalo?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico El Tepalo son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico El Tepalo?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico El Tepalo son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Antes de visitar el lugar, es importante revisar sus sitios digitales y redes sociales, así te aseguras de detectar cualquier cambio que hayan tenido de última hora por cuestiones de fechas especiales, vacaciones, temporadas altas, etc&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="el-tepalo"&gt;&lt;b&gt;#11 Parque Natural El Tepalo&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/El_Tepalo_50.jpg" alt="El Tepalo"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3741.8217319491396!2d-103.25673669999999!3d20.307644699999997!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f46a5c300bea5%3A0x553667a56d72e417!2sEl%20Tepalo!5e0!3m2!1ses!2smx!4v1680034376025!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Paty Moreno-jul 2022, Título: "El Tepalo"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;El siguiente destino en esta lista es El Tepalo. Si lo que quieres es encontrar un lugar para conectarte con la naturaleza, el sitio ecoturístico El Tepalo será una de tus mejores apuestas. Este sitio forma parte de esta lista de los mejores parques ecoturísticos de Jalisco gracias al respaldo y opiniones de más de 350 visitantes que le han otorgado una calificación de más de 4.8 estrellas en promedio. Este lugar es sin duda uno de los mejores para disfrutar del entorno natural y paisajes de Jalisco y practicar el ecoturismo y la aventura en la región.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "El Tepalo"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en Ajijic, Jal.
+Para llegar a este parque puedes poner colocar la dirección en una herramienta de navegación tipo waze o irte por medio de este enlace &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico El Tepalo&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico El Tepalo?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico El Tepalo son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico El Tepalo?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico El Tepalo son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque los horarios oficiales estén disponibles, es recomendable siempre verificar sus sitios de contacto y redes sociales antes de visitar el lugar, por cualquier cambio extraordinario que pudieran haber tenido&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="R2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="rancho-ecoturistico-agua-dulce-en-bosque-de-la-primavera"&gt;&lt;b&gt;#12 Centro Ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Rancho_Ecoturistico_Agua_Dulce_en_Bosque_de_La_Primavera_1.jpg" alt="Rancho Ecoturístico Agua Dulce en Bosque de La Primavera"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3732.2511189620936!2d-103.61879689999999!3d20.700024899999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84260373d59b4113%3A0xe197a8e8ff36cd7c!2sRancho%20Ecotur%C3%ADstico%20Agua%20Dulce%20en%20Bosque%20de%20La%20Primavera!5e0!3m2!1ses!2smx!4v1680034152587!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;El parque ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera en Jalisco es la siguiente opción en nuestra lista. Una rre buena alternativa para hacer ecoturismo por acá. Con una calificación promedio de 4.5 derivada de reseñas de más de 268 personas, este lugar es considerado uno de los mejores centro de ecoturismo de la región. Es por eso que forma parte de esta lista. Entonces ya sabes... si la naturaleza y la aventura te motivan, no puedes dejar de visitar Rancho Ecoturístico Agua Dulce En Bosque De La Primavera y sumergirte en los paisajes naturales de Jalisco.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Rancho Ecoturístico Agua Dulce En Bosque De La Primavera"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque natural se ubica en Ejido, Emiliano Zapata, 45226 Zapopan, Jal.
-Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2614 4586
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/Rancho-Ecoturistico-Agua-Dulce-1591180471106695/"&gt;Web de Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="rancho-ecoturistico-agua-dulce-en-bosque-de-la-primavera"&gt;&lt;b&gt;#12 Parque Ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Rancho_Ecoturistico_Agua_Dulce_en_Bosque_de_La_Primavera_1.jpg" alt="Rancho Ecoturístico Agua Dulce en Bosque de La Primavera"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3732.2511189620936!2d-103.61879689999999!3d20.700024899999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84260373d59b4113%3A0xe197a8e8ff36cd7c!2sRancho%20Ecotur%C3%ADstico%20Agua%20Dulce%20en%20Bosque%20de%20La%20Primavera!5e0!3m2!1ses!2smx!4v1680034152587!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Rancho Ecoturístico Agua Dulce en Bosque de La Primavera-oct 2020, Título: "Rancho Ecoturístico Agua Dulce en Bosque de La Primavera"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;El parque ecológico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera es también parte de esta lista, pues se trata de opción fantástica para tener una aventura natural en Jalisco. Su calificación promedio es de 4.5 estrellas, a partir de la opinión respaldada por más de 268 visitantes. Por ello, no tenemos duda de que este sitio debe pertenecer a la lista de los parques naturales mejor rankeados de  Jalisco, pues se trata de uno de los atractivos naturales más bonitos en la región. Así que ya sabes... ¿ganas de naturaleza?... pues apúnta todos los datos siguientes, porque el parque ecoturístico Rancho Ecoturístico Agua Dulce En Bosque De La Primavera es una grandísima opción.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Rancho Ecoturístico Agua Dulce En Bosque De La Primavera"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecológico se ubica en Ejido, Emiliano Zapata, 45226 Zapopan, Jal.
+Si ingresas esta dirección en una app de navegación, seguro llegas manejando sin dificultades. Y -en caso de que te sea más fácil- igual acá te compaprtimos una liga directa al &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro de ecoturismo Rancho Ecoturístico Agua Dulce En Bosque De La Primavera?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Rancho Ecoturístico Agua Dulce En Bosque De La Primavera son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2614 4586
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.facebook.com/Rancho-Ecoturistico-Agua-Dulce-1591180471106695/"&gt;Web de Rancho Ecoturístico Agua Dulce En Bosque De La Primavera&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque natural Rancho Ecoturístico Agua Dulce En Bosque De La Primavera?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
  &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                </v>
       </c>
       <c r="S2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="cerro-cuauhtepetl"&gt;&lt;b&gt;#13 Parque de Ecoturismo Cerro Cuauhtépetl&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cerro_Cuauhtepetl_38.jpg" alt="Cerro Cuauhtépetl"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.6110363230982!2d-103.9724141!3d20.603936199999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8426747830f3c727%3A0x2926239f7194ddd3!2sCerro%20Cuauht%C3%A9petl!5e0!3m2!1ses!2smx!4v1680037303356!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Si mueres de curiosidad y ganas de estar en contacto con la naturaleza, entonces tienes que conocer el parque ecoturístico Cerro Cuauhtépetl en Jalisco. Este sitio ha sido evaluado con 4.5 estrellas en promedio por más de 124 personas, lo que lo hace una opción fantástica para tener una aventura natural si estás por esta zona del país. No lo dudes más y simplemente toma nota de sus datos y ¡lánzate a conocer sus paisajes y vive el ecoturismo a tope!. &lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Cerro Cuauhtépetl"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en 54000 Tlalnepantla, Jal.
-Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='undefined'&gt;Mapa del Sitio Ecoturístico Cerro Cuauhtépetl&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro de ecoturismo Cerro Cuauhtépetl?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Cerro Cuauhtépetl son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Cerro Cuauhtépetl?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="cerro-cuauhtepetl"&gt;&lt;b&gt;#13 Parque Ecoturístico Cerro Cuauhtépetl&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cerro_Cuauhtepetl_38.jpg" alt="Cerro Cuauhtépetl"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3734.6110363230982!2d-103.9724141!3d20.603936199999996!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8426747830f3c727%3A0x2926239f7194ddd3!2sCerro%20Cuauht%C3%A9petl!5e0!3m2!1ses!2smx!4v1680037303356!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Leonel Saldivar Hernandez-oct 2021, Título: "Cerro Cuauhtépetl"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Cerro Cuauhtépetl es nuestra siguiente recomendación. Se trata de uno de los sitios naturales más lindos que Jalisco tiene para ofrecer. Está respaldado por la aprobación de más de 124 opiniones que en promedio le han otorgado 4.5 estrellas, haciéndolo un favorito por acá, y volviéndolo una parada obligada en esta lista de los mejores parque ecoturístico de Jalisco.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Cerro Cuauhtépetl"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecológico se ubica en 54000 Tlalnepantla, Jal.
+Para encontrar la dirección manejando, puedes apoyarte poniéndola en una app de navegación o ir directo a este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Cerro Cuauhtépetl&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cerro Cuauhtépetl?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Natural Cerro Cuauhtépetl son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Cerro Cuauhtépetl?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
  &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                </v>
       </c>
       <c r="T2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="bosque-de-arce,-bosque-de-maple"&gt;&lt;b&gt;#14 Parque Natural Bosque De Arce, Bosque De Maple&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Bosque_de_Arce,_Bosque_de_Maple_92.jpg" alt="Bosque de Arce, Bosque de Maple"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3744.11427904691!2d-104.7593902!3d20.2125717!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8424112e2275765d%3A0x4d92a9f00d186c53!2sBosque%20de%20Arce%2C%20Bosque%20de%20Maple!5e0!3m2!1ses!2smx!4v1680034571410!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Bosque De Arce, Bosque De Maple es el siguiente destino ideal para quien busca disfrutar del ecoturismo y la naturaleza en Jalisco. Este lugar cuenta con un promedio de 4.6 estrellas según los 126 visitantes que lo han calificado. En este lugar podrás conocer Jalisco desde una perspectiva diferente, rodeándote de espacios lindos y de opciones para disfrutar la naturaleza. Revisa todos los detalles a continuación y programa tu visita cuanto antes.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro de Ecoturismo "Bosque De Arce, Bosque De Maple"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en 48259 Talpa de Allende, Jal.
-Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque de ecoturismo Bosque De Arce, Bosque De Maple?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Bosque De Arce, Bosque De Maple son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.bosquedearce.org/"&gt;Web de Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Bosque De Arce, Bosque De Maple?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Bosque De Arce, Bosque De Maple son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Es importante revisar en sus redes sociales o contactos digitales antes de ir, incluso si ya tienes los horarios oficiales, para evitar cualquier cambio logístico o de horario de última hora&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="bosque-de-arce,-bosque-de-maple"&gt;&lt;b&gt;#14 Parque Ecoturístico Bosque De Arce, Bosque De Maple&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Bosque_de_Arce,_Bosque_de_Maple_92.jpg" alt="Bosque de Arce, Bosque de Maple"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3744.11427904691!2d-104.7593902!3d20.2125717!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8424112e2275765d%3A0x4d92a9f00d186c53!2sBosque%20de%20Arce%2C%20Bosque%20de%20Maple!5e0!3m2!1ses!2smx!4v1680034571410!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Luis Fernando Medina-Foto, Título: "Bosque de Arce, Bosque de Maple"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Con una calificación promedio de 4.6 estrellas y más de 126 opiniones positivas, ¡ Bosque De Arce, Bosque De Maple en Jalisco es otra de las alternativas infaltables esta lista de mejores centros de ecoturismo!. Si lo tuyo son entornos naturales, no tenemos duda de que este parque te permitirá disfrutar al máximo tu experiencia. Así que no dudes - Bosque De Arce, Bosque De Maple será una excelente elección para hacer ecoturismo en esta región.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Bosque De Arce, Bosque De Maple"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en 48259 Talpa de Allende, Jal.
+Utiliza la dirección en una herramienta de navegación para llegar directamente, o sigue este enlace al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Bosque De Arce, Bosque De Maple?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Bosque De Arce, Bosque De Maple son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.bosquedearce.org/"&gt;Web de Bosque De Arce, Bosque De Maple&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Bosque De Arce, Bosque De Maple?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Bosque De Arce, Bosque De Maple son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Te sugerimos siempre revisar sus medios de contacto y redes sociales, incluso si cuentas con los horarios oficiales, para asegurarte de que no haya habido cambios inesperados en el horario o en la logística del lugar&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="U2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="cascada-el-salto"&gt;&lt;b&gt;#15 Centro Ecoturístico Cascada El Salto&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_El_Salto_87.jpg" alt="Cascada El Salto"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.7334583920215!2d-103.04200189999999!3d19.893473800000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f095b0cbcbff7%3A0x5675ed86994c4006!2sCascada%20El%20Salto!5e0!3m2!1ses!2smx!4v1680034547920!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Si quieres escapar de la rutina y disfrutar de la naturaleza a full, el parque ecoturístico Cascada El Salto -si o sí- es una opción que debe estar en tu lista. Este parque ecoturístico ha sido evaluado por más de 263 visitantes, quienes lo han posicionado como uno de los mejores de Jalisco, (con 4.5 estrellas en promedio). Es por eso que hemos decidido hacerlo parte de esta lista de los mejores, y dejártelo en las recomendaciones si lo que buscas es respirar naturaleza al máximo. &lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Cascada El Salto"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en 49533 Mazamitla, Jal.
-Para encontrar el lugar, símplemente apóyate de una app de navegación (ej. GoogleMaps) ingresando esta dirección, o utiliza este enlace al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Cascada El Salto&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada El Salto?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada El Salto son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Cascada El Salto?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Cascada El Salto son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 09:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Martes Cerrado&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 09:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Jueves de 09:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 09:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
-                            &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="cascada-el-salto"&gt;&lt;b&gt;#15 Parque Natural Cascada El Salto&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_El_Salto_87.jpg" alt="Cascada El Salto"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.7334583920215!2d-103.04200189999999!3d19.893473800000002!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f095b0cbcbff7%3A0x5675ed86994c4006!2sCascada%20El%20Salto!5e0!3m2!1ses!2smx!4v1680034547920!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Gustavo Guzman-mar 2022, Título: "Cascada El Salto"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;El parque ecoturístico Cascada El Salto el siguiente en esta lista. Este sitio ecoturístico es una de las joyas naturales que tiene Jalisco para los aficionados al ecoturismo y la aventura. Se trata de un lugar evaluado en promedio con 4.5 estrellas por al menos 263 personas. No podemos dejar de recomendártelo como un una opción importante para la exploración natural de Tabasco Jalisco. Así que ya sabes, guárdate toda la información logística que vamos a darte a continuación y anímate a visitar este increíble parque ecoturístico cuanto antes.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Cascada El Salto"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en 49533 Mazamitla, Jal.
+Con esta dirección y un googleMaps o waze típico del celular vas a poder llegar sin ningún problema al sitio. Igual para facilitarte el proceso, acá te va una liga al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Cascada El Salto&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Cascada El Salto?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Natural Cascada El Salto son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Cascada El Salto?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Cascada El Salto son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 09:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Martes Cerrado&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 09:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 09:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 09:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 09:00 a 17:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 09:00 a 17:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque los horarios oficiales estén disponibles, es recomendable siempre verificar sus sitios de contacto y redes sociales antes de visitar el lugar, por cualquier cambio extraordinario que pudieran haber tenido&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="V2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="salto-del-nogal"&gt;&lt;b&gt;#16 Centro Ecoturístico Salto Del Nogal&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Salto_del_nogal_44.jpg" alt="Salto del nogal"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3752.414040705661!2d-103.76650194999999!3d19.8647313!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259c8d1b8aeff1%3A0x9f4cae138a2698d2!2sSalto%20del%20nogal!5e0!3m2!1ses!2smx!4v1680037331800!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Otra gran opción para tí, si te gusta estar en contacto con la naturaleza y estás buscando lugares para hacer ecoturismo en Jalisco, es sin duda Salto Del Nogal!. Con un promedio de 4.8 estrellas evaluadas por al menos 100 visitantes, este parque ecoturístico es uno de los favoritos de acá. Así que si ya estás lista(o), prepárate para sumergirte en los paisajes naturales e inolvidables deJalisco y ¡aventúrate a conocer Salto Del Nogal!.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Salto Del Nogal"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este sitio ecoturístico se ubica en no cuenta con dirección
-Para llegar, puedes símplemente colocar esta dirección en el googleMaps o Waze o apoyarte en este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Salto Del Nogal&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Salto Del Nogal?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Salto Del Nogal son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es no cuenta con teléfono
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Salto Del Nogal?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="salto-del-nogal"&gt;&lt;b&gt;#16 Parque Natural Salto Del Nogal&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Salto_del_nogal_44.jpg" alt="Salto del nogal"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3752.414040705661!2d-103.76650194999999!3d19.8647313!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259c8d1b8aeff1%3A0x9f4cae138a2698d2!2sSalto%20del%20nogal!5e0!3m2!1ses!2smx!4v1680037331800!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)alejandro bermejo-dic 2022, Título: "Salto del nogal"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Si de atractivos naturales hablamos, entonces Salto Del Nogal es uno de los principale de Jalisco. Este parque ecoturístico es una de las opciones imperdibles para conocer la naturaleza de esta región en todo su esplendor. Este parque ecoturístico tiene 4.8 estrellas de calificación respaldadas por opiniones de hasta 100 visitantes. Es por eso que forma parte de esta lista como uno de los mejores lugares para hacer ecoturismo por acá, y por ese mismo motivo es uno de los centros ecoturísticos que -sí o sí- tienes que visitar.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Salto Del Nogal"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque natural se ubica en no cuenta con dirección
+Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Salto Del Nogal&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Salto Del Nogal?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Salto Del Nogal son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es no cuenta con teléfono
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Salto Del Nogal?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
  &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                </v>
       </c>
       <c r="W2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="valle-de-los-enigmas"&gt;&lt;b&gt;#17 Parque Ecoturístico Valle De Los Enigmas&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Valle_De_Los_Enigmas_24.jpg" alt="Valle De Los Enigmas"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3749.767590603122!2d-103.77727519999999!3d19.976273899999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259b3805d17393%3A0x33ce3fee08bf3706!2sValle%20De%20Los%20Enigmas!5e0!3m2!1ses!2smx!4v1680034257268!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Si se trata de explorar la belleza natural de Jalisco, entonces el sitio ecoturístico Valle De Los Enigmas es lo que llamamos un "must". Este sitio ecoturístico está recomendado por más de 124 opiniones de visitantes que lo han evaluado hasta con 4.8 estrellas. Se trata de uno de los espacios naturales más amenos de la región y una alternativa que no debes dejar de visitar si andas por Jalisco buscando algo de naturaleza.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Valle De Los Enigmas"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque de ecoturismo se ubica en Las Piedrotas, Jal.
-Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Valle De Los Enigmas&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Valle De Los Enigmas?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Valle De Los Enigmas son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2374 4770
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Valle De Los Enigmas?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Valle De Los Enigmas son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Jueves Cerrado&lt;/li&gt;
-                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Aunque cuentes ya con los horarios oficiales de apertura de este lugar, siempre te recomendamos que antes de ir eches un ojito a sus redes sociales y vías de contacto, para asegurarte de que no hayan tenido algún cambio logístico de última hora&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="valle-de-los-enigmas"&gt;&lt;b&gt;#17 Parque Ecoturístico Valle De Los Enigmas&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Valle_De_Los_Enigmas_24.jpg" alt="Valle De Los Enigmas"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3749.767590603122!2d-103.77727519999999!3d19.976273899999995!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259b3805d17393%3A0x33ce3fee08bf3706!2sValle%20De%20Los%20Enigmas!5e0!3m2!1ses!2smx!4v1680034257268!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Eduardo Cabrera-ago 2020, Título: "Valle De Los Enigmas"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Este sitio ecoturístico tiene  4.8 estrellas de calificación promedio, a partir de las más de 124 opiniones de sus visitantes... ¿nada mal no?. Es por esto que Valle De Los Enigmas es parte de esta lista de los parques naturales mejor calificados de Jalisco. Con este respaldo estamos más que seguras(os) que se trata  de un sitio que vas a disfrutar al Máximo. Así que ya sabes, si lo que buscas es naturaleza, el parque ecoturístico Valle De Los Enigmas en Jalisco es sin duda una gran opción.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Valle De Los Enigmas"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este centro de ecoturismo se ubica en Las Piedrotas, Jal.
+Utiliza la dirección en una herramienta de navegación para llegar directamente, o sigue este enlace al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Valle De Los Enigmas&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Valle De Los Enigmas?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Valle De Los Enigmas son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2374 4770
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Valle De Los Enigmas?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecológico Valle De Los Enigmas son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Cerrado&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque los horarios estén oficialmente vigentes, siempre es prudente revisar sus sitios de contacto y redes antes de lanzarte, por cualquier cambio extraordinario que puedan tener&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="X2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="parque-el-tecolote-mazamitla"&gt;&lt;b&gt;#18 Parque de Ecoturismo Parque El Tecolote Mazamitla&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_El_Tecolote_Mazamitla_12.jpg" alt="Parque El Tecolote Mazamitla"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.3010733056253!2d-102.98559209999999!3d19.9117137!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f06265b4584bb%3A0x62569beda3af123c!2sParque%20El%20Tecolote%20Mazamitla!5e0!3m2!1ses!2smx!4v1680034202440!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Con una calificación promedio de 4.5 estrellas y más de 571 opiniones positivas, ¡ Parque El Tecolote Mazamitla en Jalisco es otra de las alternativas infaltables esta lista de mejores centros ecoturísticos!. Si lo tuyo son entornos naturales, no tenemos duda de que este parque te permitirá disfrutar al máximo tu experiencia. Así que no dudes - Parque El Tecolote Mazamitla será una excelente elección para hacer ecoturismo en esta región.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Parque El Tecolote Mazamitla"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este centro ecoturístico se ubica en Terracería Mazamitla - El Tigre Km 6.5 Ejido La estacada - Epenche Chico, 49500 Mazamitla, Jal.
-Para encontrar esta dirección, puedes apoyarte en tu app de navegación favorita o irte directo a la navegación de googleMaps por medio de este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque El Tecolote Mazamitla?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Parque El Tecolote Mazamitla son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2211 0879
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.parquetecolotemazamitla.com.mx/"&gt;Web de Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Parque El Tecolote Mazamitla?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque El Tecolote Mazamitla son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 10:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Martes de 10:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Miércoles Cerrado&lt;/li&gt;
-                            &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 10:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Sábado de 10:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Domingo de 10:00 a 18:00&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;A pesar de que los horarios sean oficiales, es buena idea que antes ir, revises siempre cómo están las cosas en sus redes sociales y contactos digitales, esto te permitirá asegurarte de que no haya cambios de horario o logística antes de tu arribo al lugar&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="parque-el-tecolote-mazamitla"&gt;&lt;b&gt;#18 Parque de Ecoturismo Parque El Tecolote Mazamitla&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_El_Tecolote_Mazamitla_12.jpg" alt="Parque El Tecolote Mazamitla"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.3010733056253!2d-102.98559209999999!3d19.9117137!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f06265b4584bb%3A0x62569beda3af123c!2sParque%20El%20Tecolote%20Mazamitla!5e0!3m2!1ses!2smx!4v1680034202440!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)felipe contreras villa-jul 2016, Título: "Parque El Tecolote Mazamitla"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;¿Quieres vivir un paseo increible en contacto con la naturaleza? entonces el siguiente lugar en nuestra lista no te va a defraudar. Y es que si andas de visita o vives en Jalisco, tienes que considerar una vuelta al parque ecológico Parque El Tecolote Mazamitla. Con una calificación promedio de 4.5 estrellas y más de 571 reviews, este lugar es una de las mejores opciones para los amantes del ecoturismo y la aventura en la naturaleza. ¡Toma nota de todo lo requerido para tu visita con la información a continuación!.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Parque El Tecolote Mazamitla"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque de ecoturismo se ubica en Terracería Mazamitla - El Tigre Km 6.5 Ejido La estacada - Epenche Chico, 49500 Mazamitla, Jal.
+Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Parque El Tecolote Mazamitla?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Parque El Tecolote Mazamitla son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 2211 0879
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="https://www.parquetecolotemazamitla.com.mx/"&gt;Web de Parque El Tecolote Mazamitla&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecológico Parque El Tecolote Mazamitla?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del centro de ecoturismo Parque El Tecolote Mazamitla son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles Cerrado&lt;/li&gt;
+                                &lt;li&gt;Jueves de 09:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 10:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 10:00 a 18:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque los horarios estén oficialmente vigentes, siempre es prudente revisar sus sitios de contacto y redes antes de lanzarte, por cualquier cambio extraordinario que puedan tener&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="Y2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="cascada-santa-cruz"&gt;&lt;b&gt;#19 Centro Ecoturístico Cascada Santa Cruz&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_Santa_Cruz_22.jpg" alt="Cascada Santa Cruz"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3756.0372943335537!2d-103.3503544!3d19.7110363!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f9b49ae29df3d%3A0x1c904fd827efbff!2sCascada%20Santa%20Cruz!5e0!3m2!1ses!2smx!4v1680037227838!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Otro lugar ideal si estás buscando un espacio para conectarte con la naturaleza y disfrutarla a lo más es  Cascada Santa Cruz. Esta es una de las mejores opciones de Jalisco, con más de 90 opiniones positivas de sus visitantes, quienes lo han calificado en promedio como un sitio de 4.7 estrellas. Todo esto lo mantiene como uno de los centros ecoturísticos más concurridos de la región. Entonces ya sabes, si andas por Jalisco, aprovecha la oportunidad y organízate para visitar Cascada Santa Cruz.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Cascada Santa Cruz"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este sitio ecoturístico se ubica en 49656 Tamazula de Gordiano, Jal.
-Para llegar a este destino, apóyate en un navegador digital o vete directo a googleMaps por medio de este link al &lt;a href='undefined'&gt;Mapa del Sitio Ecoturístico Cascada Santa Cruz&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Cascada Santa Cruz?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada Santa Cruz son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Cascada Santa Cruz?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del sitio ecoturístico Cascada Santa Cruz son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
-                            &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;A pesar de que los horarios estén oficialmente vigentes, siempre está bien mirar en sus sitios de contacto y redes antes de visitarlos, por cualquier cambio extraordinario que pudieran tener, ambios por temporadas vacacionales, festivos, etc.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="cascada-santa-cruz"&gt;&lt;b&gt;#19 Parque Ecoturístico Cascada Santa Cruz&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Cascada_Santa_Cruz_22.jpg" alt="Cascada Santa Cruz"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3756.0372943335537!2d-103.3503544!3d19.7110363!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f9b49ae29df3d%3A0x1c904fd827efbff!2sCascada%20Santa%20Cruz!5e0!3m2!1ses!2smx!4v1680037227838!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Gala Averhoff Beltrán-feb 2021, Título: "Cascada Santa Cruz"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Nuestra siguiente gran opción para quienes disfrutan de los paisajes naturales es el parque ecoturístico Cascada Santa Cruz en Jalisco. Con más de 90 opiniones de visitantes y una calificación promedio de 4.7 estrellas, este lugar es uno de los más valorados en la región, así que toma nota de sus datos a continuación y programa tu visita ¡pero ya!.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Cascada Santa Cruz"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque natural se ubica en 49656 Tamazula de Gordiano, Jal.
+Si necesitas ir a este sitio manejando puedes apoyarte poniendo la dirección en un navegador tipo waze o googleMaps o siguiendo directamente este &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Cascada Santa Cruz&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Cascada Santa Cruz?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Cascada Santa Cruz son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Cascada Santa Cruz?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Cascada Santa Cruz son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Martes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Miércoles Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Jueves Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Viernes Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Sábado Abierto las 24 horas&lt;/li&gt;
+                                &lt;li&gt;Domingo Abierto las 24 horas&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios sean oficiales, la verdad que siempre es ideal revisar en sus redes sociales y medios de contacto antes de ir, para asegurarte de que no hayan tenido algún cambio extraordinario de horario o logística&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="Z2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="parque-ecologico-las-penas"&gt;&lt;b&gt;#20 Parque Ecoturístico Parque Ecológico Las Peñas&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Ecologico_Las_Penas_30.jpg" alt="Parque Ecológico Las Peñas"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3756.311056395434!2d-103.44668779999999!3d19.6993768!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f841f76685b6b%3A0xcb531015417a0f04!2sParque%20Ecol%C3%B3gico%20Las%20Pe%C3%B1as!5e0!3m2!1ses!2smx!4v1680034284776!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Si te apasiona la naturaleza y andas en busca de aventuras ¡pues no se diga más! porque sin duda el centro ecoturístico Parque Ecológico Las Peñas es otra de las alternativas en Jalisco que no debes dejar pasar. Este parque ecoturístico tiene una calificación promedio de 4.7 estrellas, gracias a que al menos 2185 personas distintas lo han evaluado de este modo... motivo por el que forma parte de este rank de los mejores. Así es que... siendo uno de los centros de ecoturismo mejores calificados en Jalisco ¿qué esperas para visitarlo?&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Sitio Ecoturístico "Parque Ecológico Las Peñas"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en C. Marcos Gordoa 477, Las Peñas, Cd Guzman, Jal.
-Para encontrar el sitio manejando puedes ingresar la dirección en una app tipo googleMaps o irte a este enlace al &lt;a href='undefined'&gt;Mapa del Parque Natural Parque Ecológico Las Peñas&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Parque Ecológico Las Peñas?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Parque Ecológico Las Peñas son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 341 575 2500
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.ciudadguzman.gob.mx/Pagina.aspx?id=8a094b55-ec5e-4e56-8c7b-0b73460caa13"&gt;Web de Parque Ecológico Las Peñas&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Parque Ecológico Las Peñas?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecoturístico Parque Ecológico Las Peñas son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 07:00 a 19:00&lt;/li&gt;
-                            &lt;li&gt;Martes de 07:00 a 19:00&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 07:00 a 19:00&lt;/li&gt;
-                            &lt;li&gt;Jueves de 07:00 a 19:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 07:00 a 19:00&lt;/li&gt;
-                            &lt;li&gt;Sábado de 07:00 a 19:00&lt;/li&gt;
-                            &lt;li&gt;Domingo de 07:00 a 19:00&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Aunque los horarios oficiales estén disponibles, es recomendable siempre verificar sus sitios de contacto y redes sociales antes de visitar el lugar, por cualquier cambio extraordinario que pudieran haber tenido&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="parque-ecologico-las-penas"&gt;&lt;b&gt;#20 Parque Ecoturístico Parque Ecológico Las Peñas&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Parque_Ecologico_Las_Penas_30.jpg" alt="Parque Ecológico Las Peñas"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3756.311056395434!2d-103.44668779999999!3d19.6993768!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842f841f76685b6b%3A0xcb531015417a0f04!2sParque%20Ecol%C3%B3gico%20Las%20Pe%C3%B1as!5e0!3m2!1ses!2smx!4v1680034284776!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)gabriel alvarez-oct 2011, Título: "Parque Ecológico Las Peñas"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;El parque natural Parque Ecológico Las Peñas es nuestra siguiente recomendación. Una de las opciones inmejorables para vivir la naturaleza en Jalisco. Con 4.7 estrellas y el aval de al menos 2185 visitantes con opiniones positivas, este parque ecoturístico se ha posicionado como uno de los mejores de por acá, y es un atractivo natural obligado si lo que buscas es un hacer algo de ecoturismo. Entonces, apúntate también todos sus detalles y ponte en ruta a las Parque Ecológico Las Peñas.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Parque Ecológico Las Peñas"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en C. Marcos Gordoa 477, Las Peñas, Cd Guzman, Jal.
+Utiliza la dirección en una herramienta de navegación para llegar directamente, o sigue este enlace al &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Parque Ecológico Las Peñas&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Parque Ecológico Las Peñas?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Natural Parque Ecológico Las Peñas son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 341 575 2500
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.ciudadguzman.gob.mx/Pagina.aspx?id=8a094b55-ec5e-4e56-8c7b-0b73460caa13"&gt;Web de Parque Ecológico Las Peñas&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Parque Ecológico Las Peñas?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del centro ecoturístico Parque Ecológico Las Peñas son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 07:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 07:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 07:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 07:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 07:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 07:00 a 19:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 07:00 a 19:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque los horarios estén oficialmente vigentes, es bueno que cheques en sus redes y canales digitales el estátus del centro o parque antes de ir. Así te aseguras de que no ha habido cambios especiales o cierres extraordinarios por feriados o holidays especiales&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="AA2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="puente-de-arcediano"&gt;&lt;b&gt;#21 Parque de Ecoturismo Puente De Arcediano&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Puente_de_Arcediano_70.jpg" alt="Puente de Arcediano"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3731.2427604291765!2d-103.2949252!3d20.740952399999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428b094a6b90599%3A0x2957e091bba749ec!2sPuente%20de%20Arcediano!5e0!3m2!1ses!2smx!4v1680037477048!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Si andas en búsca de experiencias únicas en la naturaleza, entonces el centro de ecoturismo Puente De Arcediano en Jalisco tiene que ser también parte de tu lista. Este es un parque ecoturístico con más de 1964 opiniones de visitantes y que ha sido de manera consistente calificado con hasta 4.8 estrellas, es por eso que aunque pueda tener algunas áreas de mejora, es uno de los mejores lugares para disfrutar de la naturaleza de este estado. Así que no lo pienses mucho más y ¡a visitar Puente De Arcediano!&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Centro Ecoturístico "Puente De Arcediano"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en Guadalajara, Jal.
-Si ya estás con todo listo para irte a este lugar entonces ¡no se diga más!, puedes ir siguiendo directamente la ruta de googleMaps mediante este &lt;a href='undefined'&gt;Mapa del Centro Ecoturístico Puente De Arcediano&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Puente De Arcediano?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Sitio Ecoturístico Puente De Arcediano son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Puente De Arcediano?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del parque ecológico Puente De Arcediano son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 06:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Martes de 06:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 06:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Jueves de 06:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Viernes de 06:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Sábado de 06:00 a 18:00&lt;/li&gt;
-                            &lt;li&gt;Domingo de 06:00 a 18:00&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Es importante verificar sus redes sociales o contactos digitales antes de ir, porque independientemente de estos horarios oficiales, siempre pueden existir cambios de último momento por situaciones extraordinarias de clima, temporada vacacional y demás&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="puente-de-arcediano"&gt;&lt;b&gt;#21 Parque Ecoturístico Puente De Arcediano&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Puente_de_Arcediano_70.jpg" alt="Puente de Arcediano"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3731.2427604291765!2d-103.2949252!3d20.740952399999998!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x8428b094a6b90599%3A0x2957e091bba749ec!2sPuente%20de%20Arcediano!5e0!3m2!1ses!2smx!4v1680037477048!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Paul Romo-mar 2021, Título: "Puente de Arcediano"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Siguiendo con esta lista, ahora pasamos a Puente De Arcediano. Y es que si eres de quienes ama estar en contacto con la naturaleza y andas por Jalisco, entonces tienes que considerar la experiencia de visitar el sitio ecoturístico Puente De Arcediano. Con una calificación promedio de 4.8 estrellas a partir de reviews de más de 1964 presonas, no tenemos duda de es también una gran opcíon. Así que toma nota de todos sus datos y prográmate para sumergirte en los paisajes naturales de Jalisco y vive el ecoturismo que te ofrece Puente De Arcediano.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Puente De Arcediano"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque ecoturístico se ubica en Guadalajara, Jal.
+Para llegar a este parque puedes poner colocar la dirección en una herramienta de navegación tipo waze o irte por medio de este enlace &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Puente De Arcediano&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Puente De Arcediano?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque de Ecoturismo Puente De Arcediano son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el sitio ecoturístico Puente De Arcediano?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del centro ecoturístico Puente De Arcediano son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 06:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Martes de 06:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 06:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Jueves de 06:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Viernes de 06:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Sábado de 06:00 a 18:00&lt;/li&gt;
+                                &lt;li&gt;Domingo de 06:00 a 18:00&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Antes de visitar el lugar, es una buena idea verificar sus sitios de contacto digitales y redes sociales, aún si ya cuentas con los horarios oficiales, para evitar cualquier cambio inesperado o sorpresas ya que estés ahí (por ej. cambio por días feriados)&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="AB2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="ekopark-tapalpa"&gt;&lt;b&gt;#22 Parque de Ecoturismo Ekopark Tapalpa&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Ekopark_Tapalpa_43.jpg" alt="Ekopark Tapalpa"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.325905571427!2d-103.82067909999999!3d19.9106666!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259bdf45267167%3A0x3ee6ce2ad3377dd7!2sEkopark%20Tapalpa!5e0!3m2!1ses!2smx!4v1680034344043!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Nuestra siguiente gran opción para quienes disfrutan de los paisajes naturales es el parque de ecoturismo Ekopark Tapalpa en Jalisco. Con más de 417 opiniones de visitantes y una calificación promedio de 4.5 estrellas, este lugar es uno de los más valorados en la región, así que toma nota de sus datos a continuación y programa tu visita ¡pero ya!.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Ekopark Tapalpa"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en Camino a San Gabriel Km. 6.5, 49340 Tapalpa, Jal.
-Encontrar esta dirección es muy sencillo utilizando una herramienta de navegación como Waze o siguiendo directamente este &lt;a href='undefined'&gt;Mapa del Centro de Ecoturismo Ekopark Tapalpa&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Ekopark Tapalpa?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Ekopark Tapalpa son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 3813 5907
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.ekopark.com.mx/"&gt;Web de Ekopark Tapalpa&lt;/a&gt;&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Ekopark Tapalpa?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt;Los horarios oficiales del centro ecoturístico Ekopark Tapalpa son los siguientes:&lt;/p&gt;                       
-                        &lt;ul&gt;
-                            &lt;li&gt;Lunes de 10:30 a 17:30&lt;/li&gt;
-                            &lt;li&gt;Martes de 10:30 a 17:30&lt;/li&gt;
-                            &lt;li&gt;Miércoles de 10:30 a 17:30&lt;/li&gt;
-                            &lt;li&gt;Jueves de 10:30 a 17:30&lt;/li&gt;
-                            &lt;li&gt;Viernes de 10:30 a 17:30&lt;/li&gt;
-                            &lt;li&gt;Sábado de 10:30 a 17:30&lt;/li&gt;
-                            &lt;li&gt;Domingo de 10:30 a 17:30&lt;/li&gt;
-                        &lt;/ul&gt;
-                        &lt;p&gt;Siempre es importante -aún si cuentas con estos horarios oficiales-, revisar en sus redes sociales y medios de contacto antes de ir. Así podrás asegurarte de que no hayan tenido ningún cambio de horario o logístico de último momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="ekopark-tapalpa"&gt;&lt;b&gt;#22 Centro Ecoturístico Ekopark Tapalpa&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Ekopark_Tapalpa_43.jpg" alt="Ekopark Tapalpa"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3751.325905571427!2d-103.82067909999999!3d19.9106666!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x84259bdf45267167%3A0x3ee6ce2ad3377dd7!2sEkopark%20Tapalpa!5e0!3m2!1ses!2smx!4v1680034344043!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Ekopark Tapalpa-oct 2021, Título: "Camino a San Gabriel Km. 6.5, 49340 Tapalpa, Jal."&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;Si se trata de explorar la belleza natural de Jalisco, entonces el centro ecoturístico Ekopark Tapalpa es lo que llamamos un "must". Este centro ecoturístico está recomendado por más de 417 opiniones de visitantes que lo han evaluado hasta con 4.5 estrellas. Se trata de uno de los espacios naturales más amenos de la región y una alternativa que no debes dejar de visitar si andas por Jalisco buscando algo de naturaleza.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque Ecoturístico "Ekopark Tapalpa"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este parque de ecoturismo se ubica en Camino a San Gabriel Km. 6.5, 49340 Tapalpa, Jal.
+Para llegar al centro manejando puedes poner la dirección en un navegador digital (ej. waze o googleMaps), o irte usando este enlace directo al &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Ekopark Tapalpa&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del centro ecoturístico Ekopark Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Centro Ecoturístico Ekopark Tapalpa son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; El teléfono oficial de este centro ecoturístico es 33 3813 5907
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; &lt;a href="http://www.ekopark.com.mx/"&gt;Web de Ekopark Tapalpa&lt;/a&gt;&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro ecoturístico Ekopark Tapalpa?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt;Los horarios oficiales del parque ecoturístico Ekopark Tapalpa son los siguientes:&lt;/p&gt;                       
+                            &lt;ul&gt;
+                                &lt;li&gt;Lunes de 10:30 a 17:30&lt;/li&gt;
+                                &lt;li&gt;Martes de 10:30 a 17:30&lt;/li&gt;
+                                &lt;li&gt;Miércoles de 10:30 a 17:30&lt;/li&gt;
+                                &lt;li&gt;Jueves de 10:30 a 17:30&lt;/li&gt;
+                                &lt;li&gt;Viernes de 10:30 a 17:30&lt;/li&gt;
+                                &lt;li&gt;Sábado de 10:30 a 17:30&lt;/li&gt;
+                                &lt;li&gt;Domingo de 10:30 a 17:30&lt;/li&gt;
+                            &lt;/ul&gt;
+                            &lt;p&gt;Aunque estos horarios están oficialmente vigentes, siempre es bueno consultar sus sitios de contacto y redes oficiales antes de visitarlos, por cualquier cambio extraordinario que pudieran tener.&lt;/p&gt;&lt;/div&gt;
+                </v>
       </c>
       <c r="AC2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-            &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
-            &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
-            &lt;!-- /wp:separator --&gt;
-            &lt;h2 id="piedras-bola"&gt;&lt;b&gt;#23 Centro Ecoturístico Piedras Bola&lt;/b&gt;&lt;/h2&gt;
-                &lt;div class="wp-block-columns" style="padding:0px;"&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;
-                        &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Piedras_Bola_62.jpg" alt="Piedras Bola"/&gt;&lt;/figure&gt; 
-                    &lt;/div&gt;
-                    &lt;div class="wp-block-column" style="margin:10px"&gt;                        
-                       &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.4346558331736!2d-104.0579168!3d20.6518883!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842670fee733ff31%3A0x8a463530201a51bf!2sPiedras%20Bola!5e0!3m2!1ses!2smx!4v1680034432113!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
-                    &lt;/div&gt;
-                &lt;/div&gt;                
-                &lt;p&gt;Piedras Bola es nuestra siguiente recomendación. Se trata de uno de los sitios naturales más lindos que Jalisco tiene para ofrecer. Está respaldado por la aprobación de más de 118 opiniones que en promedio le han otorgado 4.5 estrellas, haciéndolo un favorito por acá, y volviéndolo una parada obligada en esta lista de los mejores centro ecoturístico de Jalisco.&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Piedras Bola"? &lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Este parque ecoturístico se ubica en Ameca, Jal.
-Para ir a este parque, simplemente basta con colocar la dirección en una app de navegación o siguiendo este &lt;a href='undefined'&gt;Mapa del Parque de Ecoturismo Piedras Bola&lt;/a&gt;&lt;/p&gt;
-                &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Piedras Bola?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Piedras Bola son: &lt;/p&gt;
-                    &lt;ul&gt;
-                        &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
-                        &lt;/li&gt;                                              
-                        &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
-                    &lt;/ul&gt;
-                &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el centro de ecoturismo Piedras Bola?&lt;/b&gt;&lt;/h3&gt;
-                    &lt;div&gt;
-                    &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
+                &lt;!-- wp:separator {"className":"is-style-dots"} --&gt;
+                &lt;hr class="wp-block-separator has-alpha-channel-opacity is-style-dots"/&gt;
+                &lt;!-- /wp:separator --&gt;
+                &lt;h2 id="piedras-bola"&gt;&lt;b&gt;#23 Parque Ecoturístico Piedras Bola&lt;/b&gt;&lt;/h2&gt;
+                &lt;div&gt;
+                    &lt;div class="wp-block-columns" style="padding:0px; margin-bottom:0px"&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;
+                            &lt;figure class="wp-block-image"&gt;&lt;img src="https://rumbonaturaleza.com/wp-content/uploads/2023/04/Piedras_Bola_62.jpg" alt="Piedras Bola"/&gt;&lt;/figure&gt; 
+                        &lt;/div&gt;
+                        &lt;div class="wp-block-column" style="margin:10px"&gt;                      
+                           &lt;iframe src="https://www.google.com/maps/embed?pb=!1m18!1m12!1m3!1d3733.4346558331736!2d-104.0579168!3d20.6518883!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!3m3!1m2!1s0x842670fee733ff31%3A0x8a463530201a51bf!2sPiedras%20Bola!5e0!3m2!1ses!2smx!4v1680034432113!5m2!1ses!2smx" width="390" height="420" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;
+                        &lt;/div&gt;                        
+                    &lt;/div&gt;                    
+                    &lt;figcaption style="text-align:center; font-size:13px; margin-top:-30px;padding-bottom:12px;"&gt;Créditos: (1)GoogleMaps, (2)Edilberto Gomez-Foto, Título: "Piedras Bola"&lt;/figcaption&gt;
+                &lt;/div&gt;
+                    &lt;p&gt;¿Quieres disfrutar de la naturaleza en Jalisco al máximo? Entonces el parque ecoturístico Piedras Bola es lo que llamamos un "MUST" o una "parada obligada". Este centro de ecoturismo tiene una calificación promedio de 4.5 estrellas y más de 118 opiniones positivas de quienes lo han visitado anteriormente. Por esas razones Piedras Bola se ha consolidado como uno de los principales atractivos naturales de Jalisco y uno de los mejores sitios para hacer ecoturismo en esta región.&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cómo llegar al Parque de Ecoturismo "Piedras Bola"? &lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Este centro ecoturístico se ubica en Ameca, Jal.
+Con esta dirección y un googleMaps o waze típico del celular vas a poder llegar sin ningún problema al sitio. Igual para facilitarte el proceso, acá te va una liga al &lt;a href='undefined'&gt;Mapa del Parque Ecoturístico Piedras Bola&lt;/a&gt;&lt;/p&gt;
+                    &lt;h3&gt;&lt;b&gt;¿Cuáles son los contactos del parque ecoturístico Piedras Bola?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;p&gt;Los contactos disponibles del Parque Ecoturístico Piedras Bola son: &lt;/p&gt;
+                        &lt;ul&gt;
+                            &lt;li&gt;&lt;b&gt;Teléfono:&lt;/b&gt; No se identificó ningún contacto oficial (vigente) para este centro ecoturístico.
+                            &lt;/li&gt;                                              
+                            &lt;li&gt;&lt;b&gt;SitioWeb:&lt;/b&gt; No se cuenta con web oficial disponible&lt;/li&gt;                                
+                        &lt;/ul&gt;
+                    &lt;h3&gt;&lt;b&gt;¿En qué horarios y días se puede visitar el parque ecoturístico Piedras Bola?&lt;/b&gt;&lt;/h3&gt;
+                        &lt;div&gt;
+                        &lt;p&gt; Lamentablemente este sitio no cuenta con horarios publicados oficialmente, posiblemente se deba a que hay variaciones frecuentes o temporales en sus horarios de operación.&lt;/p&gt; 
  &lt;p&gt;En estos casos, lo más recomendable es que cerca de tu fecha de visita, eches un ojo a sus sitios oficiales o los llames directamente (por tel, whatsapp o FB proporcionados antes) y consultes horarios vigentes en ese momento.&lt;/p&gt;&lt;/div&gt;
-            </v>
+                </v>
       </c>
       <c r="AD2" t="str">
         <v>parques-ecoturisticos-jalisco</v>
